--- a/excel_sheets/wageTime_sheets 2023/出退勤表　6月.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/出退勤表　6月.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1920" yWindow="144" windowWidth="10320" windowHeight="11508" tabRatio="600" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1620" yWindow="288" windowWidth="10320" windowHeight="11508" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="給料テーブル" sheetId="1" state="visible" r:id="rId1"/>
@@ -520,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,18 +647,40 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1050,8 +1072,8 @@
     <col width="12.59765625" customWidth="1" style="4" min="2" max="2"/>
     <col width="8.796875" customWidth="1" style="2" min="3" max="3"/>
     <col width="0.69921875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="2" min="5" max="8"/>
-    <col width="8.796875" customWidth="1" style="2" min="9" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="12"/>
+    <col width="8.796875" customWidth="1" style="2" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1067,7 +1089,7 @@
       </c>
       <c r="J1" s="48" t="n"/>
     </row>
-    <row r="2" ht="18.6" customHeight="1" s="74" thickBot="1"/>
+    <row r="2" ht="18.6" customHeight="1" s="89" thickBot="1"/>
     <row r="3" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
       <c r="B3" s="49" t="inlineStr">
         <is>
@@ -1151,54 +1173,18 @@
         <v>1400</v>
       </c>
       <c r="D4" s="55" t="n"/>
-      <c r="E4" s="56">
-        <f>$C$4*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F4" s="57">
-        <f>E4/190000</f>
-        <v/>
-      </c>
-      <c r="G4" s="58">
-        <f>$C$4*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H4" s="59">
-        <f>G4/190000</f>
-        <v/>
-      </c>
-      <c r="I4" s="58">
-        <f>$C$4*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J4" s="59">
-        <f>I4/190000</f>
-        <v/>
-      </c>
-      <c r="K4" s="58">
-        <f>$C$4*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L4" s="59">
-        <f>K4/190000</f>
-        <v/>
-      </c>
-      <c r="M4" s="58">
-        <f>$C$4*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N4" s="59">
-        <f>M4/190000</f>
-        <v/>
-      </c>
-      <c r="O4" s="58">
-        <f>$C$4*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P4" s="60">
-        <f>O4/190000</f>
-        <v/>
-      </c>
+      <c r="E4" s="56" t="n"/>
+      <c r="F4" s="57" t="n"/>
+      <c r="G4" s="58" t="n"/>
+      <c r="H4" s="59" t="n"/>
+      <c r="I4" s="58" t="n"/>
+      <c r="J4" s="59" t="n"/>
+      <c r="K4" s="58" t="n"/>
+      <c r="L4" s="59" t="n"/>
+      <c r="M4" s="58" t="n"/>
+      <c r="N4" s="59" t="n"/>
+      <c r="O4" s="58" t="n"/>
+      <c r="P4" s="60" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="4" t="inlineStr">
@@ -1210,54 +1196,18 @@
         <v>1500</v>
       </c>
       <c r="D5" s="55" t="n"/>
-      <c r="E5" s="61">
-        <f>$C$5*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F5" s="62">
-        <f>E5/290000</f>
-        <v/>
-      </c>
-      <c r="G5" s="56">
-        <f>$C$5*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H5" s="57">
-        <f>G5/290000</f>
-        <v/>
-      </c>
-      <c r="I5" s="58">
-        <f>$C$5*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J5" s="59">
-        <f>I5/290000</f>
-        <v/>
-      </c>
-      <c r="K5" s="58">
-        <f>$C$5*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L5" s="59">
-        <f>K5/290000</f>
-        <v/>
-      </c>
-      <c r="M5" s="58">
-        <f>$C$5*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N5" s="59">
-        <f>M5/290000</f>
-        <v/>
-      </c>
-      <c r="O5" s="58">
-        <f>$C$5*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P5" s="60">
-        <f>O5/290000</f>
-        <v/>
-      </c>
+      <c r="E5" s="61" t="n"/>
+      <c r="F5" s="62" t="n"/>
+      <c r="G5" s="56" t="n"/>
+      <c r="H5" s="57" t="n"/>
+      <c r="I5" s="58" t="n"/>
+      <c r="J5" s="59" t="n"/>
+      <c r="K5" s="58" t="n"/>
+      <c r="L5" s="59" t="n"/>
+      <c r="M5" s="58" t="n"/>
+      <c r="N5" s="59" t="n"/>
+      <c r="O5" s="58" t="n"/>
+      <c r="P5" s="60" t="n"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="inlineStr">
@@ -1269,54 +1219,18 @@
         <v>1550</v>
       </c>
       <c r="D6" s="55" t="n"/>
-      <c r="E6" s="61">
-        <f>$C$6*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F6" s="62">
-        <f>E6/390000</f>
-        <v/>
-      </c>
-      <c r="G6" s="56">
-        <f>$C$6*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H6" s="57">
-        <f>G6/390000</f>
-        <v/>
-      </c>
-      <c r="I6" s="63">
-        <f>$C$6*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J6" s="64">
-        <f>I6/390000</f>
-        <v/>
-      </c>
-      <c r="K6" s="63">
-        <f>$C$6*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L6" s="64">
-        <f>K6/390000</f>
-        <v/>
-      </c>
-      <c r="M6" s="63">
-        <f>$C$6*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N6" s="64">
-        <f>M6/390000</f>
-        <v/>
-      </c>
-      <c r="O6" s="63">
-        <f>$C$6*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P6" s="65">
-        <f>O6/390000</f>
-        <v/>
-      </c>
+      <c r="E6" s="61" t="n"/>
+      <c r="F6" s="62" t="n"/>
+      <c r="G6" s="56" t="n"/>
+      <c r="H6" s="57" t="n"/>
+      <c r="I6" s="63" t="n"/>
+      <c r="J6" s="64" t="n"/>
+      <c r="K6" s="63" t="n"/>
+      <c r="L6" s="64" t="n"/>
+      <c r="M6" s="63" t="n"/>
+      <c r="N6" s="64" t="n"/>
+      <c r="O6" s="63" t="n"/>
+      <c r="P6" s="65" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="4" t="inlineStr">
@@ -1328,54 +1242,18 @@
         <v>1600</v>
       </c>
       <c r="D7" s="55" t="n"/>
-      <c r="E7" s="61">
-        <f>$C$7*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F7" s="62">
-        <f>E7/490000</f>
-        <v/>
-      </c>
-      <c r="G7" s="56">
-        <f>$C$7*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H7" s="57">
-        <f>G7/490000</f>
-        <v/>
-      </c>
-      <c r="I7" s="56">
-        <f>$C$7*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J7" s="57">
-        <f>I7/490000</f>
-        <v/>
-      </c>
-      <c r="K7" s="58">
-        <f>$C$7*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L7" s="59">
-        <f>K7/490000</f>
-        <v/>
-      </c>
-      <c r="M7" s="58">
-        <f>$C$7*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N7" s="59">
-        <f>M7/490000</f>
-        <v/>
-      </c>
-      <c r="O7" s="58">
-        <f>$C$7*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P7" s="60">
-        <f>O7/490000</f>
-        <v/>
-      </c>
+      <c r="E7" s="61" t="n"/>
+      <c r="F7" s="62" t="n"/>
+      <c r="G7" s="56" t="n"/>
+      <c r="H7" s="57" t="n"/>
+      <c r="I7" s="56" t="n"/>
+      <c r="J7" s="57" t="n"/>
+      <c r="K7" s="58" t="n"/>
+      <c r="L7" s="59" t="n"/>
+      <c r="M7" s="58" t="n"/>
+      <c r="N7" s="59" t="n"/>
+      <c r="O7" s="58" t="n"/>
+      <c r="P7" s="60" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="4" t="inlineStr">
@@ -1387,54 +1265,18 @@
         <v>1650</v>
       </c>
       <c r="D8" s="55" t="n"/>
-      <c r="E8" s="61">
-        <f>$C$8*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F8" s="62">
-        <f>E8/590000</f>
-        <v/>
-      </c>
-      <c r="G8" s="66">
-        <f>$C$8*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H8" s="67">
-        <f>G8/590000</f>
-        <v/>
-      </c>
-      <c r="I8" s="56">
-        <f>$C$8*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J8" s="57">
-        <f>I8/590000</f>
-        <v/>
-      </c>
-      <c r="K8" s="56">
-        <f>$C$8*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L8" s="57">
-        <f>K8/590000</f>
-        <v/>
-      </c>
-      <c r="M8" s="58">
-        <f>$C$8*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N8" s="59">
-        <f>M8/590000</f>
-        <v/>
-      </c>
-      <c r="O8" s="58">
-        <f>$C$8*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P8" s="60">
-        <f>O8/590000</f>
-        <v/>
-      </c>
+      <c r="E8" s="61" t="n"/>
+      <c r="F8" s="62" t="n"/>
+      <c r="G8" s="66" t="n"/>
+      <c r="H8" s="67" t="n"/>
+      <c r="I8" s="56" t="n"/>
+      <c r="J8" s="57" t="n"/>
+      <c r="K8" s="56" t="n"/>
+      <c r="L8" s="57" t="n"/>
+      <c r="M8" s="58" t="n"/>
+      <c r="N8" s="59" t="n"/>
+      <c r="O8" s="58" t="n"/>
+      <c r="P8" s="60" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="4" t="inlineStr">
@@ -1446,54 +1288,18 @@
         <v>1700</v>
       </c>
       <c r="D9" s="55" t="n"/>
-      <c r="E9" s="61">
-        <f>$C$9*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F9" s="62">
-        <f>E9/690000</f>
-        <v/>
-      </c>
-      <c r="G9" s="66">
-        <f>$C$9*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H9" s="67">
-        <f>G9/690000</f>
-        <v/>
-      </c>
-      <c r="I9" s="56">
-        <f>$C$9*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J9" s="57">
-        <f>I9/690000</f>
-        <v/>
-      </c>
-      <c r="K9" s="56">
-        <f>$C$9*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L9" s="57">
-        <f>K9/690000</f>
-        <v/>
-      </c>
-      <c r="M9" s="58">
-        <f>$C$9*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N9" s="59">
-        <f>M9/690000</f>
-        <v/>
-      </c>
-      <c r="O9" s="58">
-        <f>$C$9*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P9" s="60">
-        <f>O9/690000</f>
-        <v/>
-      </c>
+      <c r="E9" s="61" t="n"/>
+      <c r="F9" s="62" t="n"/>
+      <c r="G9" s="66" t="n"/>
+      <c r="H9" s="67" t="n"/>
+      <c r="I9" s="56" t="n"/>
+      <c r="J9" s="57" t="n"/>
+      <c r="K9" s="56" t="n"/>
+      <c r="L9" s="57" t="n"/>
+      <c r="M9" s="58" t="n"/>
+      <c r="N9" s="59" t="n"/>
+      <c r="O9" s="58" t="n"/>
+      <c r="P9" s="60" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="4" t="inlineStr">
@@ -1505,54 +1311,18 @@
         <v>1750</v>
       </c>
       <c r="D10" s="55" t="n"/>
-      <c r="E10" s="61">
-        <f>$C$10*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F10" s="62">
-        <f>E10/790000</f>
-        <v/>
-      </c>
-      <c r="G10" s="66">
-        <f>$C$10*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H10" s="67">
-        <f>G10/790000</f>
-        <v/>
-      </c>
-      <c r="I10" s="66">
-        <f>$C$10*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J10" s="67">
-        <f>I10/790000</f>
-        <v/>
-      </c>
-      <c r="K10" s="56">
-        <f>$C$10*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L10" s="57">
-        <f>K10/790000</f>
-        <v/>
-      </c>
-      <c r="M10" s="56">
-        <f>$C$10*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N10" s="57">
-        <f>M10/790000</f>
-        <v/>
-      </c>
-      <c r="O10" s="58">
-        <f>$C$10*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P10" s="60">
-        <f>O10/790000</f>
-        <v/>
-      </c>
+      <c r="E10" s="61" t="n"/>
+      <c r="F10" s="62" t="n"/>
+      <c r="G10" s="66" t="n"/>
+      <c r="H10" s="67" t="n"/>
+      <c r="I10" s="66" t="n"/>
+      <c r="J10" s="67" t="n"/>
+      <c r="K10" s="56" t="n"/>
+      <c r="L10" s="57" t="n"/>
+      <c r="M10" s="56" t="n"/>
+      <c r="N10" s="57" t="n"/>
+      <c r="O10" s="58" t="n"/>
+      <c r="P10" s="60" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="4" t="inlineStr">
@@ -1564,54 +1334,18 @@
         <v>1800</v>
       </c>
       <c r="D11" s="55" t="n"/>
-      <c r="E11" s="61">
-        <f>$C$11*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F11" s="62">
-        <f>E11/890000</f>
-        <v/>
-      </c>
-      <c r="G11" s="66">
-        <f>$C$11*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H11" s="67">
-        <f>G11/890000</f>
-        <v/>
-      </c>
-      <c r="I11" s="66">
-        <f>$C$11*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J11" s="67">
-        <f>I11/890000</f>
-        <v/>
-      </c>
-      <c r="K11" s="56">
-        <f>$C$11*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L11" s="57">
-        <f>K11/890000</f>
-        <v/>
-      </c>
-      <c r="M11" s="56">
-        <f>$C$11*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N11" s="57">
-        <f>M11/890000</f>
-        <v/>
-      </c>
-      <c r="O11" s="58">
-        <f>$C$11*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P11" s="60">
-        <f>O11/890000</f>
-        <v/>
-      </c>
+      <c r="E11" s="61" t="n"/>
+      <c r="F11" s="62" t="n"/>
+      <c r="G11" s="66" t="n"/>
+      <c r="H11" s="67" t="n"/>
+      <c r="I11" s="66" t="n"/>
+      <c r="J11" s="67" t="n"/>
+      <c r="K11" s="56" t="n"/>
+      <c r="L11" s="57" t="n"/>
+      <c r="M11" s="56" t="n"/>
+      <c r="N11" s="57" t="n"/>
+      <c r="O11" s="58" t="n"/>
+      <c r="P11" s="60" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="4" t="inlineStr">
@@ -1623,54 +1357,18 @@
         <v>1850</v>
       </c>
       <c r="D12" s="55" t="n"/>
-      <c r="E12" s="61">
-        <f>$C$12*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F12" s="62">
-        <f>E12/990000</f>
-        <v/>
-      </c>
-      <c r="G12" s="66">
-        <f>$C$12*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H12" s="67">
-        <f>G12/990000</f>
-        <v/>
-      </c>
-      <c r="I12" s="66">
-        <f>$C$12*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J12" s="67">
-        <f>I12/990000</f>
-        <v/>
-      </c>
-      <c r="K12" s="66">
-        <f>$C$12*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L12" s="67">
-        <f>K12/990000</f>
-        <v/>
-      </c>
-      <c r="M12" s="56">
-        <f>$C$12*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N12" s="57">
-        <f>M12/990000</f>
-        <v/>
-      </c>
-      <c r="O12" s="58">
-        <f>$C$12*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P12" s="60">
-        <f>O12/990000</f>
-        <v/>
-      </c>
+      <c r="E12" s="61" t="n"/>
+      <c r="F12" s="62" t="n"/>
+      <c r="G12" s="66" t="n"/>
+      <c r="H12" s="67" t="n"/>
+      <c r="I12" s="66" t="n"/>
+      <c r="J12" s="67" t="n"/>
+      <c r="K12" s="66" t="n"/>
+      <c r="L12" s="67" t="n"/>
+      <c r="M12" s="56" t="n"/>
+      <c r="N12" s="57" t="n"/>
+      <c r="O12" s="58" t="n"/>
+      <c r="P12" s="60" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="4" t="inlineStr">
@@ -1682,54 +1380,18 @@
         <v>1950</v>
       </c>
       <c r="D13" s="55" t="n"/>
-      <c r="E13" s="61">
-        <f>$C$13*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F13" s="62">
-        <f>E13/1090000</f>
-        <v/>
-      </c>
-      <c r="G13" s="66">
-        <f>$C$13*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H13" s="62">
-        <f>G13/1090000</f>
-        <v/>
-      </c>
-      <c r="I13" s="66">
-        <f>$C$13*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J13" s="62">
-        <f>I13/1090000</f>
-        <v/>
-      </c>
-      <c r="K13" s="66">
-        <f>$C$13*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L13" s="62">
-        <f>K13/1090000</f>
-        <v/>
-      </c>
-      <c r="M13" s="56">
-        <f>$C$13*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N13" s="68">
-        <f>M13/1090000</f>
-        <v/>
-      </c>
-      <c r="O13" s="56">
-        <f>$C$13*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P13" s="68">
-        <f>O13/1090000</f>
-        <v/>
-      </c>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="62" t="n"/>
+      <c r="G13" s="66" t="n"/>
+      <c r="H13" s="62" t="n"/>
+      <c r="I13" s="66" t="n"/>
+      <c r="J13" s="62" t="n"/>
+      <c r="K13" s="66" t="n"/>
+      <c r="L13" s="62" t="n"/>
+      <c r="M13" s="56" t="n"/>
+      <c r="N13" s="68" t="n"/>
+      <c r="O13" s="56" t="n"/>
+      <c r="P13" s="68" t="n"/>
     </row>
     <row r="14">
       <c r="B14" s="4" t="inlineStr">
@@ -1741,54 +1403,18 @@
         <v>2000</v>
       </c>
       <c r="D14" s="55" t="n"/>
-      <c r="E14" s="61">
-        <f>$C$14*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F14" s="62">
-        <f>E14/1190000</f>
-        <v/>
-      </c>
-      <c r="G14" s="66">
-        <f>$C$14*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H14" s="62">
-        <f>G14/1190000</f>
-        <v/>
-      </c>
-      <c r="I14" s="66">
-        <f>$C$14*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J14" s="62">
-        <f>I14/1190000</f>
-        <v/>
-      </c>
-      <c r="K14" s="66">
-        <f>$C$14*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L14" s="62">
-        <f>K14/1190000</f>
-        <v/>
-      </c>
-      <c r="M14" s="56">
-        <f>$C$14*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N14" s="68">
-        <f>M14/1190000</f>
-        <v/>
-      </c>
-      <c r="O14" s="56">
-        <f>$C$14*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P14" s="68">
-        <f>O14/1190000</f>
-        <v/>
-      </c>
+      <c r="E14" s="61" t="n"/>
+      <c r="F14" s="62" t="n"/>
+      <c r="G14" s="66" t="n"/>
+      <c r="H14" s="62" t="n"/>
+      <c r="I14" s="66" t="n"/>
+      <c r="J14" s="62" t="n"/>
+      <c r="K14" s="66" t="n"/>
+      <c r="L14" s="62" t="n"/>
+      <c r="M14" s="56" t="n"/>
+      <c r="N14" s="68" t="n"/>
+      <c r="O14" s="56" t="n"/>
+      <c r="P14" s="68" t="n"/>
     </row>
     <row r="15">
       <c r="B15" s="4" t="inlineStr">
@@ -1800,54 +1426,18 @@
         <v>2050</v>
       </c>
       <c r="D15" s="55" t="n"/>
-      <c r="E15" s="61">
-        <f>$C$15*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F15" s="62">
-        <f>E15/1290000</f>
-        <v/>
-      </c>
-      <c r="G15" s="66">
-        <f>$C$15*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H15" s="62">
-        <f>G15/1290000</f>
-        <v/>
-      </c>
-      <c r="I15" s="66">
-        <f>$C$15*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J15" s="62">
-        <f>I15/1290000</f>
-        <v/>
-      </c>
-      <c r="K15" s="66">
-        <f>$C$15*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L15" s="62">
-        <f>K15/1290000</f>
-        <v/>
-      </c>
-      <c r="M15" s="56">
-        <f>$C$15*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N15" s="68">
-        <f>M15/1290000</f>
-        <v/>
-      </c>
-      <c r="O15" s="56">
-        <f>$C$15*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P15" s="68">
-        <f>O15/1290000</f>
-        <v/>
-      </c>
+      <c r="E15" s="61" t="n"/>
+      <c r="F15" s="62" t="n"/>
+      <c r="G15" s="66" t="n"/>
+      <c r="H15" s="62" t="n"/>
+      <c r="I15" s="66" t="n"/>
+      <c r="J15" s="62" t="n"/>
+      <c r="K15" s="66" t="n"/>
+      <c r="L15" s="62" t="n"/>
+      <c r="M15" s="56" t="n"/>
+      <c r="N15" s="68" t="n"/>
+      <c r="O15" s="56" t="n"/>
+      <c r="P15" s="68" t="n"/>
     </row>
     <row r="16">
       <c r="B16" s="4" t="inlineStr">
@@ -1859,54 +1449,18 @@
         <v>2100</v>
       </c>
       <c r="D16" s="55" t="n"/>
-      <c r="E16" s="61">
-        <f>$C$16*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F16" s="62">
-        <f>E16/1390000</f>
-        <v/>
-      </c>
-      <c r="G16" s="66">
-        <f>$C$16*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H16" s="62">
-        <f>G16/1390000</f>
-        <v/>
-      </c>
-      <c r="I16" s="66">
-        <f>$C$16*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J16" s="62">
-        <f>I16/1390000</f>
-        <v/>
-      </c>
-      <c r="K16" s="66">
-        <f>$C$16*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L16" s="62">
-        <f>K16/1390000</f>
-        <v/>
-      </c>
-      <c r="M16" s="56">
-        <f>$C$16*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N16" s="68">
-        <f>M16/1390000</f>
-        <v/>
-      </c>
-      <c r="O16" s="56">
-        <f>$C$16*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P16" s="68">
-        <f>O16/1390000</f>
-        <v/>
-      </c>
+      <c r="E16" s="61" t="n"/>
+      <c r="F16" s="62" t="n"/>
+      <c r="G16" s="66" t="n"/>
+      <c r="H16" s="62" t="n"/>
+      <c r="I16" s="66" t="n"/>
+      <c r="J16" s="62" t="n"/>
+      <c r="K16" s="66" t="n"/>
+      <c r="L16" s="62" t="n"/>
+      <c r="M16" s="56" t="n"/>
+      <c r="N16" s="68" t="n"/>
+      <c r="O16" s="56" t="n"/>
+      <c r="P16" s="68" t="n"/>
     </row>
     <row r="17">
       <c r="B17" s="4" t="inlineStr">
@@ -1918,54 +1472,18 @@
         <v>2150</v>
       </c>
       <c r="D17" s="55" t="n"/>
-      <c r="E17" s="61">
-        <f>$C$17*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F17" s="62">
-        <f>E17/1490000</f>
-        <v/>
-      </c>
-      <c r="G17" s="61">
-        <f>$C$17*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H17" s="62">
-        <f>G17/1490000</f>
-        <v/>
-      </c>
-      <c r="I17" s="61">
-        <f>$C$17*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J17" s="62">
-        <f>I17/1490000</f>
-        <v/>
-      </c>
-      <c r="K17" s="61">
-        <f>$C$17*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L17" s="62">
-        <f>K17/1490000</f>
-        <v/>
-      </c>
-      <c r="M17" s="61">
-        <f>$C$17*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N17" s="62">
-        <f>M17/1490000</f>
-        <v/>
-      </c>
-      <c r="O17" s="69">
-        <f>$C$17*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P17" s="68">
-        <f>O17/1490000</f>
-        <v/>
-      </c>
+      <c r="E17" s="61" t="n"/>
+      <c r="F17" s="62" t="n"/>
+      <c r="G17" s="61" t="n"/>
+      <c r="H17" s="62" t="n"/>
+      <c r="I17" s="61" t="n"/>
+      <c r="J17" s="62" t="n"/>
+      <c r="K17" s="61" t="n"/>
+      <c r="L17" s="62" t="n"/>
+      <c r="M17" s="61" t="n"/>
+      <c r="N17" s="62" t="n"/>
+      <c r="O17" s="69" t="n"/>
+      <c r="P17" s="68" t="n"/>
     </row>
     <row r="18">
       <c r="B18" s="4" t="inlineStr">
@@ -1977,54 +1495,18 @@
         <v>2200</v>
       </c>
       <c r="D18" s="55" t="n"/>
-      <c r="E18" s="61">
-        <f>$C$18*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F18" s="62">
-        <f>E18/1590000</f>
-        <v/>
-      </c>
-      <c r="G18" s="61">
-        <f>$C$18*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H18" s="62">
-        <f>G18/1590000</f>
-        <v/>
-      </c>
-      <c r="I18" s="61">
-        <f>$C$18*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J18" s="62">
-        <f>I18/1590000</f>
-        <v/>
-      </c>
-      <c r="K18" s="61">
-        <f>$C$18*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L18" s="62">
-        <f>K18/1590000</f>
-        <v/>
-      </c>
-      <c r="M18" s="61">
-        <f>$C$18*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N18" s="62">
-        <f>M18/1590000</f>
-        <v/>
-      </c>
-      <c r="O18" s="69">
-        <f>$C$18*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P18" s="68">
-        <f>O18/1590000</f>
-        <v/>
-      </c>
+      <c r="E18" s="61" t="n"/>
+      <c r="F18" s="62" t="n"/>
+      <c r="G18" s="61" t="n"/>
+      <c r="H18" s="62" t="n"/>
+      <c r="I18" s="61" t="n"/>
+      <c r="J18" s="62" t="n"/>
+      <c r="K18" s="61" t="n"/>
+      <c r="L18" s="62" t="n"/>
+      <c r="M18" s="61" t="n"/>
+      <c r="N18" s="62" t="n"/>
+      <c r="O18" s="69" t="n"/>
+      <c r="P18" s="68" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="4" t="inlineStr">
@@ -2036,54 +1518,18 @@
         <v>2250</v>
       </c>
       <c r="D19" s="55" t="n"/>
-      <c r="E19" s="61">
-        <f>$C$19*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F19" s="62">
-        <f>E19/1690000</f>
-        <v/>
-      </c>
-      <c r="G19" s="61">
-        <f>$C$19*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H19" s="62">
-        <f>G19/1690000</f>
-        <v/>
-      </c>
-      <c r="I19" s="61">
-        <f>$C$19*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J19" s="62">
-        <f>I19/1690000</f>
-        <v/>
-      </c>
-      <c r="K19" s="61">
-        <f>$C$19*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L19" s="62">
-        <f>K19/1690000</f>
-        <v/>
-      </c>
-      <c r="M19" s="61">
-        <f>$C$19*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N19" s="62">
-        <f>M19/1690000</f>
-        <v/>
-      </c>
-      <c r="O19" s="61">
-        <f>$C$19*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P19" s="62">
-        <f>O19/1690000</f>
-        <v/>
-      </c>
+      <c r="E19" s="61" t="n"/>
+      <c r="F19" s="62" t="n"/>
+      <c r="G19" s="61" t="n"/>
+      <c r="H19" s="62" t="n"/>
+      <c r="I19" s="61" t="n"/>
+      <c r="J19" s="62" t="n"/>
+      <c r="K19" s="61" t="n"/>
+      <c r="L19" s="62" t="n"/>
+      <c r="M19" s="61" t="n"/>
+      <c r="N19" s="62" t="n"/>
+      <c r="O19" s="61" t="n"/>
+      <c r="P19" s="62" t="n"/>
     </row>
     <row r="20">
       <c r="B20" s="4" t="inlineStr">
@@ -2095,54 +1541,18 @@
         <v>2300</v>
       </c>
       <c r="D20" s="55" t="n"/>
-      <c r="E20" s="61">
-        <f>$C$20*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F20" s="62">
-        <f>E20/1790000</f>
-        <v/>
-      </c>
-      <c r="G20" s="61">
-        <f>$C$20*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H20" s="62">
-        <f>G20/1790000</f>
-        <v/>
-      </c>
-      <c r="I20" s="61">
-        <f>$C$20*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J20" s="62">
-        <f>I20/1790000</f>
-        <v/>
-      </c>
-      <c r="K20" s="61">
-        <f>$C$20*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L20" s="62">
-        <f>K20/1790000</f>
-        <v/>
-      </c>
-      <c r="M20" s="61">
-        <f>$C$20*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N20" s="62">
-        <f>M20/1790000</f>
-        <v/>
-      </c>
-      <c r="O20" s="61">
-        <f>$C$20*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P20" s="62">
-        <f>O20/1790000</f>
-        <v/>
-      </c>
+      <c r="E20" s="61" t="n"/>
+      <c r="F20" s="62" t="n"/>
+      <c r="G20" s="61" t="n"/>
+      <c r="H20" s="62" t="n"/>
+      <c r="I20" s="61" t="n"/>
+      <c r="J20" s="62" t="n"/>
+      <c r="K20" s="61" t="n"/>
+      <c r="L20" s="62" t="n"/>
+      <c r="M20" s="61" t="n"/>
+      <c r="N20" s="62" t="n"/>
+      <c r="O20" s="61" t="n"/>
+      <c r="P20" s="62" t="n"/>
     </row>
     <row r="21">
       <c r="B21" s="4" t="inlineStr">
@@ -2154,54 +1564,18 @@
         <v>2800</v>
       </c>
       <c r="D21" s="55" t="n"/>
-      <c r="E21" s="61">
-        <f>$C$21*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F21" s="62">
-        <f>E21/1990000</f>
-        <v/>
-      </c>
-      <c r="G21" s="66">
-        <f>$C$21*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H21" s="67">
-        <f>G21/1990000</f>
-        <v/>
-      </c>
-      <c r="I21" s="66">
-        <f>$C$21*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J21" s="67">
-        <f>I21/1990000</f>
-        <v/>
-      </c>
-      <c r="K21" s="66">
-        <f>$C$21*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L21" s="67">
-        <f>K21/1990000</f>
-        <v/>
-      </c>
-      <c r="M21" s="66">
-        <f>$C$21*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N21" s="67">
-        <f>M21/1990000</f>
-        <v/>
-      </c>
-      <c r="O21" s="66">
-        <f>$C$21*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P21" s="70">
-        <f>O21/1990000</f>
-        <v/>
-      </c>
+      <c r="E21" s="61" t="n"/>
+      <c r="F21" s="62" t="n"/>
+      <c r="G21" s="66" t="n"/>
+      <c r="H21" s="67" t="n"/>
+      <c r="I21" s="66" t="n"/>
+      <c r="J21" s="67" t="n"/>
+      <c r="K21" s="66" t="n"/>
+      <c r="L21" s="67" t="n"/>
+      <c r="M21" s="66" t="n"/>
+      <c r="N21" s="67" t="n"/>
+      <c r="O21" s="66" t="n"/>
+      <c r="P21" s="70" t="n"/>
     </row>
     <row r="22">
       <c r="B22" s="4" t="inlineStr">
@@ -2213,54 +1587,18 @@
         <v>3000</v>
       </c>
       <c r="D22" s="55" t="n"/>
-      <c r="E22" s="61">
-        <f>$C$22*8*1*4</f>
-        <v/>
-      </c>
-      <c r="F22" s="62">
-        <f>E22/2000000</f>
-        <v/>
-      </c>
-      <c r="G22" s="66">
-        <f>$C$22*8*2*4</f>
-        <v/>
-      </c>
-      <c r="H22" s="70">
-        <f>G22/2000000</f>
-        <v/>
-      </c>
-      <c r="I22" s="66">
-        <f>$C$22*8*3*4</f>
-        <v/>
-      </c>
-      <c r="J22" s="67">
-        <f>I22/2000000</f>
-        <v/>
-      </c>
-      <c r="K22" s="66">
-        <f>$C$22*8*4*4</f>
-        <v/>
-      </c>
-      <c r="L22" s="67">
-        <f>K22/2000000</f>
-        <v/>
-      </c>
-      <c r="M22" s="66">
-        <f>$C$22*8*5*4</f>
-        <v/>
-      </c>
-      <c r="N22" s="67">
-        <f>M22/2000000</f>
-        <v/>
-      </c>
-      <c r="O22" s="66">
-        <f>$C$22*8*6*4</f>
-        <v/>
-      </c>
-      <c r="P22" s="70">
-        <f>O22/2000000</f>
-        <v/>
-      </c>
+      <c r="E22" s="61" t="n"/>
+      <c r="F22" s="62" t="n"/>
+      <c r="G22" s="66" t="n"/>
+      <c r="H22" s="70" t="n"/>
+      <c r="I22" s="66" t="n"/>
+      <c r="J22" s="67" t="n"/>
+      <c r="K22" s="66" t="n"/>
+      <c r="L22" s="67" t="n"/>
+      <c r="M22" s="66" t="n"/>
+      <c r="N22" s="67" t="n"/>
+      <c r="O22" s="66" t="n"/>
+      <c r="P22" s="70" t="n"/>
     </row>
     <row r="24">
       <c r="B24" s="2" t="inlineStr">
@@ -2307,11 +1645,11 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="D3:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -2326,11 +1664,11 @@
     <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
     <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.796875" customWidth="1" style="2" min="17" max="26"/>
-    <col width="8.796875" customWidth="1" style="2" min="27" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="30"/>
+    <col width="8.796875" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>出退勤シート</t>
@@ -2341,11 +1679,8 @@
           <t>氏名</t>
         </is>
       </c>
-      <c r="P1" s="75">
-        <f>IF(G34&gt;=200000,IF(G34&gt;2000000,19,G34/100000),1)</f>
-        <v/>
-      </c>
-      <c r="Q1" s="75" t="n"/>
+      <c r="P1" s="90" t="n"/>
+      <c r="Q1" s="90" t="n"/>
     </row>
     <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
       <c r="B2" s="5" t="n"/>
@@ -2401,13 +1736,9 @@
         </is>
       </c>
       <c r="O2" s="4" t="n"/>
-      <c r="P2" s="3">
-        <f>P1</f>
-        <v/>
-      </c>
-      <c r="Q2" s="75" t="n"/>
-    </row>
-    <row r="3" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="Q2" s="90" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B3" s="11" t="n">
         <v>45078</v>
       </c>
@@ -2416,9 +1747,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="77" t="n"/>
-      <c r="F3" s="78">
+      <c r="D3" s="91" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="93">
         <f>E3-D3</f>
         <v/>
       </c>
@@ -2435,7 +1766,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="4" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B4" s="11" t="n">
         <v>45079</v>
       </c>
@@ -2444,9 +1775,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="80" t="n"/>
-      <c r="F4" s="78">
+      <c r="D4" s="91" t="n"/>
+      <c r="E4" s="92" t="n"/>
+      <c r="F4" s="93">
         <f>E4-D4</f>
         <v/>
       </c>
@@ -2462,12 +1793,12 @@
           <t>出勤日数</t>
         </is>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="83">
         <f>COUNTA(E3:E33)</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B5" s="11" t="n">
         <v>45080</v>
       </c>
@@ -2476,9 +1807,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="80" t="n"/>
-      <c r="F5" s="78">
+      <c r="D5" s="91" t="n"/>
+      <c r="E5" s="92" t="n"/>
+      <c r="F5" s="94">
         <f>E5-D5</f>
         <v/>
       </c>
@@ -2494,12 +1825,9 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="29">
-        <f>1350+50*P1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P5" s="84" t="n"/>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B6" s="11" t="n">
         <v>45081</v>
       </c>
@@ -2508,9 +1836,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="80" t="n"/>
-      <c r="F6" s="78">
+      <c r="D6" s="91" t="n"/>
+      <c r="E6" s="92" t="n"/>
+      <c r="F6" s="93">
         <f>E6-D6</f>
         <v/>
       </c>
@@ -2522,7 +1850,7 @@
       <c r="L6" s="24" t="n"/>
       <c r="M6" s="25" t="n"/>
     </row>
-    <row r="7" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="7" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B7" s="11" t="n">
         <v>45082</v>
       </c>
@@ -2531,9 +1859,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D7" s="79" t="n"/>
-      <c r="E7" s="80" t="n"/>
-      <c r="F7" s="78">
+      <c r="D7" s="91" t="n"/>
+      <c r="E7" s="92" t="n"/>
+      <c r="F7" s="93">
         <f>E7-D7</f>
         <v/>
       </c>
@@ -2549,12 +1877,12 @@
           <t>基本給</t>
         </is>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="83">
         <f>P5*F34</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B8" s="11" t="n">
         <v>45083</v>
       </c>
@@ -2563,9 +1891,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="80" t="n"/>
-      <c r="F8" s="78">
+      <c r="D8" s="91" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="93">
         <f>E8-D8</f>
         <v/>
       </c>
@@ -2581,12 +1909,12 @@
           <t>バック</t>
         </is>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="84">
         <f>K34</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B9" s="11" t="n">
         <v>45084</v>
       </c>
@@ -2595,9 +1923,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D9" s="79" t="n"/>
-      <c r="E9" s="80" t="n"/>
-      <c r="F9" s="78">
+      <c r="D9" s="91" t="n"/>
+      <c r="E9" s="92" t="n"/>
+      <c r="F9" s="93">
         <f>E9-D9</f>
         <v/>
       </c>
@@ -2609,7 +1937,7 @@
       <c r="L9" s="24" t="n"/>
       <c r="M9" s="25" t="n"/>
     </row>
-    <row r="10" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="10" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B10" s="11" t="n">
         <v>45085</v>
       </c>
@@ -2618,9 +1946,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D10" s="79" t="n"/>
-      <c r="E10" s="80" t="n"/>
-      <c r="F10" s="78">
+      <c r="D10" s="91" t="n"/>
+      <c r="E10" s="92" t="n"/>
+      <c r="F10" s="93">
         <f>E10-D10</f>
         <v/>
       </c>
@@ -2637,7 +1965,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="11" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B11" s="11" t="n">
         <v>45086</v>
       </c>
@@ -2646,9 +1974,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D11" s="79" t="n"/>
-      <c r="E11" s="80" t="n"/>
-      <c r="F11" s="78">
+      <c r="D11" s="91" t="n"/>
+      <c r="E11" s="92" t="n"/>
+      <c r="F11" s="93">
         <f>E11-D11</f>
         <v/>
       </c>
@@ -2664,11 +1992,11 @@
           <t>チームバック</t>
         </is>
       </c>
-      <c r="P11" s="27" t="n">
+      <c r="P11" s="83" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="12" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B12" s="11" t="n">
         <v>45087</v>
       </c>
@@ -2677,9 +2005,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D12" s="79" t="n"/>
-      <c r="E12" s="80" t="n"/>
-      <c r="F12" s="78">
+      <c r="D12" s="91" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="93">
         <f>E12-D12</f>
         <v/>
       </c>
@@ -2695,11 +2023,11 @@
           <t>売上1位</t>
         </is>
       </c>
-      <c r="P12" s="32" t="n">
+      <c r="P12" s="85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="13" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B13" s="11" t="n">
         <v>45088</v>
       </c>
@@ -2708,9 +2036,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D13" s="79" t="n"/>
-      <c r="E13" s="80" t="n"/>
-      <c r="F13" s="78">
+      <c r="D13" s="91" t="n"/>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="93">
         <f>E13-D13</f>
         <v/>
       </c>
@@ -2726,11 +2054,11 @@
           <t>月間指名1位</t>
         </is>
       </c>
-      <c r="P13" s="32" t="n">
+      <c r="P13" s="85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="14" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B14" s="11" t="n">
         <v>45089</v>
       </c>
@@ -2739,9 +2067,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D14" s="79" t="n"/>
-      <c r="E14" s="80" t="n"/>
-      <c r="F14" s="78">
+      <c r="D14" s="91" t="n"/>
+      <c r="E14" s="92" t="n"/>
+      <c r="F14" s="93">
         <f>E14-D14</f>
         <v/>
       </c>
@@ -2757,11 +2085,11 @@
           <t>月間同伴1位</t>
         </is>
       </c>
-      <c r="P14" s="32" t="n">
+      <c r="P14" s="85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="15" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B15" s="11" t="n">
         <v>45090</v>
       </c>
@@ -2770,9 +2098,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D15" s="79" t="n"/>
-      <c r="E15" s="80" t="n"/>
-      <c r="F15" s="78">
+      <c r="D15" s="91" t="n"/>
+      <c r="E15" s="92" t="n"/>
+      <c r="F15" s="93">
         <f>E15-D15</f>
         <v/>
       </c>
@@ -2790,12 +2118,12 @@
           <t>シャンパン</t>
         </is>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="85">
         <f>I34*10%</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B16" s="11" t="n">
         <v>45091</v>
       </c>
@@ -2804,9 +2132,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D16" s="79" t="n"/>
-      <c r="E16" s="80" t="n"/>
-      <c r="F16" s="78">
+      <c r="D16" s="91" t="n"/>
+      <c r="E16" s="92" t="n"/>
+      <c r="F16" s="93">
         <f>E16-D16</f>
         <v/>
       </c>
@@ -2822,12 +2150,12 @@
           <t>ドリンク</t>
         </is>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="84">
         <f>H34*200</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B17" s="11" t="n">
         <v>45092</v>
       </c>
@@ -2836,9 +2164,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D17" s="79" t="n"/>
-      <c r="E17" s="80" t="n"/>
-      <c r="F17" s="78">
+      <c r="D17" s="91" t="n"/>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="93">
         <f>E17-D17</f>
         <v/>
       </c>
@@ -2854,12 +2182,12 @@
           <t>合計</t>
         </is>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="0">
         <f>SUM(P11:P16)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B18" s="11" t="n">
         <v>45093</v>
       </c>
@@ -2868,9 +2196,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D18" s="79" t="n"/>
-      <c r="E18" s="80" t="n"/>
-      <c r="F18" s="78">
+      <c r="D18" s="91" t="n"/>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="93">
         <f>E18-D18</f>
         <v/>
       </c>
@@ -2882,7 +2210,7 @@
       <c r="L18" s="24" t="n"/>
       <c r="M18" s="25" t="n"/>
     </row>
-    <row r="19" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="19" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B19" s="11" t="n">
         <v>45094</v>
       </c>
@@ -2891,9 +2219,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D19" s="79" t="n"/>
-      <c r="E19" s="80" t="n"/>
-      <c r="F19" s="78">
+      <c r="D19" s="91" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="93">
         <f>E19-D19</f>
         <v/>
       </c>
@@ -2910,7 +2238,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="20" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B20" s="11" t="n">
         <v>45095</v>
       </c>
@@ -2919,9 +2247,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D20" s="79" t="n"/>
-      <c r="E20" s="80" t="n"/>
-      <c r="F20" s="78">
+      <c r="D20" s="91" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="93">
         <f>E20-D20</f>
         <v/>
       </c>
@@ -2937,11 +2265,11 @@
           <t>シフト手当</t>
         </is>
       </c>
-      <c r="P20" s="27" t="n">
+      <c r="P20" s="83" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="21" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B21" s="11" t="n">
         <v>45096</v>
       </c>
@@ -2950,9 +2278,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D21" s="79" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="78">
+      <c r="D21" s="91" t="n"/>
+      <c r="E21" s="92" t="n"/>
+      <c r="F21" s="93">
         <f>E21-D21</f>
         <v/>
       </c>
@@ -2968,11 +2296,11 @@
           <t>役職手当</t>
         </is>
       </c>
-      <c r="P21" s="29" t="n">
+      <c r="P21" s="84" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="22" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B22" s="11" t="n">
         <v>45097</v>
       </c>
@@ -2981,9 +2309,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D22" s="79" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="78">
+      <c r="D22" s="91" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="93">
         <f>E22-D22</f>
         <v/>
       </c>
@@ -2995,7 +2323,7 @@
       <c r="L22" s="24" t="n"/>
       <c r="M22" s="25" t="n"/>
     </row>
-    <row r="23" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="23" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B23" s="11" t="n">
         <v>45098</v>
       </c>
@@ -3004,9 +2332,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D23" s="79" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="78">
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="93">
         <f>E23-D23</f>
         <v/>
       </c>
@@ -3023,7 +2351,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="24" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B24" s="11" t="n">
         <v>45099</v>
       </c>
@@ -3032,9 +2360,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D24" s="79" t="n"/>
-      <c r="E24" s="80" t="n"/>
-      <c r="F24" s="78">
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="93">
         <f>E24-D24</f>
         <v/>
       </c>
@@ -3050,12 +2378,12 @@
           <t>源泉徴収</t>
         </is>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="86">
         <f>P29*10.21%</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B25" s="11" t="n">
         <v>45100</v>
       </c>
@@ -3064,9 +2392,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D25" s="79" t="n"/>
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="78">
+      <c r="D25" s="91" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="93">
         <f>E25-D25</f>
         <v/>
       </c>
@@ -3082,12 +2410,12 @@
           <t>交通費</t>
         </is>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="85">
         <f>L34*500</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B26" s="11" t="n">
         <v>45101</v>
       </c>
@@ -3096,9 +2424,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D26" s="79" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="78">
+      <c r="D26" s="95" t="n"/>
+      <c r="E26" s="96" t="n"/>
+      <c r="F26" s="93">
         <f>E26-D26</f>
         <v/>
       </c>
@@ -3114,12 +2442,12 @@
           <t>前借</t>
         </is>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="84">
         <f>M34</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B27" s="11" t="n">
         <v>45102</v>
       </c>
@@ -3128,9 +2456,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D27" s="79" t="n"/>
-      <c r="E27" s="80" t="n"/>
-      <c r="F27" s="78">
+      <c r="D27" s="97" t="n"/>
+      <c r="E27" s="98" t="n"/>
+      <c r="F27" s="93">
         <f>E27-D27</f>
         <v/>
       </c>
@@ -3142,7 +2470,7 @@
       <c r="L27" s="24" t="n"/>
       <c r="M27" s="25" t="n"/>
     </row>
-    <row r="28" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="28" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B28" s="11" t="n">
         <v>45103</v>
       </c>
@@ -3151,9 +2479,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D28" s="79" t="n"/>
-      <c r="E28" s="80" t="n"/>
-      <c r="F28" s="78">
+      <c r="D28" s="97" t="n"/>
+      <c r="E28" s="98" t="n"/>
+      <c r="F28" s="93">
         <f>E28-D28</f>
         <v/>
       </c>
@@ -3170,7 +2498,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="29" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B29" s="11" t="n">
         <v>45104</v>
       </c>
@@ -3179,9 +2507,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D29" s="79" t="n"/>
-      <c r="E29" s="80" t="n"/>
-      <c r="F29" s="78">
+      <c r="D29" s="97" t="n"/>
+      <c r="E29" s="98" t="n"/>
+      <c r="F29" s="93">
         <f>E29-D29</f>
         <v/>
       </c>
@@ -3197,12 +2525,12 @@
           <t>総支給額</t>
         </is>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="83">
         <f>P7+P8+P17+P20+P21</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B30" s="11" t="n">
         <v>45105</v>
       </c>
@@ -3211,9 +2539,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D30" s="79" t="n"/>
-      <c r="E30" s="80" t="n"/>
-      <c r="F30" s="78">
+      <c r="D30" s="97" t="n"/>
+      <c r="E30" s="98" t="n"/>
+      <c r="F30" s="93">
         <f>E30-D30</f>
         <v/>
       </c>
@@ -3229,12 +2557,12 @@
           <t>差引支給額</t>
         </is>
       </c>
-      <c r="P30" s="35">
+      <c r="P30" s="87">
         <f>P29-P24-P25-P26-P8</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B31" s="11" t="n">
         <v>45106</v>
       </c>
@@ -3243,9 +2571,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D31" s="79" t="n"/>
-      <c r="E31" s="80" t="n"/>
-      <c r="F31" s="78">
+      <c r="D31" s="97" t="n"/>
+      <c r="E31" s="98" t="n"/>
+      <c r="F31" s="93">
         <f>E31-D31</f>
         <v/>
       </c>
@@ -3257,7 +2585,7 @@
       <c r="L31" s="24" t="n"/>
       <c r="M31" s="25" t="n"/>
     </row>
-    <row r="32" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="32" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B32" s="11" t="n">
         <v>45107</v>
       </c>
@@ -3266,9 +2594,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D32" s="79" t="n"/>
-      <c r="E32" s="80" t="n"/>
-      <c r="F32" s="78">
+      <c r="D32" s="97" t="n"/>
+      <c r="E32" s="98" t="n"/>
+      <c r="F32" s="93">
         <f>E32-D32</f>
         <v/>
       </c>
@@ -3285,12 +2613,12 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="33" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B33" s="36" t="n"/>
       <c r="C33" s="37" t="n"/>
-      <c r="D33" s="81" t="n"/>
-      <c r="E33" s="82" t="n"/>
-      <c r="F33" s="78">
+      <c r="D33" s="99" t="n"/>
+      <c r="E33" s="100" t="n"/>
+      <c r="F33" s="93">
         <f>E33-D33</f>
         <v/>
       </c>
@@ -3306,46 +2634,46 @@
           <t>月間売上</t>
         </is>
       </c>
-      <c r="P33" s="42">
+      <c r="P33" s="88">
         <f>G34</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="E34" s="4" t="inlineStr">
         <is>
           <t>当月勤務時間合計</t>
         </is>
       </c>
-      <c r="F34" s="83">
+      <c r="F34" s="101">
         <f>SUM(F3:F33)</f>
         <v/>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="81">
         <f>SUM(G3:G33)</f>
         <v/>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="82">
         <f>SUM(H3:H33)</f>
         <v/>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="82">
         <f>SUM(I3:I33)</f>
         <v/>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="82">
         <f>SUM(J3:J33)</f>
         <v/>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="82">
         <f>SUM(K3:K33)</f>
         <v/>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="82">
         <f>SUM(L3:L33)</f>
         <v/>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="81">
         <f>SUM(M3:M33)</f>
         <v/>
       </c>
@@ -3373,11 +2701,11 @@
   </sheetPr>
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41:E46"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -3392,11 +2720,11 @@
     <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
     <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.796875" customWidth="1" style="2" min="17" max="26"/>
-    <col width="8.796875" customWidth="1" style="2" min="27" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="30"/>
+    <col width="8.796875" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>出退勤シート</t>
@@ -3412,10 +2740,7 @@
           <t>test</t>
         </is>
       </c>
-      <c r="P1" s="75">
-        <f>IF(G34&gt;=200000,IF(G34&gt;2000000,19,G34/100000),1)</f>
-        <v/>
-      </c>
+      <c r="P1" s="90" t="n"/>
     </row>
     <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
       <c r="B2" s="5" t="n"/>
@@ -3471,8 +2796,9 @@
         </is>
       </c>
       <c r="O2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B3" s="11" t="n">
         <v>45078</v>
       </c>
@@ -3481,12 +2807,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="77" t="n"/>
-      <c r="F3" s="78">
-        <f>E3-D3</f>
-        <v/>
-      </c>
+      <c r="D3" s="91" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="102" t="n"/>
       <c r="G3" s="16" t="n"/>
       <c r="H3" s="17" t="n"/>
       <c r="I3" s="18" t="n"/>
@@ -3500,7 +2823,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="4" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B4" s="11" t="n">
         <v>45079</v>
       </c>
@@ -3509,12 +2832,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="80" t="n"/>
-      <c r="F4" s="78">
-        <f>E4-D4</f>
-        <v/>
-      </c>
+      <c r="D4" s="91" t="n"/>
+      <c r="E4" s="92" t="n"/>
+      <c r="F4" s="102" t="n"/>
       <c r="G4" s="16" t="n"/>
       <c r="H4" s="23" t="n"/>
       <c r="I4" s="24" t="n"/>
@@ -3527,12 +2847,9 @@
           <t>出勤日数</t>
         </is>
       </c>
-      <c r="P4" s="27">
-        <f>COUNTA(E3:E33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P4" s="27" t="n"/>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B5" s="11" t="n">
         <v>45080</v>
       </c>
@@ -3541,12 +2858,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="80" t="n"/>
-      <c r="F5" s="78">
-        <f>E5-D5</f>
-        <v/>
-      </c>
+      <c r="D5" s="91" t="n"/>
+      <c r="E5" s="92" t="n"/>
+      <c r="F5" s="102" t="n"/>
       <c r="G5" s="16" t="n"/>
       <c r="H5" s="23" t="n"/>
       <c r="I5" s="24" t="n"/>
@@ -3559,12 +2873,11 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="29">
-        <f>OFFSET(給料テーブル!C3,P1,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P5" s="29" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B6" s="11" t="n">
         <v>45081</v>
       </c>
@@ -3573,12 +2886,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="80" t="n"/>
-      <c r="F6" s="78">
-        <f>E6-D6</f>
-        <v/>
-      </c>
+      <c r="D6" s="91" t="n"/>
+      <c r="E6" s="92" t="n"/>
+      <c r="F6" s="102" t="n"/>
       <c r="G6" s="16" t="n"/>
       <c r="H6" s="23" t="n">
         <v>0</v>
@@ -3593,7 +2903,7 @@
       <c r="L6" s="24" t="n"/>
       <c r="M6" s="25" t="n"/>
     </row>
-    <row r="7" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="7" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B7" s="11" t="n">
         <v>45082</v>
       </c>
@@ -3602,12 +2912,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D7" s="79" t="n"/>
-      <c r="E7" s="80" t="n"/>
-      <c r="F7" s="78">
-        <f>E7-D7</f>
-        <v/>
-      </c>
+      <c r="D7" s="91" t="n"/>
+      <c r="E7" s="92" t="n"/>
+      <c r="F7" s="102" t="n"/>
       <c r="G7" s="16" t="n"/>
       <c r="H7" s="23" t="n"/>
       <c r="I7" s="24" t="n"/>
@@ -3620,12 +2927,9 @@
           <t>基本給</t>
         </is>
       </c>
-      <c r="P7" s="27">
-        <f>P5*F34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P7" s="27" t="n"/>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B8" s="11" t="n">
         <v>45083</v>
       </c>
@@ -3634,12 +2938,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="80" t="n"/>
-      <c r="F8" s="78">
-        <f>E8-D8</f>
-        <v/>
-      </c>
+      <c r="D8" s="91" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="102" t="n"/>
       <c r="G8" s="16" t="n"/>
       <c r="H8" s="23" t="n">
         <v>0</v>
@@ -3658,12 +2959,9 @@
           <t>バック</t>
         </is>
       </c>
-      <c r="P8" s="29">
-        <f>K34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P8" s="29" t="n"/>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B9" s="11" t="n">
         <v>45084</v>
       </c>
@@ -3672,20 +2970,17 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D9" s="79" t="inlineStr">
+      <c r="D9" s="91" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="E9" s="80" t="inlineStr">
+      <c r="E9" s="92" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
       </c>
-      <c r="F9" s="78">
-        <f>E9-D9</f>
-        <v/>
-      </c>
+      <c r="F9" s="102" t="n"/>
       <c r="G9" s="16" t="n"/>
       <c r="H9" s="23" t="n">
         <v>2</v>
@@ -3702,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="10" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B10" s="11" t="n">
         <v>45085</v>
       </c>
@@ -3711,12 +3006,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D10" s="79" t="n"/>
-      <c r="E10" s="80" t="n"/>
-      <c r="F10" s="78">
-        <f>E10-D10</f>
-        <v/>
-      </c>
+      <c r="D10" s="91" t="n"/>
+      <c r="E10" s="92" t="n"/>
+      <c r="F10" s="102" t="n"/>
       <c r="G10" s="16" t="n"/>
       <c r="H10" s="23" t="n">
         <v>1</v>
@@ -3738,7 +3030,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="11" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B11" s="11" t="n">
         <v>45086</v>
       </c>
@@ -3747,12 +3039,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D11" s="79" t="n"/>
-      <c r="E11" s="80" t="n"/>
-      <c r="F11" s="78">
-        <f>E11-D11</f>
-        <v/>
-      </c>
+      <c r="D11" s="91" t="n"/>
+      <c r="E11" s="92" t="n"/>
+      <c r="F11" s="102" t="n"/>
       <c r="G11" s="16" t="n"/>
       <c r="H11" s="23" t="n"/>
       <c r="I11" s="24" t="n"/>
@@ -3769,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="12" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B12" s="11" t="n">
         <v>45087</v>
       </c>
@@ -3778,12 +3067,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D12" s="79" t="n"/>
-      <c r="E12" s="80" t="n"/>
-      <c r="F12" s="78">
-        <f>E12-D12</f>
-        <v/>
-      </c>
+      <c r="D12" s="91" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="102" t="n"/>
       <c r="G12" s="16" t="n"/>
       <c r="H12" s="23" t="n"/>
       <c r="I12" s="24" t="n"/>
@@ -3800,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="13" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B13" s="11" t="n">
         <v>45088</v>
       </c>
@@ -3809,20 +3095,17 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D13" s="79" t="inlineStr">
+      <c r="D13" s="91" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
-      <c r="E13" s="80" t="inlineStr">
+      <c r="E13" s="92" t="inlineStr">
         <is>
           <t>25:30</t>
         </is>
       </c>
-      <c r="F13" s="78">
-        <f>E13-D13</f>
-        <v/>
-      </c>
+      <c r="F13" s="102" t="n"/>
       <c r="G13" s="16" t="n">
         <v>1326600</v>
       </c>
@@ -3849,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="14" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B14" s="11" t="n">
         <v>45089</v>
       </c>
@@ -3858,20 +3141,17 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D14" s="79" t="inlineStr">
+      <c r="D14" s="91" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
       </c>
-      <c r="E14" s="80" t="inlineStr">
+      <c r="E14" s="92" t="inlineStr">
         <is>
           <t>25:30</t>
         </is>
       </c>
-      <c r="F14" s="78">
-        <f>E14-D14</f>
-        <v/>
-      </c>
+      <c r="F14" s="102" t="n"/>
       <c r="G14" s="16" t="n">
         <v>3960</v>
       </c>
@@ -3898,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="15" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B15" s="11" t="n">
         <v>45090</v>
       </c>
@@ -3907,12 +3187,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D15" s="79" t="n"/>
-      <c r="E15" s="80" t="n"/>
-      <c r="F15" s="78">
-        <f>E15-D15</f>
-        <v/>
-      </c>
+      <c r="D15" s="91" t="n"/>
+      <c r="E15" s="92" t="n"/>
+      <c r="F15" s="102" t="n"/>
       <c r="G15" s="16" t="n"/>
       <c r="H15" s="23" t="n"/>
       <c r="I15" s="24" t="n"/>
@@ -3925,12 +3202,9 @@
           <t>シャンパン</t>
         </is>
       </c>
-      <c r="P15" s="32">
-        <f>I34*10%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P15" s="32" t="n"/>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B16" s="11" t="n">
         <v>45091</v>
       </c>
@@ -3939,30 +3213,42 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D16" s="79" t="n"/>
-      <c r="E16" s="80" t="n"/>
-      <c r="F16" s="78">
-        <f>E16-D16</f>
-        <v/>
-      </c>
-      <c r="G16" s="16" t="n"/>
-      <c r="H16" s="23" t="n"/>
-      <c r="I16" s="24" t="n"/>
+      <c r="D16" s="91" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="E16" s="92" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F16" s="102" t="n"/>
+      <c r="G16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" s="24" t="n"/>
-      <c r="K16" s="24" t="n"/>
+      <c r="K16" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" s="24" t="n"/>
-      <c r="M16" s="25" t="n"/>
+      <c r="M16" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="O16" s="33" t="inlineStr">
         <is>
           <t>ドリンク</t>
         </is>
       </c>
-      <c r="P16" s="29">
-        <f>H34*200</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P16" s="29" t="n"/>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B17" s="11" t="n">
         <v>45092</v>
       </c>
@@ -3971,12 +3257,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D17" s="79" t="n"/>
-      <c r="E17" s="80" t="n"/>
-      <c r="F17" s="78">
-        <f>E17-D17</f>
-        <v/>
-      </c>
+      <c r="D17" s="91" t="n"/>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="102" t="n"/>
       <c r="G17" s="16" t="n"/>
       <c r="H17" s="23" t="n"/>
       <c r="I17" s="24" t="n"/>
@@ -3989,12 +3272,8 @@
           <t>合計</t>
         </is>
       </c>
-      <c r="P17" s="2">
-        <f>SUM(P11:P16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="18.6" customHeight="1" s="74" thickBot="1">
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B18" s="11" t="n">
         <v>45093</v>
       </c>
@@ -4003,12 +3282,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D18" s="79" t="n"/>
-      <c r="E18" s="80" t="n"/>
-      <c r="F18" s="78">
-        <f>E18-D18</f>
-        <v/>
-      </c>
+      <c r="D18" s="91" t="n"/>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="102" t="n"/>
       <c r="G18" s="16" t="n"/>
       <c r="H18" s="23" t="n"/>
       <c r="I18" s="24" t="n"/>
@@ -4017,7 +3293,7 @@
       <c r="L18" s="24" t="n"/>
       <c r="M18" s="25" t="n"/>
     </row>
-    <row r="19" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="19" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B19" s="11" t="n">
         <v>45094</v>
       </c>
@@ -4026,12 +3302,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D19" s="79" t="n"/>
-      <c r="E19" s="80" t="n"/>
-      <c r="F19" s="78">
-        <f>E19-D19</f>
-        <v/>
-      </c>
+      <c r="D19" s="91" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="102" t="n"/>
       <c r="G19" s="16" t="n"/>
       <c r="H19" s="23" t="n"/>
       <c r="I19" s="24" t="n"/>
@@ -4045,7 +3318,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="20" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B20" s="11" t="n">
         <v>45095</v>
       </c>
@@ -4054,12 +3327,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D20" s="79" t="n"/>
-      <c r="E20" s="80" t="n"/>
-      <c r="F20" s="78">
-        <f>E20-D20</f>
-        <v/>
-      </c>
+      <c r="D20" s="91" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="102" t="n"/>
       <c r="G20" s="16" t="n"/>
       <c r="H20" s="23" t="n"/>
       <c r="I20" s="24" t="n"/>
@@ -4076,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="21" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B21" s="11" t="n">
         <v>45096</v>
       </c>
@@ -4085,12 +3355,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D21" s="79" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="78">
-        <f>E21-D21</f>
-        <v/>
-      </c>
+      <c r="D21" s="91" t="n"/>
+      <c r="E21" s="92" t="n"/>
+      <c r="F21" s="102" t="n"/>
       <c r="G21" s="16" t="n"/>
       <c r="H21" s="23" t="n"/>
       <c r="I21" s="24" t="n"/>
@@ -4107,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="22" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B22" s="11" t="n">
         <v>45097</v>
       </c>
@@ -4116,12 +3383,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D22" s="79" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="78">
-        <f>E22-D22</f>
-        <v/>
-      </c>
+      <c r="D22" s="91" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="102" t="n"/>
       <c r="G22" s="16" t="n"/>
       <c r="H22" s="23" t="n"/>
       <c r="I22" s="24" t="n"/>
@@ -4130,7 +3394,7 @@
       <c r="L22" s="24" t="n"/>
       <c r="M22" s="25" t="n"/>
     </row>
-    <row r="23" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="23" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B23" s="11" t="n">
         <v>45098</v>
       </c>
@@ -4139,12 +3403,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D23" s="79" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="78">
-        <f>E23-D23</f>
-        <v/>
-      </c>
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="102" t="n"/>
       <c r="G23" s="16" t="n"/>
       <c r="H23" s="23" t="n"/>
       <c r="I23" s="24" t="n"/>
@@ -4158,7 +3419,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="24" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B24" s="11" t="n">
         <v>45099</v>
       </c>
@@ -4167,12 +3428,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D24" s="79" t="n"/>
-      <c r="E24" s="80" t="n"/>
-      <c r="F24" s="78">
-        <f>E24-D24</f>
-        <v/>
-      </c>
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="102" t="n"/>
       <c r="G24" s="16" t="n"/>
       <c r="H24" s="23" t="n"/>
       <c r="I24" s="24" t="n"/>
@@ -4185,12 +3443,9 @@
           <t>源泉徴収</t>
         </is>
       </c>
-      <c r="P24" s="34">
-        <f>P29*10.21%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B25" s="11" t="n">
         <v>45100</v>
       </c>
@@ -4199,12 +3454,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D25" s="79" t="n"/>
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="78">
-        <f>E25-D25</f>
-        <v/>
-      </c>
+      <c r="D25" s="91" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="102" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="23" t="n"/>
       <c r="I25" s="24" t="n"/>
@@ -4217,12 +3469,9 @@
           <t>交通費</t>
         </is>
       </c>
-      <c r="P25" s="32">
-        <f>L34*500</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P25" s="32" t="n"/>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B26" s="11" t="n">
         <v>45101</v>
       </c>
@@ -4231,12 +3480,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D26" s="79" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="78">
-        <f>E26-D26</f>
-        <v/>
-      </c>
+      <c r="D26" s="95" t="n"/>
+      <c r="E26" s="96" t="n"/>
+      <c r="F26" s="102" t="n"/>
       <c r="G26" s="16" t="n"/>
       <c r="H26" s="23" t="n"/>
       <c r="I26" s="24" t="n"/>
@@ -4249,12 +3495,9 @@
           <t>前借</t>
         </is>
       </c>
-      <c r="P26" s="29">
-        <f>M34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P26" s="29" t="n"/>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B27" s="11" t="n">
         <v>45102</v>
       </c>
@@ -4263,12 +3506,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D27" s="79" t="n"/>
-      <c r="E27" s="80" t="n"/>
-      <c r="F27" s="78">
-        <f>E27-D27</f>
-        <v/>
-      </c>
+      <c r="D27" s="97" t="n"/>
+      <c r="E27" s="98" t="n"/>
+      <c r="F27" s="102" t="n"/>
       <c r="G27" s="16" t="n"/>
       <c r="H27" s="23" t="n"/>
       <c r="I27" s="24" t="n"/>
@@ -4277,7 +3517,7 @@
       <c r="L27" s="24" t="n"/>
       <c r="M27" s="25" t="n"/>
     </row>
-    <row r="28" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="28" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B28" s="11" t="n">
         <v>45103</v>
       </c>
@@ -4286,12 +3526,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D28" s="79" t="n"/>
-      <c r="E28" s="80" t="n"/>
-      <c r="F28" s="78">
-        <f>E28-D28</f>
-        <v/>
-      </c>
+      <c r="D28" s="97" t="n"/>
+      <c r="E28" s="98" t="n"/>
+      <c r="F28" s="102" t="n"/>
       <c r="G28" s="16" t="n"/>
       <c r="H28" s="23" t="n"/>
       <c r="I28" s="24" t="n"/>
@@ -4305,7 +3542,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="29" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B29" s="11" t="n">
         <v>45104</v>
       </c>
@@ -4314,12 +3551,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D29" s="79" t="n"/>
-      <c r="E29" s="80" t="n"/>
-      <c r="F29" s="78">
-        <f>E29-D29</f>
-        <v/>
-      </c>
+      <c r="D29" s="97" t="n"/>
+      <c r="E29" s="98" t="n"/>
+      <c r="F29" s="102" t="n"/>
       <c r="G29" s="16" t="n"/>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="24" t="n"/>
@@ -4332,12 +3566,9 @@
           <t>総支給額</t>
         </is>
       </c>
-      <c r="P29" s="27">
-        <f>P7+P8+P17+P20+P21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P29" s="27" t="n"/>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B30" s="11" t="n">
         <v>45105</v>
       </c>
@@ -4346,12 +3577,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D30" s="79" t="n"/>
-      <c r="E30" s="80" t="n"/>
-      <c r="F30" s="78">
-        <f>E30-D30</f>
-        <v/>
-      </c>
+      <c r="D30" s="97" t="n"/>
+      <c r="E30" s="98" t="n"/>
+      <c r="F30" s="102" t="n"/>
       <c r="G30" s="16" t="n"/>
       <c r="H30" s="23" t="n"/>
       <c r="I30" s="24" t="n"/>
@@ -4364,12 +3592,9 @@
           <t>差引支給額</t>
         </is>
       </c>
-      <c r="P30" s="35">
-        <f>P29-P24-P25-P26-P8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P30" s="35" t="n"/>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B31" s="11" t="n">
         <v>45106</v>
       </c>
@@ -4378,12 +3603,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D31" s="79" t="n"/>
-      <c r="E31" s="80" t="n"/>
-      <c r="F31" s="78">
-        <f>E31-D31</f>
-        <v/>
-      </c>
+      <c r="D31" s="97" t="n"/>
+      <c r="E31" s="98" t="n"/>
+      <c r="F31" s="102" t="n"/>
       <c r="G31" s="16" t="n"/>
       <c r="H31" s="23" t="n"/>
       <c r="I31" s="24" t="n"/>
@@ -4392,7 +3614,7 @@
       <c r="L31" s="24" t="n"/>
       <c r="M31" s="25" t="n"/>
     </row>
-    <row r="32" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="32" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B32" s="11" t="n">
         <v>45107</v>
       </c>
@@ -4401,12 +3623,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D32" s="79" t="n"/>
-      <c r="E32" s="80" t="n"/>
-      <c r="F32" s="78">
-        <f>E32-D32</f>
-        <v/>
-      </c>
+      <c r="D32" s="97" t="n"/>
+      <c r="E32" s="98" t="n"/>
+      <c r="F32" s="102" t="n"/>
       <c r="G32" s="16" t="n"/>
       <c r="H32" s="23" t="n"/>
       <c r="I32" s="24" t="n"/>
@@ -4420,15 +3639,12 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="33" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B33" s="36" t="n"/>
       <c r="C33" s="37" t="n"/>
-      <c r="D33" s="81" t="n"/>
-      <c r="E33" s="82" t="n"/>
-      <c r="F33" s="78">
-        <f>E33-D33</f>
-        <v/>
-      </c>
+      <c r="D33" s="99" t="n"/>
+      <c r="E33" s="100" t="n"/>
+      <c r="F33" s="102" t="n"/>
       <c r="G33" s="16" t="n"/>
       <c r="H33" s="40" t="n"/>
       <c r="I33" s="41" t="n"/>
@@ -4441,58 +3657,31 @@
           <t>月間売上</t>
         </is>
       </c>
-      <c r="P33" s="42">
-        <f>G34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P33" s="42" t="n"/>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="E34" s="4" t="inlineStr">
         <is>
           <t>当月勤務時間合計</t>
         </is>
       </c>
-      <c r="F34" s="83">
-        <f>SUM(F3:F33)</f>
-        <v/>
-      </c>
+      <c r="F34" s="103" t="n"/>
       <c r="G34" s="44">
         <f>SUM(G3:G33)</f>
         <v/>
       </c>
-      <c r="H34" s="44">
-        <f>SUM(H3:H33)</f>
-        <v/>
-      </c>
-      <c r="I34" s="44">
-        <f>SUM(I3:I33)</f>
-        <v/>
-      </c>
-      <c r="J34" s="44">
-        <f>SUM(J3:J33)</f>
-        <v/>
-      </c>
-      <c r="K34" s="44">
-        <f>SUM(K3:K33)</f>
-        <v/>
-      </c>
-      <c r="L34" s="44">
-        <f>SUM(L3:L33)</f>
-        <v/>
-      </c>
-      <c r="M34" s="45">
-        <f>SUM(M3:M33)</f>
-        <v/>
-      </c>
+      <c r="H34" s="44" t="n"/>
+      <c r="I34" s="44" t="n"/>
+      <c r="J34" s="44" t="n"/>
+      <c r="K34" s="44" t="n"/>
+      <c r="L34" s="44" t="n"/>
+      <c r="M34" s="45" t="n"/>
       <c r="O34" s="33" t="inlineStr">
         <is>
           <t>給率</t>
         </is>
       </c>
-      <c r="P34" s="46">
-        <f>P29/P33</f>
-        <v/>
-      </c>
+      <c r="P34" s="46" t="n"/>
     </row>
     <row r="41">
       <c r="D41" s="3" t="n"/>
@@ -4545,11 +3734,11 @@
     <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
     <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.796875" customWidth="1" style="2" min="17" max="26"/>
-    <col width="8.796875" customWidth="1" style="2" min="27" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="30"/>
+    <col width="8.796875" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>出退勤シート</t>
@@ -4565,10 +3754,7 @@
           <t>test2</t>
         </is>
       </c>
-      <c r="P1" s="75">
-        <f>IF(G34&gt;=200000,IF(G34&gt;2000000,19,G34/100000),1)</f>
-        <v/>
-      </c>
+      <c r="P1" s="90" t="n"/>
     </row>
     <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
       <c r="B2" s="5" t="n"/>
@@ -4625,7 +3811,7 @@
       </c>
       <c r="O2" s="4" t="n"/>
     </row>
-    <row r="3" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B3" s="11" t="n">
         <v>45078</v>
       </c>
@@ -4634,12 +3820,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="77" t="n"/>
-      <c r="F3" s="78">
-        <f>E3-D3</f>
-        <v/>
-      </c>
+      <c r="D3" s="104" t="n"/>
+      <c r="E3" s="105" t="n"/>
+      <c r="F3" s="102" t="n"/>
       <c r="G3" s="16" t="n"/>
       <c r="H3" s="17" t="n"/>
       <c r="I3" s="18" t="n"/>
@@ -4653,7 +3836,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="4" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B4" s="11" t="n">
         <v>45079</v>
       </c>
@@ -4662,12 +3845,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="80" t="n"/>
-      <c r="F4" s="78">
-        <f>E4-D4</f>
-        <v/>
-      </c>
+      <c r="D4" s="97" t="n"/>
+      <c r="E4" s="98" t="n"/>
+      <c r="F4" s="102" t="n"/>
       <c r="G4" s="16" t="n"/>
       <c r="H4" s="23" t="n"/>
       <c r="I4" s="24" t="n"/>
@@ -4680,12 +3860,9 @@
           <t>出勤日数</t>
         </is>
       </c>
-      <c r="P4" s="27">
-        <f>COUNTA(E3:E33)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P4" s="27" t="n"/>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B5" s="11" t="n">
         <v>45080</v>
       </c>
@@ -4694,12 +3871,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="80" t="n"/>
-      <c r="F5" s="78">
-        <f>E5-D5</f>
-        <v/>
-      </c>
+      <c r="D5" s="97" t="n"/>
+      <c r="E5" s="98" t="n"/>
+      <c r="F5" s="102" t="n"/>
       <c r="G5" s="16" t="n"/>
       <c r="H5" s="23" t="n"/>
       <c r="I5" s="24" t="n"/>
@@ -4712,12 +3886,9 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="29">
-        <f>OFFSET(給料テーブル!C3,P1,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P5" s="29" t="n"/>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B6" s="11" t="n">
         <v>45081</v>
       </c>
@@ -4726,16 +3897,13 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="80" t="inlineStr">
+      <c r="D6" s="97" t="n"/>
+      <c r="E6" s="98" t="inlineStr">
         <is>
           <t>25:30</t>
         </is>
       </c>
-      <c r="F6" s="78">
-        <f>E6-D6</f>
-        <v/>
-      </c>
+      <c r="F6" s="102" t="n"/>
       <c r="G6" s="16" t="n"/>
       <c r="H6" s="23" t="n">
         <v>1</v>
@@ -4748,7 +3916,7 @@
       <c r="L6" s="24" t="n"/>
       <c r="M6" s="25" t="n"/>
     </row>
-    <row r="7" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="7" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B7" s="11" t="n">
         <v>45082</v>
       </c>
@@ -4757,20 +3925,17 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D7" s="79" t="inlineStr">
+      <c r="D7" s="97" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="E7" s="80" t="inlineStr">
+      <c r="E7" s="98" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="F7" s="78">
-        <f>E7-D7</f>
-        <v/>
-      </c>
+      <c r="F7" s="102" t="n"/>
       <c r="G7" s="16" t="n"/>
       <c r="H7" s="23" t="n">
         <v>1</v>
@@ -4793,12 +3958,9 @@
           <t>基本給</t>
         </is>
       </c>
-      <c r="P7" s="27">
-        <f>P5*F34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P7" s="27" t="n"/>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B8" s="11" t="n">
         <v>45083</v>
       </c>
@@ -4807,12 +3969,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="80" t="n"/>
-      <c r="F8" s="78">
-        <f>E8-D8</f>
-        <v/>
-      </c>
+      <c r="D8" s="97" t="n"/>
+      <c r="E8" s="98" t="n"/>
+      <c r="F8" s="102" t="n"/>
       <c r="G8" s="16" t="n"/>
       <c r="H8" s="23" t="n"/>
       <c r="I8" s="24" t="n"/>
@@ -4825,12 +3984,9 @@
           <t>バック</t>
         </is>
       </c>
-      <c r="P8" s="29">
-        <f>K34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P8" s="29" t="n"/>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B9" s="11" t="n">
         <v>45084</v>
       </c>
@@ -4839,12 +3995,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D9" s="79" t="n"/>
-      <c r="E9" s="80" t="n"/>
-      <c r="F9" s="78">
-        <f>E9-D9</f>
-        <v/>
-      </c>
+      <c r="D9" s="97" t="n"/>
+      <c r="E9" s="98" t="n"/>
+      <c r="F9" s="102" t="n"/>
       <c r="G9" s="16" t="n"/>
       <c r="H9" s="23" t="n"/>
       <c r="I9" s="24" t="n"/>
@@ -4853,7 +4006,7 @@
       <c r="L9" s="24" t="n"/>
       <c r="M9" s="25" t="n"/>
     </row>
-    <row r="10" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="10" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B10" s="11" t="n">
         <v>45085</v>
       </c>
@@ -4862,16 +4015,13 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D10" s="79" t="inlineStr">
+      <c r="D10" s="97" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="E10" s="80" t="n"/>
-      <c r="F10" s="78">
-        <f>E10-D10</f>
-        <v/>
-      </c>
+      <c r="E10" s="98" t="n"/>
+      <c r="F10" s="102" t="n"/>
       <c r="G10" s="16" t="n"/>
       <c r="H10" s="23" t="n">
         <v>1</v>
@@ -4893,7 +4043,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="11" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B11" s="11" t="n">
         <v>45086</v>
       </c>
@@ -4902,12 +4052,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D11" s="79" t="n"/>
-      <c r="E11" s="80" t="n"/>
-      <c r="F11" s="78">
-        <f>E11-D11</f>
-        <v/>
-      </c>
+      <c r="D11" s="97" t="n"/>
+      <c r="E11" s="98" t="n"/>
+      <c r="F11" s="102" t="n"/>
       <c r="G11" s="16" t="n"/>
       <c r="H11" s="23" t="n"/>
       <c r="I11" s="24" t="n"/>
@@ -4924,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="12" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B12" s="11" t="n">
         <v>45087</v>
       </c>
@@ -4933,12 +4080,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D12" s="79" t="n"/>
-      <c r="E12" s="80" t="n"/>
-      <c r="F12" s="78">
-        <f>E12-D12</f>
-        <v/>
-      </c>
+      <c r="D12" s="97" t="n"/>
+      <c r="E12" s="98" t="n"/>
+      <c r="F12" s="102" t="n"/>
       <c r="G12" s="16" t="n"/>
       <c r="H12" s="23" t="n"/>
       <c r="I12" s="24" t="n"/>
@@ -4955,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="13" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B13" s="11" t="n">
         <v>45088</v>
       </c>
@@ -4964,16 +4108,13 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D13" s="79" t="inlineStr">
+      <c r="D13" s="97" t="inlineStr">
         <is>
           <t>17:00</t>
         </is>
       </c>
-      <c r="E13" s="80" t="n"/>
-      <c r="F13" s="78">
-        <f>E13-D13</f>
-        <v/>
-      </c>
+      <c r="E13" s="98" t="n"/>
+      <c r="F13" s="102" t="n"/>
       <c r="G13" s="16" t="n">
         <v>2640</v>
       </c>
@@ -5000,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="14" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B14" s="11" t="n">
         <v>45089</v>
       </c>
@@ -5009,12 +4150,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D14" s="79" t="n"/>
-      <c r="E14" s="80" t="n"/>
-      <c r="F14" s="78">
-        <f>E14-D14</f>
-        <v/>
-      </c>
+      <c r="D14" s="97" t="n"/>
+      <c r="E14" s="98" t="n"/>
+      <c r="F14" s="102" t="n"/>
       <c r="G14" s="16" t="n"/>
       <c r="H14" s="23" t="n"/>
       <c r="I14" s="24" t="n"/>
@@ -5031,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="15" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B15" s="11" t="n">
         <v>45090</v>
       </c>
@@ -5040,12 +4178,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D15" s="79" t="n"/>
-      <c r="E15" s="80" t="n"/>
-      <c r="F15" s="78">
-        <f>E15-D15</f>
-        <v/>
-      </c>
+      <c r="D15" s="97" t="n"/>
+      <c r="E15" s="98" t="n"/>
+      <c r="F15" s="102" t="n"/>
       <c r="G15" s="16" t="n"/>
       <c r="H15" s="23" t="n"/>
       <c r="I15" s="24" t="n"/>
@@ -5058,12 +4193,9 @@
           <t>シャンパン</t>
         </is>
       </c>
-      <c r="P15" s="32">
-        <f>I34*10%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P15" s="32" t="n"/>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B16" s="11" t="n">
         <v>45091</v>
       </c>
@@ -5072,12 +4204,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D16" s="79" t="n"/>
-      <c r="E16" s="80" t="n"/>
-      <c r="F16" s="78">
-        <f>E16-D16</f>
-        <v/>
-      </c>
+      <c r="D16" s="97" t="n"/>
+      <c r="E16" s="98" t="n"/>
+      <c r="F16" s="102" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="23" t="n"/>
       <c r="I16" s="24" t="n"/>
@@ -5090,12 +4219,9 @@
           <t>ドリンク</t>
         </is>
       </c>
-      <c r="P16" s="29">
-        <f>H34*200</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P16" s="29" t="n"/>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B17" s="11" t="n">
         <v>45092</v>
       </c>
@@ -5104,12 +4230,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D17" s="79" t="n"/>
-      <c r="E17" s="80" t="n"/>
-      <c r="F17" s="78">
-        <f>E17-D17</f>
-        <v/>
-      </c>
+      <c r="D17" s="97" t="n"/>
+      <c r="E17" s="98" t="n"/>
+      <c r="F17" s="102" t="n"/>
       <c r="G17" s="16" t="n"/>
       <c r="H17" s="23" t="n"/>
       <c r="I17" s="24" t="n"/>
@@ -5122,12 +4245,8 @@
           <t>合計</t>
         </is>
       </c>
-      <c r="P17" s="2">
-        <f>SUM(P11:P16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="18.6" customHeight="1" s="74" thickBot="1">
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B18" s="11" t="n">
         <v>45093</v>
       </c>
@@ -5136,12 +4255,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D18" s="79" t="n"/>
-      <c r="E18" s="80" t="n"/>
-      <c r="F18" s="78">
-        <f>E18-D18</f>
-        <v/>
-      </c>
+      <c r="D18" s="97" t="n"/>
+      <c r="E18" s="98" t="n"/>
+      <c r="F18" s="102" t="n"/>
       <c r="G18" s="16" t="n"/>
       <c r="H18" s="23" t="n"/>
       <c r="I18" s="24" t="n"/>
@@ -5150,7 +4266,7 @@
       <c r="L18" s="24" t="n"/>
       <c r="M18" s="25" t="n"/>
     </row>
-    <row r="19" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="19" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B19" s="11" t="n">
         <v>45094</v>
       </c>
@@ -5159,12 +4275,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D19" s="79" t="n"/>
-      <c r="E19" s="80" t="n"/>
-      <c r="F19" s="78">
-        <f>E19-D19</f>
-        <v/>
-      </c>
+      <c r="D19" s="97" t="n"/>
+      <c r="E19" s="98" t="n"/>
+      <c r="F19" s="102" t="n"/>
       <c r="G19" s="16" t="n"/>
       <c r="H19" s="23" t="n"/>
       <c r="I19" s="24" t="n"/>
@@ -5178,7 +4291,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="20" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B20" s="11" t="n">
         <v>45095</v>
       </c>
@@ -5187,12 +4300,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D20" s="79" t="n"/>
-      <c r="E20" s="80" t="n"/>
-      <c r="F20" s="78">
-        <f>E20-D20</f>
-        <v/>
-      </c>
+      <c r="D20" s="97" t="n"/>
+      <c r="E20" s="98" t="n"/>
+      <c r="F20" s="102" t="n"/>
       <c r="G20" s="16" t="n"/>
       <c r="H20" s="23" t="n"/>
       <c r="I20" s="24" t="n"/>
@@ -5209,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="21" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B21" s="11" t="n">
         <v>45096</v>
       </c>
@@ -5218,12 +4328,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D21" s="79" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="78">
-        <f>E21-D21</f>
-        <v/>
-      </c>
+      <c r="D21" s="97" t="n"/>
+      <c r="E21" s="98" t="n"/>
+      <c r="F21" s="102" t="n"/>
       <c r="G21" s="16" t="n"/>
       <c r="H21" s="23" t="n"/>
       <c r="I21" s="24" t="n"/>
@@ -5240,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="22" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B22" s="11" t="n">
         <v>45097</v>
       </c>
@@ -5249,12 +4356,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D22" s="79" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="78">
-        <f>E22-D22</f>
-        <v/>
-      </c>
+      <c r="D22" s="97" t="n"/>
+      <c r="E22" s="98" t="n"/>
+      <c r="F22" s="102" t="n"/>
       <c r="G22" s="16" t="n"/>
       <c r="H22" s="23" t="n"/>
       <c r="I22" s="24" t="n"/>
@@ -5263,7 +4367,7 @@
       <c r="L22" s="24" t="n"/>
       <c r="M22" s="25" t="n"/>
     </row>
-    <row r="23" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="23" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B23" s="11" t="n">
         <v>45098</v>
       </c>
@@ -5272,12 +4376,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D23" s="79" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="78">
-        <f>E23-D23</f>
-        <v/>
-      </c>
+      <c r="D23" s="97" t="n"/>
+      <c r="E23" s="98" t="n"/>
+      <c r="F23" s="102" t="n"/>
       <c r="G23" s="16" t="n"/>
       <c r="H23" s="23" t="n"/>
       <c r="I23" s="24" t="n"/>
@@ -5291,7 +4392,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="24" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B24" s="11" t="n">
         <v>45099</v>
       </c>
@@ -5300,12 +4401,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D24" s="79" t="n"/>
-      <c r="E24" s="80" t="n"/>
-      <c r="F24" s="78">
-        <f>E24-D24</f>
-        <v/>
-      </c>
+      <c r="D24" s="97" t="n"/>
+      <c r="E24" s="98" t="n"/>
+      <c r="F24" s="102" t="n"/>
       <c r="G24" s="16" t="n"/>
       <c r="H24" s="23" t="n"/>
       <c r="I24" s="24" t="n"/>
@@ -5318,12 +4416,9 @@
           <t>源泉徴収</t>
         </is>
       </c>
-      <c r="P24" s="34">
-        <f>P29*10.21%</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P24" s="34" t="n"/>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B25" s="11" t="n">
         <v>45100</v>
       </c>
@@ -5332,12 +4427,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D25" s="79" t="n"/>
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="78">
-        <f>E25-D25</f>
-        <v/>
-      </c>
+      <c r="D25" s="97" t="n"/>
+      <c r="E25" s="98" t="n"/>
+      <c r="F25" s="102" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="23" t="n"/>
       <c r="I25" s="24" t="n"/>
@@ -5350,12 +4442,9 @@
           <t>交通費</t>
         </is>
       </c>
-      <c r="P25" s="32">
-        <f>L34*500</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P25" s="32" t="n"/>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B26" s="11" t="n">
         <v>45101</v>
       </c>
@@ -5364,12 +4453,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D26" s="79" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="78">
-        <f>E26-D26</f>
-        <v/>
-      </c>
+      <c r="D26" s="97" t="n"/>
+      <c r="E26" s="98" t="n"/>
+      <c r="F26" s="102" t="n"/>
       <c r="G26" s="16" t="n"/>
       <c r="H26" s="23" t="n"/>
       <c r="I26" s="24" t="n"/>
@@ -5382,12 +4468,9 @@
           <t>前借</t>
         </is>
       </c>
-      <c r="P26" s="29">
-        <f>M34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P26" s="29" t="n"/>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B27" s="11" t="n">
         <v>45102</v>
       </c>
@@ -5396,12 +4479,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D27" s="79" t="n"/>
-      <c r="E27" s="80" t="n"/>
-      <c r="F27" s="78">
-        <f>E27-D27</f>
-        <v/>
-      </c>
+      <c r="D27" s="97" t="n"/>
+      <c r="E27" s="98" t="n"/>
+      <c r="F27" s="102" t="n"/>
       <c r="G27" s="16" t="n"/>
       <c r="H27" s="23" t="n"/>
       <c r="I27" s="24" t="n"/>
@@ -5410,7 +4490,7 @@
       <c r="L27" s="24" t="n"/>
       <c r="M27" s="25" t="n"/>
     </row>
-    <row r="28" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="28" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B28" s="11" t="n">
         <v>45103</v>
       </c>
@@ -5419,12 +4499,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D28" s="79" t="n"/>
-      <c r="E28" s="80" t="n"/>
-      <c r="F28" s="78">
-        <f>E28-D28</f>
-        <v/>
-      </c>
+      <c r="D28" s="97" t="n"/>
+      <c r="E28" s="98" t="n"/>
+      <c r="F28" s="102" t="n"/>
       <c r="G28" s="16" t="n"/>
       <c r="H28" s="23" t="n"/>
       <c r="I28" s="24" t="n"/>
@@ -5438,7 +4515,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="29" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B29" s="11" t="n">
         <v>45104</v>
       </c>
@@ -5447,12 +4524,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D29" s="79" t="n"/>
-      <c r="E29" s="80" t="n"/>
-      <c r="F29" s="78">
-        <f>E29-D29</f>
-        <v/>
-      </c>
+      <c r="D29" s="97" t="n"/>
+      <c r="E29" s="98" t="n"/>
+      <c r="F29" s="102" t="n"/>
       <c r="G29" s="16" t="n"/>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="24" t="n"/>
@@ -5465,12 +4539,9 @@
           <t>総支給額</t>
         </is>
       </c>
-      <c r="P29" s="27">
-        <f>P7+P8+P17+P20+P21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P29" s="27" t="n"/>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B30" s="11" t="n">
         <v>45105</v>
       </c>
@@ -5479,12 +4550,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D30" s="79" t="n"/>
-      <c r="E30" s="80" t="n"/>
-      <c r="F30" s="78">
-        <f>E30-D30</f>
-        <v/>
-      </c>
+      <c r="D30" s="97" t="n"/>
+      <c r="E30" s="98" t="n"/>
+      <c r="F30" s="102" t="n"/>
       <c r="G30" s="16" t="n"/>
       <c r="H30" s="23" t="n"/>
       <c r="I30" s="24" t="n"/>
@@ -5497,12 +4565,9 @@
           <t>差引支給額</t>
         </is>
       </c>
-      <c r="P30" s="35">
-        <f>P29-P24-P25-P26-P8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P30" s="35" t="n"/>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B31" s="11" t="n">
         <v>45106</v>
       </c>
@@ -5511,12 +4576,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D31" s="79" t="n"/>
-      <c r="E31" s="80" t="n"/>
-      <c r="F31" s="78">
-        <f>E31-D31</f>
-        <v/>
-      </c>
+      <c r="D31" s="97" t="n"/>
+      <c r="E31" s="98" t="n"/>
+      <c r="F31" s="102" t="n"/>
       <c r="G31" s="16" t="n"/>
       <c r="H31" s="23" t="n"/>
       <c r="I31" s="24" t="n"/>
@@ -5525,7 +4587,7 @@
       <c r="L31" s="24" t="n"/>
       <c r="M31" s="25" t="n"/>
     </row>
-    <row r="32" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="32" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B32" s="11" t="n">
         <v>45107</v>
       </c>
@@ -5534,12 +4596,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D32" s="79" t="n"/>
-      <c r="E32" s="80" t="n"/>
-      <c r="F32" s="78">
-        <f>E32-D32</f>
-        <v/>
-      </c>
+      <c r="D32" s="97" t="n"/>
+      <c r="E32" s="98" t="n"/>
+      <c r="F32" s="102" t="n"/>
       <c r="G32" s="16" t="n"/>
       <c r="H32" s="23" t="n"/>
       <c r="I32" s="24" t="n"/>
@@ -5553,15 +4612,12 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="33" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B33" s="36" t="n"/>
       <c r="C33" s="37" t="n"/>
-      <c r="D33" s="81" t="n"/>
-      <c r="E33" s="82" t="n"/>
-      <c r="F33" s="78">
-        <f>E33-D33</f>
-        <v/>
-      </c>
+      <c r="D33" s="99" t="n"/>
+      <c r="E33" s="100" t="n"/>
+      <c r="F33" s="102" t="n"/>
       <c r="G33" s="16" t="n"/>
       <c r="H33" s="40" t="n"/>
       <c r="I33" s="41" t="n"/>
@@ -5574,55 +4630,28 @@
           <t>月間売上</t>
         </is>
       </c>
-      <c r="P33" s="42">
-        <f>G34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P33" s="42" t="n"/>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="E34" s="4" t="inlineStr">
         <is>
           <t>当月勤務時間合計</t>
         </is>
       </c>
-      <c r="F34" s="83">
-        <f>SUM(F3:F33)</f>
-        <v/>
-      </c>
+      <c r="F34" s="103" t="n"/>
       <c r="G34" s="44" t="n"/>
-      <c r="H34" s="44">
-        <f>SUM(H3:H33)</f>
-        <v/>
-      </c>
-      <c r="I34" s="44">
-        <f>SUM(I3:I33)</f>
-        <v/>
-      </c>
-      <c r="J34" s="44">
-        <f>SUM(J3:J33)</f>
-        <v/>
-      </c>
-      <c r="K34" s="44">
-        <f>SUM(K3:K33)</f>
-        <v/>
-      </c>
-      <c r="L34" s="44">
-        <f>SUM(L3:L33)</f>
-        <v/>
-      </c>
-      <c r="M34" s="45">
-        <f>SUM(M3:M33)</f>
-        <v/>
-      </c>
+      <c r="H34" s="44" t="n"/>
+      <c r="I34" s="44" t="n"/>
+      <c r="J34" s="44" t="n"/>
+      <c r="K34" s="44" t="n"/>
+      <c r="L34" s="44" t="n"/>
+      <c r="M34" s="45" t="n"/>
       <c r="O34" s="33" t="inlineStr">
         <is>
           <t>給率</t>
         </is>
       </c>
-      <c r="P34" s="46">
-        <f>P29/P33</f>
-        <v/>
-      </c>
+      <c r="P34" s="46" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
@@ -5638,9 +4667,11 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -5655,11 +4686,11 @@
     <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
     <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.796875" customWidth="1" style="2" min="17" max="26"/>
-    <col width="8.796875" customWidth="1" style="2" min="27" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="30"/>
+    <col width="8.796875" customWidth="1" style="2" min="31" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>出退勤シート</t>
@@ -5675,11 +4706,8 @@
           <t>そのだ</t>
         </is>
       </c>
-      <c r="P1" s="75">
-        <f>IF(G34&gt;=200000,IF(G34&gt;2000000,19,G34/100000),1)</f>
-        <v/>
-      </c>
-      <c r="Q1" s="75" t="n"/>
+      <c r="P1" s="90" t="n"/>
+      <c r="Q1" s="90" t="n"/>
     </row>
     <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
       <c r="B2" s="5" t="n"/>
@@ -5735,13 +4763,9 @@
         </is>
       </c>
       <c r="O2" s="4" t="n"/>
-      <c r="P2" s="3">
-        <f>P1</f>
-        <v/>
-      </c>
-      <c r="Q2" s="75" t="n"/>
-    </row>
-    <row r="3" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="Q2" s="90" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B3" s="11" t="n">
         <v>45078</v>
       </c>
@@ -5750,9 +4774,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D3" s="76" t="n"/>
-      <c r="E3" s="77" t="n"/>
-      <c r="F3" s="78">
+      <c r="D3" s="91" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="93">
         <f>E3-D3</f>
         <v/>
       </c>
@@ -5769,7 +4793,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="4" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B4" s="11" t="n">
         <v>45079</v>
       </c>
@@ -5778,9 +4802,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D4" s="79" t="n"/>
-      <c r="E4" s="80" t="n"/>
-      <c r="F4" s="78">
+      <c r="D4" s="91" t="n"/>
+      <c r="E4" s="92" t="n"/>
+      <c r="F4" s="93">
         <f>E4-D4</f>
         <v/>
       </c>
@@ -5796,12 +4820,12 @@
           <t>出勤日数</t>
         </is>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="83">
         <f>COUNTA(E3:E33)</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B5" s="11" t="n">
         <v>45080</v>
       </c>
@@ -5810,9 +4834,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D5" s="79" t="n"/>
-      <c r="E5" s="80" t="n"/>
-      <c r="F5" s="78">
+      <c r="D5" s="91" t="n"/>
+      <c r="E5" s="92" t="n"/>
+      <c r="F5" s="94">
         <f>E5-D5</f>
         <v/>
       </c>
@@ -5828,12 +4852,11 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="29">
-        <f>1350+50*P1</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="18.6" customHeight="1" s="74" thickBot="1">
+      <c r="P5" s="84" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B6" s="11" t="n">
         <v>45081</v>
       </c>
@@ -5842,9 +4865,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D6" s="79" t="n"/>
-      <c r="E6" s="80" t="n"/>
-      <c r="F6" s="78">
+      <c r="D6" s="91" t="n"/>
+      <c r="E6" s="92" t="n"/>
+      <c r="F6" s="93">
         <f>E6-D6</f>
         <v/>
       </c>
@@ -5856,7 +4879,7 @@
       <c r="L6" s="24" t="n"/>
       <c r="M6" s="25" t="n"/>
     </row>
-    <row r="7" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="7" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B7" s="11" t="n">
         <v>45082</v>
       </c>
@@ -5865,9 +4888,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D7" s="79" t="n"/>
-      <c r="E7" s="80" t="n"/>
-      <c r="F7" s="78">
+      <c r="D7" s="91" t="n"/>
+      <c r="E7" s="92" t="n"/>
+      <c r="F7" s="93">
         <f>E7-D7</f>
         <v/>
       </c>
@@ -5883,12 +4906,12 @@
           <t>基本給</t>
         </is>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="83">
         <f>P5*F34</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B8" s="11" t="n">
         <v>45083</v>
       </c>
@@ -5897,9 +4920,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D8" s="79" t="n"/>
-      <c r="E8" s="80" t="n"/>
-      <c r="F8" s="78">
+      <c r="D8" s="91" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="93">
         <f>E8-D8</f>
         <v/>
       </c>
@@ -5915,12 +4938,12 @@
           <t>バック</t>
         </is>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="84">
         <f>K34</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B9" s="11" t="n">
         <v>45084</v>
       </c>
@@ -5929,9 +4952,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D9" s="79" t="n"/>
-      <c r="E9" s="80" t="n"/>
-      <c r="F9" s="78">
+      <c r="D9" s="91" t="n"/>
+      <c r="E9" s="92" t="n"/>
+      <c r="F9" s="93">
         <f>E9-D9</f>
         <v/>
       </c>
@@ -5943,7 +4966,7 @@
       <c r="L9" s="24" t="n"/>
       <c r="M9" s="25" t="n"/>
     </row>
-    <row r="10" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="10" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B10" s="11" t="n">
         <v>45085</v>
       </c>
@@ -5952,9 +4975,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D10" s="79" t="n"/>
-      <c r="E10" s="80" t="n"/>
-      <c r="F10" s="78">
+      <c r="D10" s="91" t="n"/>
+      <c r="E10" s="92" t="n"/>
+      <c r="F10" s="93">
         <f>E10-D10</f>
         <v/>
       </c>
@@ -5971,7 +4994,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="11" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B11" s="11" t="n">
         <v>45086</v>
       </c>
@@ -5980,9 +5003,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D11" s="79" t="n"/>
-      <c r="E11" s="80" t="n"/>
-      <c r="F11" s="78">
+      <c r="D11" s="91" t="n"/>
+      <c r="E11" s="92" t="n"/>
+      <c r="F11" s="93">
         <f>E11-D11</f>
         <v/>
       </c>
@@ -5998,11 +5021,11 @@
           <t>チームバック</t>
         </is>
       </c>
-      <c r="P11" s="27" t="n">
+      <c r="P11" s="83" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="12" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B12" s="11" t="n">
         <v>45087</v>
       </c>
@@ -6011,47 +5034,29 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D12" s="79" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="E12" s="80" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="F12" s="78">
+      <c r="D12" s="91" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="93">
         <f>E12-D12</f>
         <v/>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="23" t="n"/>
+      <c r="I12" s="24" t="n"/>
+      <c r="J12" s="24" t="n"/>
+      <c r="K12" s="24" t="n"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="25" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="H12" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="24" t="n"/>
-      <c r="K12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="24" t="n"/>
-      <c r="M12" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="31" t="inlineStr">
-        <is>
-          <t>売上1位</t>
-        </is>
-      </c>
-      <c r="P12" s="32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="18.6" customHeight="1" s="74" thickBot="1">
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B13" s="11" t="n">
         <v>45088</v>
       </c>
@@ -6060,9 +5065,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D13" s="79" t="n"/>
-      <c r="E13" s="80" t="n"/>
-      <c r="F13" s="78">
+      <c r="D13" s="91" t="n"/>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="93">
         <f>E13-D13</f>
         <v/>
       </c>
@@ -6078,11 +5083,11 @@
           <t>月間指名1位</t>
         </is>
       </c>
-      <c r="P13" s="32" t="n">
+      <c r="P13" s="85" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="14" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B14" s="11" t="n">
         <v>45089</v>
       </c>
@@ -6091,43 +5096,29 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D14" s="79" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="E14" s="80" t="n"/>
-      <c r="F14" s="78">
+      <c r="D14" s="91" t="n"/>
+      <c r="E14" s="92" t="n"/>
+      <c r="F14" s="93">
         <f>E14-D14</f>
         <v/>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="23" t="n"/>
+      <c r="I14" s="24" t="n"/>
+      <c r="J14" s="24" t="n"/>
+      <c r="K14" s="24" t="n"/>
+      <c r="L14" s="24" t="n"/>
+      <c r="M14" s="25" t="n"/>
+      <c r="O14" s="31" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="85" t="n">
         <v>0</v>
       </c>
-      <c r="H14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="24" t="n"/>
-      <c r="K14" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="24" t="n"/>
-      <c r="M14" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="31" t="inlineStr">
-        <is>
-          <t>月間同伴1位</t>
-        </is>
-      </c>
-      <c r="P14" s="32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="18.6" customHeight="1" s="74" thickBot="1">
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B15" s="11" t="n">
         <v>45090</v>
       </c>
@@ -6136,13 +5127,15 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D15" s="79" t="n"/>
-      <c r="E15" s="80" t="n"/>
-      <c r="F15" s="78">
+      <c r="D15" s="91" t="n"/>
+      <c r="E15" s="92" t="n"/>
+      <c r="F15" s="93">
         <f>E15-D15</f>
         <v/>
       </c>
-      <c r="G15" s="16" t="n"/>
+      <c r="G15" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" s="23" t="n"/>
       <c r="I15" s="24" t="n"/>
       <c r="J15" s="24" t="n"/>
@@ -6154,12 +5147,12 @@
           <t>シャンパン</t>
         </is>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="85">
         <f>I34*10%</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B16" s="11" t="n">
         <v>45091</v>
       </c>
@@ -6168,30 +5161,48 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D16" s="79" t="n"/>
-      <c r="E16" s="80" t="n"/>
-      <c r="F16" s="78">
+      <c r="D16" s="91" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="E16" s="92" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="F16" s="93">
         <f>E16-D16</f>
         <v/>
       </c>
-      <c r="G16" s="16" t="n"/>
-      <c r="H16" s="23" t="n"/>
-      <c r="I16" s="24" t="n"/>
+      <c r="G16" s="16" t="n">
+        <v>134640</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>100000</v>
+      </c>
       <c r="J16" s="24" t="n"/>
-      <c r="K16" s="24" t="n"/>
+      <c r="K16" s="24" t="n">
+        <v>600</v>
+      </c>
       <c r="L16" s="24" t="n"/>
-      <c r="M16" s="25" t="n"/>
+      <c r="M16" s="25" t="n">
+        <v>0</v>
+      </c>
       <c r="O16" s="33" t="inlineStr">
         <is>
           <t>ドリンク</t>
         </is>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="84">
         <f>H34*200</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B17" s="11" t="n">
         <v>45092</v>
       </c>
@@ -6200,9 +5211,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D17" s="79" t="n"/>
-      <c r="E17" s="80" t="n"/>
-      <c r="F17" s="78">
+      <c r="D17" s="91" t="n"/>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="93">
         <f>E17-D17</f>
         <v/>
       </c>
@@ -6218,12 +5229,12 @@
           <t>合計</t>
         </is>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="0">
         <f>SUM(P11:P16)</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B18" s="11" t="n">
         <v>45093</v>
       </c>
@@ -6232,9 +5243,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D18" s="79" t="n"/>
-      <c r="E18" s="80" t="n"/>
-      <c r="F18" s="78">
+      <c r="D18" s="91" t="n"/>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="93">
         <f>E18-D18</f>
         <v/>
       </c>
@@ -6246,7 +5257,7 @@
       <c r="L18" s="24" t="n"/>
       <c r="M18" s="25" t="n"/>
     </row>
-    <row r="19" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="19" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B19" s="11" t="n">
         <v>45094</v>
       </c>
@@ -6255,9 +5266,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D19" s="79" t="n"/>
-      <c r="E19" s="80" t="n"/>
-      <c r="F19" s="78">
+      <c r="D19" s="91" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="93">
         <f>E19-D19</f>
         <v/>
       </c>
@@ -6274,7 +5285,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="20" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B20" s="11" t="n">
         <v>45095</v>
       </c>
@@ -6283,9 +5294,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D20" s="79" t="n"/>
-      <c r="E20" s="80" t="n"/>
-      <c r="F20" s="78">
+      <c r="D20" s="91" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="93">
         <f>E20-D20</f>
         <v/>
       </c>
@@ -6301,11 +5312,11 @@
           <t>シフト手当</t>
         </is>
       </c>
-      <c r="P20" s="27" t="n">
+      <c r="P20" s="83" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="21" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B21" s="11" t="n">
         <v>45096</v>
       </c>
@@ -6314,9 +5325,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D21" s="79" t="n"/>
-      <c r="E21" s="80" t="n"/>
-      <c r="F21" s="78">
+      <c r="D21" s="91" t="n"/>
+      <c r="E21" s="92" t="n"/>
+      <c r="F21" s="93">
         <f>E21-D21</f>
         <v/>
       </c>
@@ -6332,11 +5343,11 @@
           <t>役職手当</t>
         </is>
       </c>
-      <c r="P21" s="29" t="n">
+      <c r="P21" s="84" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="22" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B22" s="11" t="n">
         <v>45097</v>
       </c>
@@ -6345,9 +5356,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D22" s="79" t="n"/>
-      <c r="E22" s="80" t="n"/>
-      <c r="F22" s="78">
+      <c r="D22" s="91" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="93">
         <f>E22-D22</f>
         <v/>
       </c>
@@ -6359,7 +5370,7 @@
       <c r="L22" s="24" t="n"/>
       <c r="M22" s="25" t="n"/>
     </row>
-    <row r="23" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="23" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B23" s="11" t="n">
         <v>45098</v>
       </c>
@@ -6368,9 +5379,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D23" s="79" t="n"/>
-      <c r="E23" s="80" t="n"/>
-      <c r="F23" s="78">
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="93">
         <f>E23-D23</f>
         <v/>
       </c>
@@ -6387,7 +5398,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="24" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B24" s="11" t="n">
         <v>45099</v>
       </c>
@@ -6396,9 +5407,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D24" s="79" t="n"/>
-      <c r="E24" s="80" t="n"/>
-      <c r="F24" s="78">
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="93">
         <f>E24-D24</f>
         <v/>
       </c>
@@ -6414,12 +5425,12 @@
           <t>源泉徴収</t>
         </is>
       </c>
-      <c r="P24" s="34">
+      <c r="P24" s="86">
         <f>P29*10.21%</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B25" s="11" t="n">
         <v>45100</v>
       </c>
@@ -6428,9 +5439,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D25" s="79" t="n"/>
-      <c r="E25" s="80" t="n"/>
-      <c r="F25" s="78">
+      <c r="D25" s="91" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="93">
         <f>E25-D25</f>
         <v/>
       </c>
@@ -6446,12 +5457,12 @@
           <t>交通費</t>
         </is>
       </c>
-      <c r="P25" s="32">
+      <c r="P25" s="85">
         <f>L34*500</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B26" s="11" t="n">
         <v>45101</v>
       </c>
@@ -6460,9 +5471,9 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D26" s="79" t="n"/>
-      <c r="E26" s="80" t="n"/>
-      <c r="F26" s="78">
+      <c r="D26" s="95" t="n"/>
+      <c r="E26" s="96" t="n"/>
+      <c r="F26" s="93">
         <f>E26-D26</f>
         <v/>
       </c>
@@ -6478,12 +5489,12 @@
           <t>前借</t>
         </is>
       </c>
-      <c r="P26" s="29">
+      <c r="P26" s="84">
         <f>M34</f>
         <v/>
       </c>
     </row>
-    <row r="27" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B27" s="11" t="n">
         <v>45102</v>
       </c>
@@ -6492,9 +5503,9 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D27" s="79" t="n"/>
-      <c r="E27" s="80" t="n"/>
-      <c r="F27" s="78">
+      <c r="D27" s="97" t="n"/>
+      <c r="E27" s="98" t="n"/>
+      <c r="F27" s="93">
         <f>E27-D27</f>
         <v/>
       </c>
@@ -6506,7 +5517,7 @@
       <c r="L27" s="24" t="n"/>
       <c r="M27" s="25" t="n"/>
     </row>
-    <row r="28" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="28" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B28" s="11" t="n">
         <v>45103</v>
       </c>
@@ -6515,9 +5526,9 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D28" s="79" t="n"/>
-      <c r="E28" s="80" t="n"/>
-      <c r="F28" s="78">
+      <c r="D28" s="97" t="n"/>
+      <c r="E28" s="98" t="n"/>
+      <c r="F28" s="93">
         <f>E28-D28</f>
         <v/>
       </c>
@@ -6534,7 +5545,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="29" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B29" s="11" t="n">
         <v>45104</v>
       </c>
@@ -6543,9 +5554,9 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D29" s="79" t="n"/>
-      <c r="E29" s="80" t="n"/>
-      <c r="F29" s="78">
+      <c r="D29" s="97" t="n"/>
+      <c r="E29" s="98" t="n"/>
+      <c r="F29" s="93">
         <f>E29-D29</f>
         <v/>
       </c>
@@ -6561,12 +5572,12 @@
           <t>総支給額</t>
         </is>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="83">
         <f>P7+P8+P17+P20+P21</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B30" s="11" t="n">
         <v>45105</v>
       </c>
@@ -6575,9 +5586,9 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D30" s="79" t="n"/>
-      <c r="E30" s="80" t="n"/>
-      <c r="F30" s="78">
+      <c r="D30" s="97" t="n"/>
+      <c r="E30" s="98" t="n"/>
+      <c r="F30" s="93">
         <f>E30-D30</f>
         <v/>
       </c>
@@ -6593,12 +5604,12 @@
           <t>差引支給額</t>
         </is>
       </c>
-      <c r="P30" s="35">
+      <c r="P30" s="87">
         <f>P29-P24-P25-P26-P8</f>
         <v/>
       </c>
     </row>
-    <row r="31" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B31" s="11" t="n">
         <v>45106</v>
       </c>
@@ -6607,9 +5618,9 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D31" s="79" t="n"/>
-      <c r="E31" s="80" t="n"/>
-      <c r="F31" s="78">
+      <c r="D31" s="97" t="n"/>
+      <c r="E31" s="98" t="n"/>
+      <c r="F31" s="93">
         <f>E31-D31</f>
         <v/>
       </c>
@@ -6621,7 +5632,7 @@
       <c r="L31" s="24" t="n"/>
       <c r="M31" s="25" t="n"/>
     </row>
-    <row r="32" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="32" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B32" s="11" t="n">
         <v>45107</v>
       </c>
@@ -6630,9 +5641,9 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D32" s="79" t="n"/>
-      <c r="E32" s="80" t="n"/>
-      <c r="F32" s="78">
+      <c r="D32" s="97" t="n"/>
+      <c r="E32" s="98" t="n"/>
+      <c r="F32" s="93">
         <f>E32-D32</f>
         <v/>
       </c>
@@ -6649,12 +5660,12 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="33" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B33" s="36" t="n"/>
       <c r="C33" s="37" t="n"/>
-      <c r="D33" s="81" t="n"/>
-      <c r="E33" s="82" t="n"/>
-      <c r="F33" s="78">
+      <c r="D33" s="99" t="n"/>
+      <c r="E33" s="100" t="n"/>
+      <c r="F33" s="93">
         <f>E33-D33</f>
         <v/>
       </c>
@@ -6670,46 +5681,46 @@
           <t>月間売上</t>
         </is>
       </c>
-      <c r="P33" s="42">
+      <c r="P33" s="88">
         <f>G34</f>
         <v/>
       </c>
     </row>
-    <row r="34" ht="18.6" customHeight="1" s="74" thickBot="1">
+    <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="E34" s="4" t="inlineStr">
         <is>
           <t>当月勤務時間合計</t>
         </is>
       </c>
-      <c r="F34" s="83">
+      <c r="F34" s="101">
         <f>SUM(F3:F33)</f>
         <v/>
       </c>
-      <c r="G34" s="44">
+      <c r="G34" s="81">
         <f>SUM(G3:G33)</f>
         <v/>
       </c>
-      <c r="H34" s="44">
+      <c r="H34" s="82">
         <f>SUM(H3:H33)</f>
         <v/>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="82">
         <f>SUM(I3:I33)</f>
         <v/>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="82">
         <f>SUM(J3:J33)</f>
         <v/>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="82">
         <f>SUM(K3:K33)</f>
         <v/>
       </c>
-      <c r="L34" s="44">
+      <c r="L34" s="82">
         <f>SUM(L3:L33)</f>
         <v/>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="81">
         <f>SUM(M3:M33)</f>
         <v/>
       </c>

--- a/excel_sheets/wageTime_sheets 2023/出退勤表　6月.xlsx
+++ b/excel_sheets/wageTime_sheets 2023/出退勤表　6月.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1620" yWindow="288" windowWidth="10320" windowHeight="11508" tabRatio="600" firstSheet="1" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2052" yWindow="12" windowWidth="14700" windowHeight="11508" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="給料テーブル" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ひな形" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="そのだ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="めい" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="あかり" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ひとみ" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="みりあ" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="こまち" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ゆき" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1072,8 +1075,8 @@
     <col width="12.59765625" customWidth="1" style="4" min="2" max="2"/>
     <col width="8.796875" customWidth="1" style="2" min="3" max="3"/>
     <col width="0.69921875" customWidth="1" style="2" min="4" max="4"/>
-    <col width="8.796875" customWidth="1" style="2" min="5" max="12"/>
-    <col width="8.796875" customWidth="1" style="2" min="13" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="13"/>
+    <col width="8.796875" customWidth="1" style="2" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1645,11 +1648,11 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="D3:E33"/>
+      <selection pane="bottomRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -1664,8 +1667,8 @@
     <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
     <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.796875" customWidth="1" style="2" min="17" max="30"/>
-    <col width="8.796875" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="31"/>
+    <col width="8.796875" customWidth="1" style="2" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
@@ -2104,9 +2107,7 @@
         <f>E15-D15</f>
         <v/>
       </c>
-      <c r="G15" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="G15" s="16" t="n"/>
       <c r="H15" s="23" t="n"/>
       <c r="I15" s="24" t="n"/>
       <c r="J15" s="24" t="n"/>
@@ -2699,13 +2700,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -2720,8 +2721,8 @@
     <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
     <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.796875" customWidth="1" style="2" min="17" max="30"/>
-    <col width="8.796875" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="31"/>
+    <col width="8.796875" customWidth="1" style="2" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
@@ -2737,10 +2738,11 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>めい</t>
         </is>
       </c>
       <c r="P1" s="90" t="n"/>
+      <c r="Q1" s="90" t="n"/>
     </row>
     <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
       <c r="B2" s="5" t="n"/>
@@ -2796,7 +2798,7 @@
         </is>
       </c>
       <c r="O2" s="4" t="n"/>
-      <c r="P2" s="2" t="n"/>
+      <c r="Q2" s="90" t="n"/>
     </row>
     <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B3" s="11" t="n">
@@ -2809,7 +2811,10 @@
       </c>
       <c r="D3" s="91" t="n"/>
       <c r="E3" s="92" t="n"/>
-      <c r="F3" s="102" t="n"/>
+      <c r="F3" s="93">
+        <f>E3-D3</f>
+        <v/>
+      </c>
       <c r="G3" s="16" t="n"/>
       <c r="H3" s="17" t="n"/>
       <c r="I3" s="18" t="n"/>
@@ -2834,7 +2839,10 @@
       </c>
       <c r="D4" s="91" t="n"/>
       <c r="E4" s="92" t="n"/>
-      <c r="F4" s="102" t="n"/>
+      <c r="F4" s="93">
+        <f>E4-D4</f>
+        <v/>
+      </c>
       <c r="G4" s="16" t="n"/>
       <c r="H4" s="23" t="n"/>
       <c r="I4" s="24" t="n"/>
@@ -2847,7 +2855,10 @@
           <t>出勤日数</t>
         </is>
       </c>
-      <c r="P4" s="27" t="n"/>
+      <c r="P4" s="83">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B5" s="11" t="n">
@@ -2860,7 +2871,10 @@
       </c>
       <c r="D5" s="91" t="n"/>
       <c r="E5" s="92" t="n"/>
-      <c r="F5" s="102" t="n"/>
+      <c r="F5" s="94">
+        <f>E5-D5</f>
+        <v/>
+      </c>
       <c r="G5" s="16" t="n"/>
       <c r="H5" s="23" t="n"/>
       <c r="I5" s="24" t="n"/>
@@ -2873,9 +2887,7 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="29" t="n">
-        <v>2100</v>
-      </c>
+      <c r="P5" s="84" t="n"/>
     </row>
     <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B6" s="11" t="n">
@@ -2888,18 +2900,15 @@
       </c>
       <c r="D6" s="91" t="n"/>
       <c r="E6" s="92" t="n"/>
-      <c r="F6" s="102" t="n"/>
+      <c r="F6" s="93">
+        <f>E6-D6</f>
+        <v/>
+      </c>
       <c r="G6" s="16" t="n"/>
-      <c r="H6" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="H6" s="23" t="n"/>
+      <c r="I6" s="24" t="n"/>
       <c r="J6" s="24" t="n"/>
-      <c r="K6" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K6" s="24" t="n"/>
       <c r="L6" s="24" t="n"/>
       <c r="M6" s="25" t="n"/>
     </row>
@@ -2914,7 +2923,10 @@
       </c>
       <c r="D7" s="91" t="n"/>
       <c r="E7" s="92" t="n"/>
-      <c r="F7" s="102" t="n"/>
+      <c r="F7" s="93">
+        <f>E7-D7</f>
+        <v/>
+      </c>
       <c r="G7" s="16" t="n"/>
       <c r="H7" s="23" t="n"/>
       <c r="I7" s="24" t="n"/>
@@ -2927,7 +2939,10 @@
           <t>基本給</t>
         </is>
       </c>
-      <c r="P7" s="27" t="n"/>
+      <c r="P7" s="83">
+        <f>P5*F34</f>
+        <v/>
+      </c>
     </row>
     <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B8" s="11" t="n">
@@ -2940,18 +2955,15 @@
       </c>
       <c r="D8" s="91" t="n"/>
       <c r="E8" s="92" t="n"/>
-      <c r="F8" s="102" t="n"/>
+      <c r="F8" s="93">
+        <f>E8-D8</f>
+        <v/>
+      </c>
       <c r="G8" s="16" t="n"/>
-      <c r="H8" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="H8" s="23" t="n"/>
+      <c r="I8" s="24" t="n"/>
       <c r="J8" s="24" t="n"/>
-      <c r="K8" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K8" s="24" t="n"/>
       <c r="L8" s="24" t="n"/>
       <c r="M8" s="25" t="n"/>
       <c r="O8" s="28" t="inlineStr">
@@ -2959,7 +2971,10 @@
           <t>バック</t>
         </is>
       </c>
-      <c r="P8" s="29" t="n"/>
+      <c r="P8" s="84">
+        <f>K34</f>
+        <v/>
+      </c>
     </row>
     <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B9" s="11" t="n">
@@ -2970,32 +2985,19 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D9" s="91" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="E9" s="92" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="F9" s="102" t="n"/>
+      <c r="D9" s="91" t="n"/>
+      <c r="E9" s="92" t="n"/>
+      <c r="F9" s="93">
+        <f>E9-D9</f>
+        <v/>
+      </c>
       <c r="G9" s="16" t="n"/>
-      <c r="H9" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="24" t="n">
-        <v>1000</v>
-      </c>
+      <c r="H9" s="23" t="n"/>
+      <c r="I9" s="24" t="n"/>
       <c r="J9" s="24" t="n"/>
-      <c r="K9" s="24" t="n">
-        <v>3600</v>
-      </c>
+      <c r="K9" s="24" t="n"/>
       <c r="L9" s="24" t="n"/>
-      <c r="M9" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M9" s="25" t="n"/>
     </row>
     <row r="10" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B10" s="11" t="n">
@@ -3008,22 +3010,17 @@
       </c>
       <c r="D10" s="91" t="n"/>
       <c r="E10" s="92" t="n"/>
-      <c r="F10" s="102" t="n"/>
+      <c r="F10" s="93">
+        <f>E10-D10</f>
+        <v/>
+      </c>
       <c r="G10" s="16" t="n"/>
-      <c r="H10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="H10" s="23" t="n"/>
+      <c r="I10" s="24" t="n"/>
       <c r="J10" s="24" t="n"/>
-      <c r="K10" s="24" t="n">
-        <v>3000</v>
-      </c>
+      <c r="K10" s="24" t="n"/>
       <c r="L10" s="24" t="n"/>
-      <c r="M10" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M10" s="25" t="n"/>
       <c r="O10" s="20" t="inlineStr">
         <is>
           <t>賞与</t>
@@ -3041,7 +3038,10 @@
       </c>
       <c r="D11" s="91" t="n"/>
       <c r="E11" s="92" t="n"/>
-      <c r="F11" s="102" t="n"/>
+      <c r="F11" s="93">
+        <f>E11-D11</f>
+        <v/>
+      </c>
       <c r="G11" s="16" t="n"/>
       <c r="H11" s="23" t="n"/>
       <c r="I11" s="24" t="n"/>
@@ -3054,7 +3054,7 @@
           <t>チームバック</t>
         </is>
       </c>
-      <c r="P11" s="27" t="n">
+      <c r="P11" s="83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3069,7 +3069,10 @@
       </c>
       <c r="D12" s="91" t="n"/>
       <c r="E12" s="92" t="n"/>
-      <c r="F12" s="102" t="n"/>
+      <c r="F12" s="93">
+        <f>E12-D12</f>
+        <v/>
+      </c>
       <c r="G12" s="16" t="n"/>
       <c r="H12" s="23" t="n"/>
       <c r="I12" s="24" t="n"/>
@@ -3082,7 +3085,7 @@
           <t>売上1位</t>
         </is>
       </c>
-      <c r="P12" s="32" t="n">
+      <c r="P12" s="85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3095,40 +3098,25 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D13" s="91" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="E13" s="92" t="inlineStr">
-        <is>
-          <t>25:30</t>
-        </is>
-      </c>
-      <c r="F13" s="102" t="n"/>
-      <c r="G13" s="16" t="n">
-        <v>1326600</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="D13" s="91" t="n"/>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="93">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="23" t="n"/>
+      <c r="I13" s="24" t="n"/>
       <c r="J13" s="24" t="n"/>
-      <c r="K13" s="24" t="n">
-        <v>1500</v>
-      </c>
+      <c r="K13" s="24" t="n"/>
       <c r="L13" s="24" t="n"/>
-      <c r="M13" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" s="25" t="n"/>
       <c r="O13" s="31" t="inlineStr">
         <is>
           <t>月間指名1位</t>
         </is>
       </c>
-      <c r="P13" s="32" t="n">
+      <c r="P13" s="85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,40 +3129,25 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D14" s="91" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="E14" s="92" t="inlineStr">
-        <is>
-          <t>25:30</t>
-        </is>
-      </c>
-      <c r="F14" s="102" t="n"/>
-      <c r="G14" s="16" t="n">
-        <v>3960</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24" t="n">
-        <v>2000</v>
-      </c>
+      <c r="D14" s="91" t="n"/>
+      <c r="E14" s="92" t="n"/>
+      <c r="F14" s="93">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="23" t="n"/>
+      <c r="I14" s="24" t="n"/>
       <c r="J14" s="24" t="n"/>
-      <c r="K14" s="24" t="n">
-        <v>4400</v>
-      </c>
+      <c r="K14" s="24" t="n"/>
       <c r="L14" s="24" t="n"/>
-      <c r="M14" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M14" s="25" t="n"/>
       <c r="O14" s="31" t="inlineStr">
         <is>
           <t>月間同伴1位</t>
         </is>
       </c>
-      <c r="P14" s="32" t="n">
+      <c r="P14" s="85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3189,7 +3162,10 @@
       </c>
       <c r="D15" s="91" t="n"/>
       <c r="E15" s="92" t="n"/>
-      <c r="F15" s="102" t="n"/>
+      <c r="F15" s="93">
+        <f>E15-D15</f>
+        <v/>
+      </c>
       <c r="G15" s="16" t="n"/>
       <c r="H15" s="23" t="n"/>
       <c r="I15" s="24" t="n"/>
@@ -3202,7 +3178,10 @@
           <t>シャンパン</t>
         </is>
       </c>
-      <c r="P15" s="32" t="n"/>
+      <c r="P15" s="85">
+        <f>I34*10%</f>
+        <v/>
+      </c>
     </row>
     <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B16" s="11" t="n">
@@ -3213,40 +3192,28 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D16" s="91" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="E16" s="92" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="F16" s="102" t="n"/>
-      <c r="G16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="D16" s="91" t="n"/>
+      <c r="E16" s="92" t="n"/>
+      <c r="F16" s="93">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="23" t="n"/>
+      <c r="I16" s="24" t="n"/>
       <c r="J16" s="24" t="n"/>
-      <c r="K16" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K16" s="24" t="n"/>
       <c r="L16" s="24" t="n"/>
-      <c r="M16" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M16" s="25" t="n"/>
       <c r="O16" s="33" t="inlineStr">
         <is>
           <t>ドリンク</t>
         </is>
       </c>
-      <c r="P16" s="29" t="n"/>
+      <c r="P16" s="84">
+        <f>H34*200</f>
+        <v/>
+      </c>
     </row>
     <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B17" s="11" t="n">
@@ -3259,7 +3226,10 @@
       </c>
       <c r="D17" s="91" t="n"/>
       <c r="E17" s="92" t="n"/>
-      <c r="F17" s="102" t="n"/>
+      <c r="F17" s="93">
+        <f>E17-D17</f>
+        <v/>
+      </c>
       <c r="G17" s="16" t="n"/>
       <c r="H17" s="23" t="n"/>
       <c r="I17" s="24" t="n"/>
@@ -3272,6 +3242,10 @@
           <t>合計</t>
         </is>
       </c>
+      <c r="P17" s="0">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B18" s="11" t="n">
@@ -3284,7 +3258,10 @@
       </c>
       <c r="D18" s="91" t="n"/>
       <c r="E18" s="92" t="n"/>
-      <c r="F18" s="102" t="n"/>
+      <c r="F18" s="93">
+        <f>E18-D18</f>
+        <v/>
+      </c>
       <c r="G18" s="16" t="n"/>
       <c r="H18" s="23" t="n"/>
       <c r="I18" s="24" t="n"/>
@@ -3304,7 +3281,10 @@
       </c>
       <c r="D19" s="91" t="n"/>
       <c r="E19" s="92" t="n"/>
-      <c r="F19" s="102" t="n"/>
+      <c r="F19" s="93">
+        <f>E19-D19</f>
+        <v/>
+      </c>
       <c r="G19" s="16" t="n"/>
       <c r="H19" s="23" t="n"/>
       <c r="I19" s="24" t="n"/>
@@ -3329,7 +3309,10 @@
       </c>
       <c r="D20" s="91" t="n"/>
       <c r="E20" s="92" t="n"/>
-      <c r="F20" s="102" t="n"/>
+      <c r="F20" s="93">
+        <f>E20-D20</f>
+        <v/>
+      </c>
       <c r="G20" s="16" t="n"/>
       <c r="H20" s="23" t="n"/>
       <c r="I20" s="24" t="n"/>
@@ -3342,7 +3325,7 @@
           <t>シフト手当</t>
         </is>
       </c>
-      <c r="P20" s="27" t="n">
+      <c r="P20" s="83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3357,7 +3340,10 @@
       </c>
       <c r="D21" s="91" t="n"/>
       <c r="E21" s="92" t="n"/>
-      <c r="F21" s="102" t="n"/>
+      <c r="F21" s="93">
+        <f>E21-D21</f>
+        <v/>
+      </c>
       <c r="G21" s="16" t="n"/>
       <c r="H21" s="23" t="n"/>
       <c r="I21" s="24" t="n"/>
@@ -3370,7 +3356,7 @@
           <t>役職手当</t>
         </is>
       </c>
-      <c r="P21" s="29" t="n">
+      <c r="P21" s="84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3385,7 +3371,10 @@
       </c>
       <c r="D22" s="91" t="n"/>
       <c r="E22" s="92" t="n"/>
-      <c r="F22" s="102" t="n"/>
+      <c r="F22" s="93">
+        <f>E22-D22</f>
+        <v/>
+      </c>
       <c r="G22" s="16" t="n"/>
       <c r="H22" s="23" t="n"/>
       <c r="I22" s="24" t="n"/>
@@ -3405,7 +3394,10 @@
       </c>
       <c r="D23" s="91" t="n"/>
       <c r="E23" s="92" t="n"/>
-      <c r="F23" s="102" t="n"/>
+      <c r="F23" s="93">
+        <f>E23-D23</f>
+        <v/>
+      </c>
       <c r="G23" s="16" t="n"/>
       <c r="H23" s="23" t="n"/>
       <c r="I23" s="24" t="n"/>
@@ -3430,7 +3422,10 @@
       </c>
       <c r="D24" s="91" t="n"/>
       <c r="E24" s="92" t="n"/>
-      <c r="F24" s="102" t="n"/>
+      <c r="F24" s="93">
+        <f>E24-D24</f>
+        <v/>
+      </c>
       <c r="G24" s="16" t="n"/>
       <c r="H24" s="23" t="n"/>
       <c r="I24" s="24" t="n"/>
@@ -3443,7 +3438,10 @@
           <t>源泉徴収</t>
         </is>
       </c>
-      <c r="P24" s="34" t="n"/>
+      <c r="P24" s="86">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
     </row>
     <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B25" s="11" t="n">
@@ -3456,7 +3454,10 @@
       </c>
       <c r="D25" s="91" t="n"/>
       <c r="E25" s="92" t="n"/>
-      <c r="F25" s="102" t="n"/>
+      <c r="F25" s="93">
+        <f>E25-D25</f>
+        <v/>
+      </c>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="23" t="n"/>
       <c r="I25" s="24" t="n"/>
@@ -3469,7 +3470,10 @@
           <t>交通費</t>
         </is>
       </c>
-      <c r="P25" s="32" t="n"/>
+      <c r="P25" s="85">
+        <f>L34*500</f>
+        <v/>
+      </c>
     </row>
     <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B26" s="11" t="n">
@@ -3482,7 +3486,10 @@
       </c>
       <c r="D26" s="95" t="n"/>
       <c r="E26" s="96" t="n"/>
-      <c r="F26" s="102" t="n"/>
+      <c r="F26" s="93">
+        <f>E26-D26</f>
+        <v/>
+      </c>
       <c r="G26" s="16" t="n"/>
       <c r="H26" s="23" t="n"/>
       <c r="I26" s="24" t="n"/>
@@ -3495,7 +3502,10 @@
           <t>前借</t>
         </is>
       </c>
-      <c r="P26" s="29" t="n"/>
+      <c r="P26" s="84">
+        <f>M34</f>
+        <v/>
+      </c>
     </row>
     <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B27" s="11" t="n">
@@ -3508,7 +3518,10 @@
       </c>
       <c r="D27" s="97" t="n"/>
       <c r="E27" s="98" t="n"/>
-      <c r="F27" s="102" t="n"/>
+      <c r="F27" s="93">
+        <f>E27-D27</f>
+        <v/>
+      </c>
       <c r="G27" s="16" t="n"/>
       <c r="H27" s="23" t="n"/>
       <c r="I27" s="24" t="n"/>
@@ -3528,7 +3541,10 @@
       </c>
       <c r="D28" s="97" t="n"/>
       <c r="E28" s="98" t="n"/>
-      <c r="F28" s="102" t="n"/>
+      <c r="F28" s="93">
+        <f>E28-D28</f>
+        <v/>
+      </c>
       <c r="G28" s="16" t="n"/>
       <c r="H28" s="23" t="n"/>
       <c r="I28" s="24" t="n"/>
@@ -3553,7 +3569,10 @@
       </c>
       <c r="D29" s="97" t="n"/>
       <c r="E29" s="98" t="n"/>
-      <c r="F29" s="102" t="n"/>
+      <c r="F29" s="93">
+        <f>E29-D29</f>
+        <v/>
+      </c>
       <c r="G29" s="16" t="n"/>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="24" t="n"/>
@@ -3566,7 +3585,10 @@
           <t>総支給額</t>
         </is>
       </c>
-      <c r="P29" s="27" t="n"/>
+      <c r="P29" s="83">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
     </row>
     <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B30" s="11" t="n">
@@ -3579,7 +3601,10 @@
       </c>
       <c r="D30" s="97" t="n"/>
       <c r="E30" s="98" t="n"/>
-      <c r="F30" s="102" t="n"/>
+      <c r="F30" s="93">
+        <f>E30-D30</f>
+        <v/>
+      </c>
       <c r="G30" s="16" t="n"/>
       <c r="H30" s="23" t="n"/>
       <c r="I30" s="24" t="n"/>
@@ -3592,7 +3617,10 @@
           <t>差引支給額</t>
         </is>
       </c>
-      <c r="P30" s="35" t="n"/>
+      <c r="P30" s="87">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
     </row>
     <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B31" s="11" t="n">
@@ -3605,7 +3633,10 @@
       </c>
       <c r="D31" s="97" t="n"/>
       <c r="E31" s="98" t="n"/>
-      <c r="F31" s="102" t="n"/>
+      <c r="F31" s="93">
+        <f>E31-D31</f>
+        <v/>
+      </c>
       <c r="G31" s="16" t="n"/>
       <c r="H31" s="23" t="n"/>
       <c r="I31" s="24" t="n"/>
@@ -3625,7 +3656,10 @@
       </c>
       <c r="D32" s="97" t="n"/>
       <c r="E32" s="98" t="n"/>
-      <c r="F32" s="102" t="n"/>
+      <c r="F32" s="93">
+        <f>E32-D32</f>
+        <v/>
+      </c>
       <c r="G32" s="16" t="n"/>
       <c r="H32" s="23" t="n"/>
       <c r="I32" s="24" t="n"/>
@@ -3644,7 +3678,10 @@
       <c r="C33" s="37" t="n"/>
       <c r="D33" s="99" t="n"/>
       <c r="E33" s="100" t="n"/>
-      <c r="F33" s="102" t="n"/>
+      <c r="F33" s="93">
+        <f>E33-D33</f>
+        <v/>
+      </c>
       <c r="G33" s="16" t="n"/>
       <c r="H33" s="40" t="n"/>
       <c r="I33" s="41" t="n"/>
@@ -3657,7 +3694,10 @@
           <t>月間売上</t>
         </is>
       </c>
-      <c r="P33" s="42" t="n"/>
+      <c r="P33" s="88">
+        <f>G34</f>
+        <v/>
+      </c>
     </row>
     <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="E34" s="4" t="inlineStr">
@@ -3665,41 +3705,47 @@
           <t>当月勤務時間合計</t>
         </is>
       </c>
-      <c r="F34" s="103" t="n"/>
-      <c r="G34" s="44">
+      <c r="F34" s="101">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="81">
         <f>SUM(G3:G33)</f>
         <v/>
       </c>
-      <c r="H34" s="44" t="n"/>
-      <c r="I34" s="44" t="n"/>
-      <c r="J34" s="44" t="n"/>
-      <c r="K34" s="44" t="n"/>
-      <c r="L34" s="44" t="n"/>
-      <c r="M34" s="45" t="n"/>
+      <c r="H34" s="82">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="82">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="82">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="82">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="82">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="81">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
       <c r="O34" s="33" t="inlineStr">
         <is>
           <t>給率</t>
         </is>
       </c>
-      <c r="P34" s="46" t="n"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="3" t="n"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="3" t="n"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="3" t="n"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="3" t="n"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="3" t="n"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="3" t="n"/>
+      <c r="P34" s="46">
+        <f>P29/P33</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
@@ -3713,13 +3759,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
@@ -3734,8 +3780,8 @@
     <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
     <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.796875" customWidth="1" style="2" min="17" max="30"/>
-    <col width="8.796875" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="31"/>
+    <col width="8.796875" customWidth="1" style="2" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
@@ -3751,10 +3797,11 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>test2</t>
+          <t>あかり</t>
         </is>
       </c>
       <c r="P1" s="90" t="n"/>
+      <c r="Q1" s="90" t="n"/>
     </row>
     <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
       <c r="B2" s="5" t="n"/>
@@ -3810,6 +3857,7 @@
         </is>
       </c>
       <c r="O2" s="4" t="n"/>
+      <c r="Q2" s="90" t="n"/>
     </row>
     <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B3" s="11" t="n">
@@ -3820,9 +3868,12 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D3" s="104" t="n"/>
-      <c r="E3" s="105" t="n"/>
-      <c r="F3" s="102" t="n"/>
+      <c r="D3" s="91" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="93">
+        <f>E3-D3</f>
+        <v/>
+      </c>
       <c r="G3" s="16" t="n"/>
       <c r="H3" s="17" t="n"/>
       <c r="I3" s="18" t="n"/>
@@ -3845,9 +3896,12 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D4" s="97" t="n"/>
-      <c r="E4" s="98" t="n"/>
-      <c r="F4" s="102" t="n"/>
+      <c r="D4" s="91" t="n"/>
+      <c r="E4" s="92" t="n"/>
+      <c r="F4" s="93">
+        <f>E4-D4</f>
+        <v/>
+      </c>
       <c r="G4" s="16" t="n"/>
       <c r="H4" s="23" t="n"/>
       <c r="I4" s="24" t="n"/>
@@ -3860,7 +3914,10 @@
           <t>出勤日数</t>
         </is>
       </c>
-      <c r="P4" s="27" t="n"/>
+      <c r="P4" s="83">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B5" s="11" t="n">
@@ -3871,9 +3928,12 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D5" s="97" t="n"/>
-      <c r="E5" s="98" t="n"/>
-      <c r="F5" s="102" t="n"/>
+      <c r="D5" s="91" t="n"/>
+      <c r="E5" s="92" t="n"/>
+      <c r="F5" s="94">
+        <f>E5-D5</f>
+        <v/>
+      </c>
       <c r="G5" s="16" t="n"/>
       <c r="H5" s="23" t="n"/>
       <c r="I5" s="24" t="n"/>
@@ -3886,7 +3946,7 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="29" t="n"/>
+      <c r="P5" s="84" t="n"/>
     </row>
     <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B6" s="11" t="n">
@@ -3897,20 +3957,15 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D6" s="97" t="n"/>
-      <c r="E6" s="98" t="inlineStr">
-        <is>
-          <t>25:30</t>
-        </is>
-      </c>
-      <c r="F6" s="102" t="n"/>
+      <c r="D6" s="91" t="n"/>
+      <c r="E6" s="92" t="n"/>
+      <c r="F6" s="93">
+        <f>E6-D6</f>
+        <v/>
+      </c>
       <c r="G6" s="16" t="n"/>
-      <c r="H6" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>10000</v>
-      </c>
+      <c r="H6" s="23" t="n"/>
+      <c r="I6" s="24" t="n"/>
       <c r="J6" s="24" t="n"/>
       <c r="K6" s="24" t="n"/>
       <c r="L6" s="24" t="n"/>
@@ -3925,40 +3980,28 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D7" s="97" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="E7" s="98" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="F7" s="102" t="n"/>
+      <c r="D7" s="91" t="n"/>
+      <c r="E7" s="92" t="n"/>
+      <c r="F7" s="93">
+        <f>E7-D7</f>
+        <v/>
+      </c>
       <c r="G7" s="16" t="n"/>
-      <c r="H7" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="H7" s="23" t="n"/>
+      <c r="I7" s="24" t="n"/>
       <c r="J7" s="24" t="n"/>
-      <c r="K7" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="24" t="inlineStr">
-        <is>
-          <t>✔</t>
-        </is>
-      </c>
+      <c r="K7" s="24" t="n"/>
+      <c r="L7" s="24" t="n"/>
       <c r="M7" s="25" t="n"/>
       <c r="O7" s="26" t="inlineStr">
         <is>
           <t>基本給</t>
         </is>
       </c>
-      <c r="P7" s="27" t="n"/>
+      <c r="P7" s="83">
+        <f>P5*F34</f>
+        <v/>
+      </c>
     </row>
     <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B8" s="11" t="n">
@@ -3969,9 +4012,12 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D8" s="97" t="n"/>
-      <c r="E8" s="98" t="n"/>
-      <c r="F8" s="102" t="n"/>
+      <c r="D8" s="91" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="93">
+        <f>E8-D8</f>
+        <v/>
+      </c>
       <c r="G8" s="16" t="n"/>
       <c r="H8" s="23" t="n"/>
       <c r="I8" s="24" t="n"/>
@@ -3984,7 +4030,10 @@
           <t>バック</t>
         </is>
       </c>
-      <c r="P8" s="29" t="n"/>
+      <c r="P8" s="84">
+        <f>K34</f>
+        <v/>
+      </c>
     </row>
     <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B9" s="11" t="n">
@@ -3995,9 +4044,12 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D9" s="97" t="n"/>
-      <c r="E9" s="98" t="n"/>
-      <c r="F9" s="102" t="n"/>
+      <c r="D9" s="91" t="n"/>
+      <c r="E9" s="92" t="n"/>
+      <c r="F9" s="93">
+        <f>E9-D9</f>
+        <v/>
+      </c>
       <c r="G9" s="16" t="n"/>
       <c r="H9" s="23" t="n"/>
       <c r="I9" s="24" t="n"/>
@@ -4015,28 +4067,19 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D10" s="97" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="E10" s="98" t="n"/>
-      <c r="F10" s="102" t="n"/>
+      <c r="D10" s="91" t="n"/>
+      <c r="E10" s="92" t="n"/>
+      <c r="F10" s="93">
+        <f>E10-D10</f>
+        <v/>
+      </c>
       <c r="G10" s="16" t="n"/>
-      <c r="H10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="24" t="n">
-        <v>200</v>
-      </c>
+      <c r="H10" s="23" t="n"/>
+      <c r="I10" s="24" t="n"/>
       <c r="J10" s="24" t="n"/>
-      <c r="K10" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="K10" s="24" t="n"/>
       <c r="L10" s="24" t="n"/>
-      <c r="M10" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M10" s="25" t="n"/>
       <c r="O10" s="20" t="inlineStr">
         <is>
           <t>賞与</t>
@@ -4052,9 +4095,12 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D11" s="97" t="n"/>
-      <c r="E11" s="98" t="n"/>
-      <c r="F11" s="102" t="n"/>
+      <c r="D11" s="91" t="n"/>
+      <c r="E11" s="92" t="n"/>
+      <c r="F11" s="93">
+        <f>E11-D11</f>
+        <v/>
+      </c>
       <c r="G11" s="16" t="n"/>
       <c r="H11" s="23" t="n"/>
       <c r="I11" s="24" t="n"/>
@@ -4067,7 +4113,7 @@
           <t>チームバック</t>
         </is>
       </c>
-      <c r="P11" s="27" t="n">
+      <c r="P11" s="83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4080,9 +4126,12 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D12" s="97" t="n"/>
-      <c r="E12" s="98" t="n"/>
-      <c r="F12" s="102" t="n"/>
+      <c r="D12" s="91" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="93">
+        <f>E12-D12</f>
+        <v/>
+      </c>
       <c r="G12" s="16" t="n"/>
       <c r="H12" s="23" t="n"/>
       <c r="I12" s="24" t="n"/>
@@ -4095,7 +4144,7 @@
           <t>売上1位</t>
         </is>
       </c>
-      <c r="P12" s="32" t="n">
+      <c r="P12" s="85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4108,36 +4157,25 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D13" s="97" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="E13" s="98" t="n"/>
-      <c r="F13" s="102" t="n"/>
-      <c r="G13" s="16" t="n">
-        <v>2640</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="24" t="n">
-        <v>200</v>
-      </c>
+      <c r="D13" s="91" t="n"/>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="93">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="23" t="n"/>
+      <c r="I13" s="24" t="n"/>
       <c r="J13" s="24" t="n"/>
-      <c r="K13" s="24" t="n">
-        <v>4700</v>
-      </c>
+      <c r="K13" s="24" t="n"/>
       <c r="L13" s="24" t="n"/>
-      <c r="M13" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M13" s="25" t="n"/>
       <c r="O13" s="31" t="inlineStr">
         <is>
           <t>月間指名1位</t>
         </is>
       </c>
-      <c r="P13" s="32" t="n">
+      <c r="P13" s="85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4150,9 +4188,12 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D14" s="97" t="n"/>
-      <c r="E14" s="98" t="n"/>
-      <c r="F14" s="102" t="n"/>
+      <c r="D14" s="91" t="n"/>
+      <c r="E14" s="92" t="n"/>
+      <c r="F14" s="93">
+        <f>E14-D14</f>
+        <v/>
+      </c>
       <c r="G14" s="16" t="n"/>
       <c r="H14" s="23" t="n"/>
       <c r="I14" s="24" t="n"/>
@@ -4165,7 +4206,7 @@
           <t>月間同伴1位</t>
         </is>
       </c>
-      <c r="P14" s="32" t="n">
+      <c r="P14" s="85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,10 +4219,15 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D15" s="97" t="n"/>
-      <c r="E15" s="98" t="n"/>
-      <c r="F15" s="102" t="n"/>
-      <c r="G15" s="16" t="n"/>
+      <c r="D15" s="91" t="n"/>
+      <c r="E15" s="92" t="n"/>
+      <c r="F15" s="93">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="H15" s="23" t="n"/>
       <c r="I15" s="24" t="n"/>
       <c r="J15" s="24" t="n"/>
@@ -4193,7 +4239,10 @@
           <t>シャンパン</t>
         </is>
       </c>
-      <c r="P15" s="32" t="n"/>
+      <c r="P15" s="85">
+        <f>I34*10%</f>
+        <v/>
+      </c>
     </row>
     <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B16" s="11" t="n">
@@ -4204,9 +4253,12 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D16" s="97" t="n"/>
-      <c r="E16" s="98" t="n"/>
-      <c r="F16" s="102" t="n"/>
+      <c r="D16" s="91" t="n"/>
+      <c r="E16" s="92" t="n"/>
+      <c r="F16" s="93">
+        <f>E16-D16</f>
+        <v/>
+      </c>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="23" t="n"/>
       <c r="I16" s="24" t="n"/>
@@ -4219,7 +4271,10 @@
           <t>ドリンク</t>
         </is>
       </c>
-      <c r="P16" s="29" t="n"/>
+      <c r="P16" s="84">
+        <f>H34*200</f>
+        <v/>
+      </c>
     </row>
     <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B17" s="11" t="n">
@@ -4230,9 +4285,12 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D17" s="97" t="n"/>
-      <c r="E17" s="98" t="n"/>
-      <c r="F17" s="102" t="n"/>
+      <c r="D17" s="91" t="n"/>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="93">
+        <f>E17-D17</f>
+        <v/>
+      </c>
       <c r="G17" s="16" t="n"/>
       <c r="H17" s="23" t="n"/>
       <c r="I17" s="24" t="n"/>
@@ -4245,6 +4303,10 @@
           <t>合計</t>
         </is>
       </c>
+      <c r="P17" s="0">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B18" s="11" t="n">
@@ -4255,9 +4317,12 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D18" s="97" t="n"/>
-      <c r="E18" s="98" t="n"/>
-      <c r="F18" s="102" t="n"/>
+      <c r="D18" s="91" t="n"/>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="93">
+        <f>E18-D18</f>
+        <v/>
+      </c>
       <c r="G18" s="16" t="n"/>
       <c r="H18" s="23" t="n"/>
       <c r="I18" s="24" t="n"/>
@@ -4275,9 +4340,12 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D19" s="97" t="n"/>
-      <c r="E19" s="98" t="n"/>
-      <c r="F19" s="102" t="n"/>
+      <c r="D19" s="91" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="93">
+        <f>E19-D19</f>
+        <v/>
+      </c>
       <c r="G19" s="16" t="n"/>
       <c r="H19" s="23" t="n"/>
       <c r="I19" s="24" t="n"/>
@@ -4300,9 +4368,12 @@
           <t>日</t>
         </is>
       </c>
-      <c r="D20" s="97" t="n"/>
-      <c r="E20" s="98" t="n"/>
-      <c r="F20" s="102" t="n"/>
+      <c r="D20" s="91" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="93">
+        <f>E20-D20</f>
+        <v/>
+      </c>
       <c r="G20" s="16" t="n"/>
       <c r="H20" s="23" t="n"/>
       <c r="I20" s="24" t="n"/>
@@ -4315,7 +4386,7 @@
           <t>シフト手当</t>
         </is>
       </c>
-      <c r="P20" s="27" t="n">
+      <c r="P20" s="83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4328,9 +4399,12 @@
           <t>月</t>
         </is>
       </c>
-      <c r="D21" s="97" t="n"/>
-      <c r="E21" s="98" t="n"/>
-      <c r="F21" s="102" t="n"/>
+      <c r="D21" s="91" t="n"/>
+      <c r="E21" s="92" t="n"/>
+      <c r="F21" s="93">
+        <f>E21-D21</f>
+        <v/>
+      </c>
       <c r="G21" s="16" t="n"/>
       <c r="H21" s="23" t="n"/>
       <c r="I21" s="24" t="n"/>
@@ -4343,7 +4417,7 @@
           <t>役職手当</t>
         </is>
       </c>
-      <c r="P21" s="29" t="n">
+      <c r="P21" s="84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4356,9 +4430,12 @@
           <t>火</t>
         </is>
       </c>
-      <c r="D22" s="97" t="n"/>
-      <c r="E22" s="98" t="n"/>
-      <c r="F22" s="102" t="n"/>
+      <c r="D22" s="91" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="93">
+        <f>E22-D22</f>
+        <v/>
+      </c>
       <c r="G22" s="16" t="n"/>
       <c r="H22" s="23" t="n"/>
       <c r="I22" s="24" t="n"/>
@@ -4376,9 +4453,12 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D23" s="97" t="n"/>
-      <c r="E23" s="98" t="n"/>
-      <c r="F23" s="102" t="n"/>
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="93">
+        <f>E23-D23</f>
+        <v/>
+      </c>
       <c r="G23" s="16" t="n"/>
       <c r="H23" s="23" t="n"/>
       <c r="I23" s="24" t="n"/>
@@ -4401,9 +4481,12 @@
           <t>木</t>
         </is>
       </c>
-      <c r="D24" s="97" t="n"/>
-      <c r="E24" s="98" t="n"/>
-      <c r="F24" s="102" t="n"/>
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="93">
+        <f>E24-D24</f>
+        <v/>
+      </c>
       <c r="G24" s="16" t="n"/>
       <c r="H24" s="23" t="n"/>
       <c r="I24" s="24" t="n"/>
@@ -4416,7 +4499,10 @@
           <t>源泉徴収</t>
         </is>
       </c>
-      <c r="P24" s="34" t="n"/>
+      <c r="P24" s="86">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
     </row>
     <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B25" s="11" t="n">
@@ -4427,9 +4513,12 @@
           <t>金</t>
         </is>
       </c>
-      <c r="D25" s="97" t="n"/>
-      <c r="E25" s="98" t="n"/>
-      <c r="F25" s="102" t="n"/>
+      <c r="D25" s="91" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="93">
+        <f>E25-D25</f>
+        <v/>
+      </c>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="23" t="n"/>
       <c r="I25" s="24" t="n"/>
@@ -4442,7 +4531,10 @@
           <t>交通費</t>
         </is>
       </c>
-      <c r="P25" s="32" t="n"/>
+      <c r="P25" s="85">
+        <f>L34*500</f>
+        <v/>
+      </c>
     </row>
     <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B26" s="11" t="n">
@@ -4453,9 +4545,12 @@
           <t>土</t>
         </is>
       </c>
-      <c r="D26" s="97" t="n"/>
-      <c r="E26" s="98" t="n"/>
-      <c r="F26" s="102" t="n"/>
+      <c r="D26" s="95" t="n"/>
+      <c r="E26" s="96" t="n"/>
+      <c r="F26" s="93">
+        <f>E26-D26</f>
+        <v/>
+      </c>
       <c r="G26" s="16" t="n"/>
       <c r="H26" s="23" t="n"/>
       <c r="I26" s="24" t="n"/>
@@ -4468,7 +4563,10 @@
           <t>前借</t>
         </is>
       </c>
-      <c r="P26" s="29" t="n"/>
+      <c r="P26" s="84">
+        <f>M34</f>
+        <v/>
+      </c>
     </row>
     <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B27" s="11" t="n">
@@ -4481,7 +4579,10 @@
       </c>
       <c r="D27" s="97" t="n"/>
       <c r="E27" s="98" t="n"/>
-      <c r="F27" s="102" t="n"/>
+      <c r="F27" s="93">
+        <f>E27-D27</f>
+        <v/>
+      </c>
       <c r="G27" s="16" t="n"/>
       <c r="H27" s="23" t="n"/>
       <c r="I27" s="24" t="n"/>
@@ -4501,7 +4602,10 @@
       </c>
       <c r="D28" s="97" t="n"/>
       <c r="E28" s="98" t="n"/>
-      <c r="F28" s="102" t="n"/>
+      <c r="F28" s="93">
+        <f>E28-D28</f>
+        <v/>
+      </c>
       <c r="G28" s="16" t="n"/>
       <c r="H28" s="23" t="n"/>
       <c r="I28" s="24" t="n"/>
@@ -4526,7 +4630,10 @@
       </c>
       <c r="D29" s="97" t="n"/>
       <c r="E29" s="98" t="n"/>
-      <c r="F29" s="102" t="n"/>
+      <c r="F29" s="93">
+        <f>E29-D29</f>
+        <v/>
+      </c>
       <c r="G29" s="16" t="n"/>
       <c r="H29" s="23" t="n"/>
       <c r="I29" s="24" t="n"/>
@@ -4539,7 +4646,10 @@
           <t>総支給額</t>
         </is>
       </c>
-      <c r="P29" s="27" t="n"/>
+      <c r="P29" s="83">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
     </row>
     <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B30" s="11" t="n">
@@ -4552,7 +4662,10 @@
       </c>
       <c r="D30" s="97" t="n"/>
       <c r="E30" s="98" t="n"/>
-      <c r="F30" s="102" t="n"/>
+      <c r="F30" s="93">
+        <f>E30-D30</f>
+        <v/>
+      </c>
       <c r="G30" s="16" t="n"/>
       <c r="H30" s="23" t="n"/>
       <c r="I30" s="24" t="n"/>
@@ -4565,7 +4678,10 @@
           <t>差引支給額</t>
         </is>
       </c>
-      <c r="P30" s="35" t="n"/>
+      <c r="P30" s="87">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
     </row>
     <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B31" s="11" t="n">
@@ -4578,7 +4694,10 @@
       </c>
       <c r="D31" s="97" t="n"/>
       <c r="E31" s="98" t="n"/>
-      <c r="F31" s="102" t="n"/>
+      <c r="F31" s="93">
+        <f>E31-D31</f>
+        <v/>
+      </c>
       <c r="G31" s="16" t="n"/>
       <c r="H31" s="23" t="n"/>
       <c r="I31" s="24" t="n"/>
@@ -4598,7 +4717,10 @@
       </c>
       <c r="D32" s="97" t="n"/>
       <c r="E32" s="98" t="n"/>
-      <c r="F32" s="102" t="n"/>
+      <c r="F32" s="93">
+        <f>E32-D32</f>
+        <v/>
+      </c>
       <c r="G32" s="16" t="n"/>
       <c r="H32" s="23" t="n"/>
       <c r="I32" s="24" t="n"/>
@@ -4617,7 +4739,10 @@
       <c r="C33" s="37" t="n"/>
       <c r="D33" s="99" t="n"/>
       <c r="E33" s="100" t="n"/>
-      <c r="F33" s="102" t="n"/>
+      <c r="F33" s="93">
+        <f>E33-D33</f>
+        <v/>
+      </c>
       <c r="G33" s="16" t="n"/>
       <c r="H33" s="40" t="n"/>
       <c r="I33" s="41" t="n"/>
@@ -4630,7 +4755,10 @@
           <t>月間売上</t>
         </is>
       </c>
-      <c r="P33" s="42" t="n"/>
+      <c r="P33" s="88">
+        <f>G34</f>
+        <v/>
+      </c>
     </row>
     <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="E34" s="4" t="inlineStr">
@@ -4638,20 +4766,47 @@
           <t>当月勤務時間合計</t>
         </is>
       </c>
-      <c r="F34" s="103" t="n"/>
-      <c r="G34" s="44" t="n"/>
-      <c r="H34" s="44" t="n"/>
-      <c r="I34" s="44" t="n"/>
-      <c r="J34" s="44" t="n"/>
-      <c r="K34" s="44" t="n"/>
-      <c r="L34" s="44" t="n"/>
-      <c r="M34" s="45" t="n"/>
+      <c r="F34" s="101">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="81">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="82">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="82">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="82">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="82">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="82">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="81">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
       <c r="O34" s="33" t="inlineStr">
         <is>
           <t>給率</t>
         </is>
       </c>
-      <c r="P34" s="46" t="n"/>
+      <c r="P34" s="46">
+        <f>P29/P33</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
@@ -4686,8 +4841,8 @@
     <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
     <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
     <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
-    <col width="8.796875" customWidth="1" style="2" min="17" max="30"/>
-    <col width="8.796875" customWidth="1" style="2" min="31" max="16384"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="31"/>
+    <col width="8.796875" customWidth="1" style="2" min="32" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
@@ -4703,7 +4858,7 @@
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>そのだ</t>
+          <t>ひとみ</t>
         </is>
       </c>
       <c r="P1" s="90" t="n"/>
@@ -4852,9 +5007,7 @@
           <t>時給</t>
         </is>
       </c>
-      <c r="P5" s="84" t="n">
-        <v>1400</v>
-      </c>
+      <c r="P5" s="84" t="n"/>
     </row>
     <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
       <c r="B6" s="11" t="n">
@@ -5161,37 +5314,19 @@
           <t>水</t>
         </is>
       </c>
-      <c r="D16" s="91" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="E16" s="92" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
+      <c r="D16" s="91" t="n"/>
+      <c r="E16" s="92" t="n"/>
       <c r="F16" s="93">
         <f>E16-D16</f>
         <v/>
       </c>
-      <c r="G16" s="16" t="n">
-        <v>134640</v>
-      </c>
-      <c r="H16" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="24" t="n">
-        <v>100000</v>
-      </c>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="23" t="n"/>
+      <c r="I16" s="24" t="n"/>
       <c r="J16" s="24" t="n"/>
-      <c r="K16" s="24" t="n">
-        <v>600</v>
-      </c>
+      <c r="K16" s="24" t="n"/>
       <c r="L16" s="24" t="n"/>
-      <c r="M16" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M16" s="25" t="n"/>
       <c r="O16" s="33" t="inlineStr">
         <is>
           <t>ドリンク</t>
@@ -5738,4 +5873,3187 @@
   <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
   <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="31"/>
+    <col width="8.796875" customWidth="1" style="2" min="32" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>みりあ</t>
+        </is>
+      </c>
+      <c r="P1" s="90" t="n"/>
+      <c r="Q1" s="90" t="n"/>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+      <c r="Q2" s="90" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D3" s="91" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="93">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D4" s="91" t="n"/>
+      <c r="E4" s="92" t="n"/>
+      <c r="F4" s="93">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="I4" s="24" t="n"/>
+      <c r="J4" s="24" t="n"/>
+      <c r="K4" s="24" t="n"/>
+      <c r="L4" s="24" t="n"/>
+      <c r="M4" s="25" t="n"/>
+      <c r="O4" s="26" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="83">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45080</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D5" s="91" t="n"/>
+      <c r="E5" s="92" t="n"/>
+      <c r="F5" s="94">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="23" t="n"/>
+      <c r="I5" s="24" t="n"/>
+      <c r="J5" s="24" t="n"/>
+      <c r="K5" s="24" t="n"/>
+      <c r="L5" s="24" t="n"/>
+      <c r="M5" s="25" t="n"/>
+      <c r="O5" s="28" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="84" t="n"/>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D6" s="91" t="n"/>
+      <c r="E6" s="92" t="n"/>
+      <c r="F6" s="93">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="23" t="n"/>
+      <c r="I6" s="24" t="n"/>
+      <c r="J6" s="24" t="n"/>
+      <c r="K6" s="24" t="n"/>
+      <c r="L6" s="24" t="n"/>
+      <c r="M6" s="25" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D7" s="91" t="n"/>
+      <c r="E7" s="92" t="n"/>
+      <c r="F7" s="93">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="23" t="n"/>
+      <c r="I7" s="24" t="n"/>
+      <c r="J7" s="24" t="n"/>
+      <c r="K7" s="24" t="n"/>
+      <c r="L7" s="24" t="n"/>
+      <c r="M7" s="25" t="n"/>
+      <c r="O7" s="26" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="83">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45083</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D8" s="91" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="93">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="23" t="n"/>
+      <c r="I8" s="24" t="n"/>
+      <c r="J8" s="24" t="n"/>
+      <c r="K8" s="24" t="n"/>
+      <c r="L8" s="24" t="n"/>
+      <c r="M8" s="25" t="n"/>
+      <c r="O8" s="28" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="84">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45084</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D9" s="91" t="n"/>
+      <c r="E9" s="92" t="n"/>
+      <c r="F9" s="93">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="23" t="n"/>
+      <c r="I9" s="24" t="n"/>
+      <c r="J9" s="24" t="n"/>
+      <c r="K9" s="24" t="n"/>
+      <c r="L9" s="24" t="n"/>
+      <c r="M9" s="25" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D10" s="91" t="n"/>
+      <c r="E10" s="92" t="n"/>
+      <c r="F10" s="93">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="23" t="n"/>
+      <c r="I10" s="24" t="n"/>
+      <c r="J10" s="24" t="n"/>
+      <c r="K10" s="24" t="n"/>
+      <c r="L10" s="24" t="n"/>
+      <c r="M10" s="25" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D11" s="91" t="n"/>
+      <c r="E11" s="92" t="n"/>
+      <c r="F11" s="93">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="23" t="n"/>
+      <c r="I11" s="24" t="n"/>
+      <c r="J11" s="24" t="n"/>
+      <c r="K11" s="24" t="n"/>
+      <c r="L11" s="24" t="n"/>
+      <c r="M11" s="25" t="n"/>
+      <c r="O11" s="30" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45087</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D12" s="91" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="93">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="23" t="n"/>
+      <c r="I12" s="24" t="n"/>
+      <c r="J12" s="24" t="n"/>
+      <c r="K12" s="24" t="n"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="25" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D13" s="91" t="n"/>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="93">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="23" t="n"/>
+      <c r="I13" s="24" t="n"/>
+      <c r="J13" s="24" t="n"/>
+      <c r="K13" s="24" t="n"/>
+      <c r="L13" s="24" t="n"/>
+      <c r="M13" s="25" t="n"/>
+      <c r="O13" s="31" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D14" s="91" t="n"/>
+      <c r="E14" s="92" t="n"/>
+      <c r="F14" s="93">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="23" t="n"/>
+      <c r="I14" s="24" t="n"/>
+      <c r="J14" s="24" t="n"/>
+      <c r="K14" s="24" t="n"/>
+      <c r="L14" s="24" t="n"/>
+      <c r="M14" s="25" t="n"/>
+      <c r="O14" s="31" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D15" s="91" t="n"/>
+      <c r="E15" s="92" t="n"/>
+      <c r="F15" s="93">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23" t="n"/>
+      <c r="I15" s="24" t="n"/>
+      <c r="J15" s="24" t="n"/>
+      <c r="K15" s="24" t="n"/>
+      <c r="L15" s="24" t="n"/>
+      <c r="M15" s="25" t="n"/>
+      <c r="O15" s="31" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="85">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45091</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D16" s="91" t="n"/>
+      <c r="E16" s="92" t="n"/>
+      <c r="F16" s="93">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="23" t="n"/>
+      <c r="I16" s="24" t="n"/>
+      <c r="J16" s="24" t="n"/>
+      <c r="K16" s="24" t="n"/>
+      <c r="L16" s="24" t="n"/>
+      <c r="M16" s="25" t="n"/>
+      <c r="O16" s="33" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="84">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D17" s="91" t="n"/>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="93">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="16" t="n"/>
+      <c r="H17" s="23" t="n"/>
+      <c r="I17" s="24" t="n"/>
+      <c r="J17" s="24" t="n"/>
+      <c r="K17" s="24" t="n"/>
+      <c r="L17" s="24" t="n"/>
+      <c r="M17" s="25" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="0">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D18" s="91" t="n"/>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="93">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="23" t="n"/>
+      <c r="I18" s="24" t="n"/>
+      <c r="J18" s="24" t="n"/>
+      <c r="K18" s="24" t="n"/>
+      <c r="L18" s="24" t="n"/>
+      <c r="M18" s="25" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D19" s="91" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="93">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="23" t="n"/>
+      <c r="I19" s="24" t="n"/>
+      <c r="J19" s="24" t="n"/>
+      <c r="K19" s="24" t="n"/>
+      <c r="L19" s="24" t="n"/>
+      <c r="M19" s="25" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D20" s="91" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="93">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="23" t="n"/>
+      <c r="I20" s="24" t="n"/>
+      <c r="J20" s="24" t="n"/>
+      <c r="K20" s="24" t="n"/>
+      <c r="L20" s="24" t="n"/>
+      <c r="M20" s="25" t="n"/>
+      <c r="O20" s="30" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45096</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D21" s="91" t="n"/>
+      <c r="E21" s="92" t="n"/>
+      <c r="F21" s="93">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="23" t="n"/>
+      <c r="I21" s="24" t="n"/>
+      <c r="J21" s="24" t="n"/>
+      <c r="K21" s="24" t="n"/>
+      <c r="L21" s="24" t="n"/>
+      <c r="M21" s="25" t="n"/>
+      <c r="O21" s="33" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D22" s="91" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="93">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="23" t="n"/>
+      <c r="I22" s="24" t="n"/>
+      <c r="J22" s="24" t="n"/>
+      <c r="K22" s="24" t="n"/>
+      <c r="L22" s="24" t="n"/>
+      <c r="M22" s="25" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="93">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="23" t="n"/>
+      <c r="I23" s="24" t="n"/>
+      <c r="J23" s="24" t="n"/>
+      <c r="K23" s="24" t="n"/>
+      <c r="L23" s="24" t="n"/>
+      <c r="M23" s="25" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45099</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="93">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="23" t="n"/>
+      <c r="I24" s="24" t="n"/>
+      <c r="J24" s="24" t="n"/>
+      <c r="K24" s="24" t="n"/>
+      <c r="L24" s="24" t="n"/>
+      <c r="M24" s="25" t="n"/>
+      <c r="O24" s="30" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="86">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D25" s="91" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="93">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="23" t="n"/>
+      <c r="I25" s="24" t="n"/>
+      <c r="J25" s="24" t="n"/>
+      <c r="K25" s="24" t="n"/>
+      <c r="L25" s="24" t="n"/>
+      <c r="M25" s="25" t="n"/>
+      <c r="O25" s="31" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="85">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45101</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D26" s="95" t="n"/>
+      <c r="E26" s="96" t="n"/>
+      <c r="F26" s="93">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="23" t="n"/>
+      <c r="I26" s="24" t="n"/>
+      <c r="J26" s="24" t="n"/>
+      <c r="K26" s="24" t="n"/>
+      <c r="L26" s="24" t="n"/>
+      <c r="M26" s="25" t="n"/>
+      <c r="O26" s="33" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="84">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45102</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D27" s="97" t="n"/>
+      <c r="E27" s="98" t="n"/>
+      <c r="F27" s="93">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="16" t="n"/>
+      <c r="H27" s="23" t="n"/>
+      <c r="I27" s="24" t="n"/>
+      <c r="J27" s="24" t="n"/>
+      <c r="K27" s="24" t="n"/>
+      <c r="L27" s="24" t="n"/>
+      <c r="M27" s="25" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D28" s="97" t="n"/>
+      <c r="E28" s="98" t="n"/>
+      <c r="F28" s="93">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="16" t="n"/>
+      <c r="H28" s="23" t="n"/>
+      <c r="I28" s="24" t="n"/>
+      <c r="J28" s="24" t="n"/>
+      <c r="K28" s="24" t="n"/>
+      <c r="L28" s="24" t="n"/>
+      <c r="M28" s="25" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D29" s="97" t="n"/>
+      <c r="E29" s="98" t="n"/>
+      <c r="F29" s="93">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="16" t="n"/>
+      <c r="H29" s="23" t="n"/>
+      <c r="I29" s="24" t="n"/>
+      <c r="J29" s="24" t="n"/>
+      <c r="K29" s="24" t="n"/>
+      <c r="L29" s="24" t="n"/>
+      <c r="M29" s="25" t="n"/>
+      <c r="O29" s="30" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="83">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45105</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D30" s="97" t="n"/>
+      <c r="E30" s="98" t="n"/>
+      <c r="F30" s="93">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="16" t="n"/>
+      <c r="H30" s="23" t="n"/>
+      <c r="I30" s="24" t="n"/>
+      <c r="J30" s="24" t="n"/>
+      <c r="K30" s="24" t="n"/>
+      <c r="L30" s="24" t="n"/>
+      <c r="M30" s="25" t="n"/>
+      <c r="O30" s="33" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="87">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45106</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D31" s="97" t="n"/>
+      <c r="E31" s="98" t="n"/>
+      <c r="F31" s="93">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="16" t="n"/>
+      <c r="H31" s="23" t="n"/>
+      <c r="I31" s="24" t="n"/>
+      <c r="J31" s="24" t="n"/>
+      <c r="K31" s="24" t="n"/>
+      <c r="L31" s="24" t="n"/>
+      <c r="M31" s="25" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D32" s="97" t="n"/>
+      <c r="E32" s="98" t="n"/>
+      <c r="F32" s="93">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="16" t="n"/>
+      <c r="H32" s="23" t="n"/>
+      <c r="I32" s="24" t="n"/>
+      <c r="J32" s="24" t="n"/>
+      <c r="K32" s="24" t="n"/>
+      <c r="L32" s="24" t="n"/>
+      <c r="M32" s="25" t="n"/>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B33" s="36" t="n"/>
+      <c r="C33" s="37" t="n"/>
+      <c r="D33" s="99" t="n"/>
+      <c r="E33" s="100" t="n"/>
+      <c r="F33" s="93">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="16" t="n"/>
+      <c r="H33" s="40" t="n"/>
+      <c r="I33" s="41" t="n"/>
+      <c r="J33" s="41" t="n"/>
+      <c r="K33" s="41" t="n"/>
+      <c r="L33" s="41" t="n"/>
+      <c r="M33" s="29" t="n"/>
+      <c r="O33" s="30" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="88">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="101">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="81">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="82">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="82">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="82">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="82">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="82">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="81">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="33" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="46">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="31"/>
+    <col width="8.796875" customWidth="1" style="2" min="32" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>こまち</t>
+        </is>
+      </c>
+      <c r="P1" s="90" t="n"/>
+      <c r="Q1" s="90" t="n"/>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+      <c r="Q2" s="90" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D3" s="91" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="93">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D4" s="91" t="n"/>
+      <c r="E4" s="92" t="n"/>
+      <c r="F4" s="93">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="I4" s="24" t="n"/>
+      <c r="J4" s="24" t="n"/>
+      <c r="K4" s="24" t="n"/>
+      <c r="L4" s="24" t="n"/>
+      <c r="M4" s="25" t="n"/>
+      <c r="O4" s="26" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="83">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45080</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D5" s="91" t="n"/>
+      <c r="E5" s="92" t="n"/>
+      <c r="F5" s="94">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="23" t="n"/>
+      <c r="I5" s="24" t="n"/>
+      <c r="J5" s="24" t="n"/>
+      <c r="K5" s="24" t="n"/>
+      <c r="L5" s="24" t="n"/>
+      <c r="M5" s="25" t="n"/>
+      <c r="O5" s="28" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="84" t="n"/>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D6" s="91" t="n"/>
+      <c r="E6" s="92" t="n"/>
+      <c r="F6" s="93">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="23" t="n"/>
+      <c r="I6" s="24" t="n"/>
+      <c r="J6" s="24" t="n"/>
+      <c r="K6" s="24" t="n"/>
+      <c r="L6" s="24" t="n"/>
+      <c r="M6" s="25" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D7" s="91" t="n"/>
+      <c r="E7" s="92" t="n"/>
+      <c r="F7" s="93">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="23" t="n"/>
+      <c r="I7" s="24" t="n"/>
+      <c r="J7" s="24" t="n"/>
+      <c r="K7" s="24" t="n"/>
+      <c r="L7" s="24" t="n"/>
+      <c r="M7" s="25" t="n"/>
+      <c r="O7" s="26" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="83">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45083</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D8" s="91" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="93">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="23" t="n"/>
+      <c r="I8" s="24" t="n"/>
+      <c r="J8" s="24" t="n"/>
+      <c r="K8" s="24" t="n"/>
+      <c r="L8" s="24" t="n"/>
+      <c r="M8" s="25" t="n"/>
+      <c r="O8" s="28" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="84">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45084</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D9" s="91" t="n"/>
+      <c r="E9" s="92" t="n"/>
+      <c r="F9" s="93">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="23" t="n"/>
+      <c r="I9" s="24" t="n"/>
+      <c r="J9" s="24" t="n"/>
+      <c r="K9" s="24" t="n"/>
+      <c r="L9" s="24" t="n"/>
+      <c r="M9" s="25" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D10" s="91" t="n"/>
+      <c r="E10" s="92" t="n"/>
+      <c r="F10" s="93">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="23" t="n"/>
+      <c r="I10" s="24" t="n"/>
+      <c r="J10" s="24" t="n"/>
+      <c r="K10" s="24" t="n"/>
+      <c r="L10" s="24" t="n"/>
+      <c r="M10" s="25" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D11" s="91" t="n"/>
+      <c r="E11" s="92" t="n"/>
+      <c r="F11" s="93">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="23" t="n"/>
+      <c r="I11" s="24" t="n"/>
+      <c r="J11" s="24" t="n"/>
+      <c r="K11" s="24" t="n"/>
+      <c r="L11" s="24" t="n"/>
+      <c r="M11" s="25" t="n"/>
+      <c r="O11" s="30" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45087</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D12" s="91" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="93">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="23" t="n"/>
+      <c r="I12" s="24" t="n"/>
+      <c r="J12" s="24" t="n"/>
+      <c r="K12" s="24" t="n"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="25" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D13" s="91" t="n"/>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="93">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="23" t="n"/>
+      <c r="I13" s="24" t="n"/>
+      <c r="J13" s="24" t="n"/>
+      <c r="K13" s="24" t="n"/>
+      <c r="L13" s="24" t="n"/>
+      <c r="M13" s="25" t="n"/>
+      <c r="O13" s="31" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D14" s="91" t="n"/>
+      <c r="E14" s="92" t="n"/>
+      <c r="F14" s="93">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="23" t="n"/>
+      <c r="I14" s="24" t="n"/>
+      <c r="J14" s="24" t="n"/>
+      <c r="K14" s="24" t="n"/>
+      <c r="L14" s="24" t="n"/>
+      <c r="M14" s="25" t="n"/>
+      <c r="O14" s="31" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D15" s="91" t="n"/>
+      <c r="E15" s="92" t="n"/>
+      <c r="F15" s="93">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23" t="n"/>
+      <c r="I15" s="24" t="n"/>
+      <c r="J15" s="24" t="n"/>
+      <c r="K15" s="24" t="n"/>
+      <c r="L15" s="24" t="n"/>
+      <c r="M15" s="25" t="n"/>
+      <c r="O15" s="31" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="85">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45091</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D16" s="91" t="n"/>
+      <c r="E16" s="92" t="n"/>
+      <c r="F16" s="93">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="23" t="n"/>
+      <c r="I16" s="24" t="n"/>
+      <c r="J16" s="24" t="n"/>
+      <c r="K16" s="24" t="n"/>
+      <c r="L16" s="24" t="n"/>
+      <c r="M16" s="25" t="n"/>
+      <c r="O16" s="33" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="84">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D17" s="91" t="n"/>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="93">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="16" t="n"/>
+      <c r="H17" s="23" t="n"/>
+      <c r="I17" s="24" t="n"/>
+      <c r="J17" s="24" t="n"/>
+      <c r="K17" s="24" t="n"/>
+      <c r="L17" s="24" t="n"/>
+      <c r="M17" s="25" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="0">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D18" s="91" t="n"/>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="93">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="23" t="n"/>
+      <c r="I18" s="24" t="n"/>
+      <c r="J18" s="24" t="n"/>
+      <c r="K18" s="24" t="n"/>
+      <c r="L18" s="24" t="n"/>
+      <c r="M18" s="25" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D19" s="91" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="93">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="23" t="n"/>
+      <c r="I19" s="24" t="n"/>
+      <c r="J19" s="24" t="n"/>
+      <c r="K19" s="24" t="n"/>
+      <c r="L19" s="24" t="n"/>
+      <c r="M19" s="25" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D20" s="91" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="93">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="23" t="n"/>
+      <c r="I20" s="24" t="n"/>
+      <c r="J20" s="24" t="n"/>
+      <c r="K20" s="24" t="n"/>
+      <c r="L20" s="24" t="n"/>
+      <c r="M20" s="25" t="n"/>
+      <c r="O20" s="30" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45096</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D21" s="91" t="n"/>
+      <c r="E21" s="92" t="n"/>
+      <c r="F21" s="93">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="23" t="n"/>
+      <c r="I21" s="24" t="n"/>
+      <c r="J21" s="24" t="n"/>
+      <c r="K21" s="24" t="n"/>
+      <c r="L21" s="24" t="n"/>
+      <c r="M21" s="25" t="n"/>
+      <c r="O21" s="33" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D22" s="91" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="93">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="23" t="n"/>
+      <c r="I22" s="24" t="n"/>
+      <c r="J22" s="24" t="n"/>
+      <c r="K22" s="24" t="n"/>
+      <c r="L22" s="24" t="n"/>
+      <c r="M22" s="25" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="93">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="23" t="n"/>
+      <c r="I23" s="24" t="n"/>
+      <c r="J23" s="24" t="n"/>
+      <c r="K23" s="24" t="n"/>
+      <c r="L23" s="24" t="n"/>
+      <c r="M23" s="25" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45099</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="93">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="23" t="n"/>
+      <c r="I24" s="24" t="n"/>
+      <c r="J24" s="24" t="n"/>
+      <c r="K24" s="24" t="n"/>
+      <c r="L24" s="24" t="n"/>
+      <c r="M24" s="25" t="n"/>
+      <c r="O24" s="30" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="86">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D25" s="91" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="93">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="23" t="n"/>
+      <c r="I25" s="24" t="n"/>
+      <c r="J25" s="24" t="n"/>
+      <c r="K25" s="24" t="n"/>
+      <c r="L25" s="24" t="n"/>
+      <c r="M25" s="25" t="n"/>
+      <c r="O25" s="31" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="85">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45101</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D26" s="95" t="n"/>
+      <c r="E26" s="96" t="n"/>
+      <c r="F26" s="93">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="23" t="n"/>
+      <c r="I26" s="24" t="n"/>
+      <c r="J26" s="24" t="n"/>
+      <c r="K26" s="24" t="n"/>
+      <c r="L26" s="24" t="n"/>
+      <c r="M26" s="25" t="n"/>
+      <c r="O26" s="33" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="84">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45102</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D27" s="97" t="n"/>
+      <c r="E27" s="98" t="n"/>
+      <c r="F27" s="93">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="16" t="n"/>
+      <c r="H27" s="23" t="n"/>
+      <c r="I27" s="24" t="n"/>
+      <c r="J27" s="24" t="n"/>
+      <c r="K27" s="24" t="n"/>
+      <c r="L27" s="24" t="n"/>
+      <c r="M27" s="25" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D28" s="97" t="n"/>
+      <c r="E28" s="98" t="n"/>
+      <c r="F28" s="93">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="16" t="n"/>
+      <c r="H28" s="23" t="n"/>
+      <c r="I28" s="24" t="n"/>
+      <c r="J28" s="24" t="n"/>
+      <c r="K28" s="24" t="n"/>
+      <c r="L28" s="24" t="n"/>
+      <c r="M28" s="25" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D29" s="97" t="n"/>
+      <c r="E29" s="98" t="n"/>
+      <c r="F29" s="93">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="16" t="n"/>
+      <c r="H29" s="23" t="n"/>
+      <c r="I29" s="24" t="n"/>
+      <c r="J29" s="24" t="n"/>
+      <c r="K29" s="24" t="n"/>
+      <c r="L29" s="24" t="n"/>
+      <c r="M29" s="25" t="n"/>
+      <c r="O29" s="30" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="83">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45105</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D30" s="97" t="n"/>
+      <c r="E30" s="98" t="n"/>
+      <c r="F30" s="93">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="16" t="n"/>
+      <c r="H30" s="23" t="n"/>
+      <c r="I30" s="24" t="n"/>
+      <c r="J30" s="24" t="n"/>
+      <c r="K30" s="24" t="n"/>
+      <c r="L30" s="24" t="n"/>
+      <c r="M30" s="25" t="n"/>
+      <c r="O30" s="33" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="87">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45106</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D31" s="97" t="n"/>
+      <c r="E31" s="98" t="n"/>
+      <c r="F31" s="93">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="16" t="n"/>
+      <c r="H31" s="23" t="n"/>
+      <c r="I31" s="24" t="n"/>
+      <c r="J31" s="24" t="n"/>
+      <c r="K31" s="24" t="n"/>
+      <c r="L31" s="24" t="n"/>
+      <c r="M31" s="25" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D32" s="97" t="n"/>
+      <c r="E32" s="98" t="n"/>
+      <c r="F32" s="93">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="16" t="n"/>
+      <c r="H32" s="23" t="n"/>
+      <c r="I32" s="24" t="n"/>
+      <c r="J32" s="24" t="n"/>
+      <c r="K32" s="24" t="n"/>
+      <c r="L32" s="24" t="n"/>
+      <c r="M32" s="25" t="n"/>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B33" s="36" t="n"/>
+      <c r="C33" s="37" t="n"/>
+      <c r="D33" s="99" t="n"/>
+      <c r="E33" s="100" t="n"/>
+      <c r="F33" s="93">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="16" t="n"/>
+      <c r="H33" s="40" t="n"/>
+      <c r="I33" s="41" t="n"/>
+      <c r="J33" s="41" t="n"/>
+      <c r="K33" s="41" t="n"/>
+      <c r="L33" s="41" t="n"/>
+      <c r="M33" s="29" t="n"/>
+      <c r="O33" s="30" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="88">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="101">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="81">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="82">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="82">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="82">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="82">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="82">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="81">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="33" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="46">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
+  <cols>
+    <col width="8.796875" customWidth="1" style="2" min="1" max="2"/>
+    <col width="5.69921875" customWidth="1" style="3" min="3" max="3"/>
+    <col width="9" customWidth="1" style="2" min="4" max="4"/>
+    <col width="8.796875" customWidth="1" style="2" min="5" max="6"/>
+    <col width="10.8984375" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.09765625" customWidth="1" style="2" min="8" max="9"/>
+    <col width="10.59765625" customWidth="1" style="2" min="10" max="10"/>
+    <col width="8.796875" customWidth="1" style="2" min="11" max="14"/>
+    <col width="11.8984375" customWidth="1" style="4" min="15" max="15"/>
+    <col width="12.09765625" customWidth="1" style="2" min="16" max="16"/>
+    <col width="8.796875" customWidth="1" style="2" min="17" max="31"/>
+    <col width="8.796875" customWidth="1" style="2" min="32" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>出退勤シート</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>氏名</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>ゆき</t>
+        </is>
+      </c>
+      <c r="P1" s="90" t="n"/>
+      <c r="Q1" s="90" t="n"/>
+    </row>
+    <row r="2" ht="18.6" customFormat="1" customHeight="1" s="3" thickBot="1">
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="6" t="n"/>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>出勤</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>退勤</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>勤務時間</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>売上</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="I2" s="10" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="J2" s="10" t="inlineStr">
+        <is>
+          <t>遅刻・当欠</t>
+        </is>
+      </c>
+      <c r="K2" s="10" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>送り</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="O2" s="4" t="n"/>
+      <c r="Q2" s="90" t="n"/>
+    </row>
+    <row r="3" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B3" s="11" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D3" s="91" t="n"/>
+      <c r="E3" s="92" t="n"/>
+      <c r="F3" s="93">
+        <f>E3-D3</f>
+        <v/>
+      </c>
+      <c r="G3" s="16" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="18" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="18" t="n"/>
+      <c r="M3" s="19" t="n"/>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>給与</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B4" s="11" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D4" s="91" t="n"/>
+      <c r="E4" s="92" t="n"/>
+      <c r="F4" s="93">
+        <f>E4-D4</f>
+        <v/>
+      </c>
+      <c r="G4" s="16" t="n"/>
+      <c r="H4" s="23" t="n"/>
+      <c r="I4" s="24" t="n"/>
+      <c r="J4" s="24" t="n"/>
+      <c r="K4" s="24" t="n"/>
+      <c r="L4" s="24" t="n"/>
+      <c r="M4" s="25" t="n"/>
+      <c r="O4" s="26" t="inlineStr">
+        <is>
+          <t>出勤日数</t>
+        </is>
+      </c>
+      <c r="P4" s="83">
+        <f>COUNTA(E3:E33)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B5" s="11" t="n">
+        <v>45080</v>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D5" s="91" t="n"/>
+      <c r="E5" s="92" t="n"/>
+      <c r="F5" s="94">
+        <f>E5-D5</f>
+        <v/>
+      </c>
+      <c r="G5" s="16" t="n"/>
+      <c r="H5" s="23" t="n"/>
+      <c r="I5" s="24" t="n"/>
+      <c r="J5" s="24" t="n"/>
+      <c r="K5" s="24" t="n"/>
+      <c r="L5" s="24" t="n"/>
+      <c r="M5" s="25" t="n"/>
+      <c r="O5" s="28" t="inlineStr">
+        <is>
+          <t>時給</t>
+        </is>
+      </c>
+      <c r="P5" s="84" t="n"/>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B6" s="11" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D6" s="91" t="n"/>
+      <c r="E6" s="92" t="n"/>
+      <c r="F6" s="93">
+        <f>E6-D6</f>
+        <v/>
+      </c>
+      <c r="G6" s="16" t="n"/>
+      <c r="H6" s="23" t="n"/>
+      <c r="I6" s="24" t="n"/>
+      <c r="J6" s="24" t="n"/>
+      <c r="K6" s="24" t="n"/>
+      <c r="L6" s="24" t="n"/>
+      <c r="M6" s="25" t="n"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B7" s="11" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D7" s="91" t="n"/>
+      <c r="E7" s="92" t="n"/>
+      <c r="F7" s="93">
+        <f>E7-D7</f>
+        <v/>
+      </c>
+      <c r="G7" s="16" t="n"/>
+      <c r="H7" s="23" t="n"/>
+      <c r="I7" s="24" t="n"/>
+      <c r="J7" s="24" t="n"/>
+      <c r="K7" s="24" t="n"/>
+      <c r="L7" s="24" t="n"/>
+      <c r="M7" s="25" t="n"/>
+      <c r="O7" s="26" t="inlineStr">
+        <is>
+          <t>基本給</t>
+        </is>
+      </c>
+      <c r="P7" s="83">
+        <f>P5*F34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B8" s="11" t="n">
+        <v>45083</v>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D8" s="91" t="n"/>
+      <c r="E8" s="92" t="n"/>
+      <c r="F8" s="93">
+        <f>E8-D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="16" t="n"/>
+      <c r="H8" s="23" t="n"/>
+      <c r="I8" s="24" t="n"/>
+      <c r="J8" s="24" t="n"/>
+      <c r="K8" s="24" t="n"/>
+      <c r="L8" s="24" t="n"/>
+      <c r="M8" s="25" t="n"/>
+      <c r="O8" s="28" t="inlineStr">
+        <is>
+          <t>バック</t>
+        </is>
+      </c>
+      <c r="P8" s="84">
+        <f>K34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B9" s="11" t="n">
+        <v>45084</v>
+      </c>
+      <c r="C9" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D9" s="91" t="n"/>
+      <c r="E9" s="92" t="n"/>
+      <c r="F9" s="93">
+        <f>E9-D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="16" t="n"/>
+      <c r="H9" s="23" t="n"/>
+      <c r="I9" s="24" t="n"/>
+      <c r="J9" s="24" t="n"/>
+      <c r="K9" s="24" t="n"/>
+      <c r="L9" s="24" t="n"/>
+      <c r="M9" s="25" t="n"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B10" s="11" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C10" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D10" s="91" t="n"/>
+      <c r="E10" s="92" t="n"/>
+      <c r="F10" s="93">
+        <f>E10-D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="16" t="n"/>
+      <c r="H10" s="23" t="n"/>
+      <c r="I10" s="24" t="n"/>
+      <c r="J10" s="24" t="n"/>
+      <c r="K10" s="24" t="n"/>
+      <c r="L10" s="24" t="n"/>
+      <c r="M10" s="25" t="n"/>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>賞与</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B11" s="11" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C11" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D11" s="91" t="n"/>
+      <c r="E11" s="92" t="n"/>
+      <c r="F11" s="93">
+        <f>E11-D11</f>
+        <v/>
+      </c>
+      <c r="G11" s="16" t="n"/>
+      <c r="H11" s="23" t="n"/>
+      <c r="I11" s="24" t="n"/>
+      <c r="J11" s="24" t="n"/>
+      <c r="K11" s="24" t="n"/>
+      <c r="L11" s="24" t="n"/>
+      <c r="M11" s="25" t="n"/>
+      <c r="O11" s="30" t="inlineStr">
+        <is>
+          <t>チームバック</t>
+        </is>
+      </c>
+      <c r="P11" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B12" s="11" t="n">
+        <v>45087</v>
+      </c>
+      <c r="C12" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D12" s="91" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="93">
+        <f>E12-D12</f>
+        <v/>
+      </c>
+      <c r="G12" s="16" t="n"/>
+      <c r="H12" s="23" t="n"/>
+      <c r="I12" s="24" t="n"/>
+      <c r="J12" s="24" t="n"/>
+      <c r="K12" s="24" t="n"/>
+      <c r="L12" s="24" t="n"/>
+      <c r="M12" s="25" t="n"/>
+      <c r="O12" s="31" t="inlineStr">
+        <is>
+          <t>売上1位</t>
+        </is>
+      </c>
+      <c r="P12" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B13" s="11" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C13" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D13" s="91" t="n"/>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="93">
+        <f>E13-D13</f>
+        <v/>
+      </c>
+      <c r="G13" s="16" t="n"/>
+      <c r="H13" s="23" t="n"/>
+      <c r="I13" s="24" t="n"/>
+      <c r="J13" s="24" t="n"/>
+      <c r="K13" s="24" t="n"/>
+      <c r="L13" s="24" t="n"/>
+      <c r="M13" s="25" t="n"/>
+      <c r="O13" s="31" t="inlineStr">
+        <is>
+          <t>月間指名1位</t>
+        </is>
+      </c>
+      <c r="P13" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B14" s="11" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C14" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D14" s="91" t="n"/>
+      <c r="E14" s="92" t="n"/>
+      <c r="F14" s="93">
+        <f>E14-D14</f>
+        <v/>
+      </c>
+      <c r="G14" s="16" t="n"/>
+      <c r="H14" s="23" t="n"/>
+      <c r="I14" s="24" t="n"/>
+      <c r="J14" s="24" t="n"/>
+      <c r="K14" s="24" t="n"/>
+      <c r="L14" s="24" t="n"/>
+      <c r="M14" s="25" t="n"/>
+      <c r="O14" s="31" t="inlineStr">
+        <is>
+          <t>月間同伴1位</t>
+        </is>
+      </c>
+      <c r="P14" s="85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B15" s="11" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D15" s="91" t="n"/>
+      <c r="E15" s="92" t="n"/>
+      <c r="F15" s="93">
+        <f>E15-D15</f>
+        <v/>
+      </c>
+      <c r="G15" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23" t="n"/>
+      <c r="I15" s="24" t="n"/>
+      <c r="J15" s="24" t="n"/>
+      <c r="K15" s="24" t="n"/>
+      <c r="L15" s="24" t="n"/>
+      <c r="M15" s="25" t="n"/>
+      <c r="O15" s="31" t="inlineStr">
+        <is>
+          <t>シャンパン</t>
+        </is>
+      </c>
+      <c r="P15" s="85">
+        <f>I34*10%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B16" s="11" t="n">
+        <v>45091</v>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D16" s="91" t="n"/>
+      <c r="E16" s="92" t="n"/>
+      <c r="F16" s="93">
+        <f>E16-D16</f>
+        <v/>
+      </c>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="23" t="n"/>
+      <c r="I16" s="24" t="n"/>
+      <c r="J16" s="24" t="n"/>
+      <c r="K16" s="24" t="n"/>
+      <c r="L16" s="24" t="n"/>
+      <c r="M16" s="25" t="n"/>
+      <c r="O16" s="33" t="inlineStr">
+        <is>
+          <t>ドリンク</t>
+        </is>
+      </c>
+      <c r="P16" s="84">
+        <f>H34*200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B17" s="11" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D17" s="91" t="n"/>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="93">
+        <f>E17-D17</f>
+        <v/>
+      </c>
+      <c r="G17" s="16" t="n"/>
+      <c r="H17" s="23" t="n"/>
+      <c r="I17" s="24" t="n"/>
+      <c r="J17" s="24" t="n"/>
+      <c r="K17" s="24" t="n"/>
+      <c r="L17" s="24" t="n"/>
+      <c r="M17" s="25" t="n"/>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>合計</t>
+        </is>
+      </c>
+      <c r="P17" s="0">
+        <f>SUM(P11:P16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B18" s="11" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D18" s="91" t="n"/>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="93">
+        <f>E18-D18</f>
+        <v/>
+      </c>
+      <c r="G18" s="16" t="n"/>
+      <c r="H18" s="23" t="n"/>
+      <c r="I18" s="24" t="n"/>
+      <c r="J18" s="24" t="n"/>
+      <c r="K18" s="24" t="n"/>
+      <c r="L18" s="24" t="n"/>
+      <c r="M18" s="25" t="n"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B19" s="11" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D19" s="91" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="93">
+        <f>E19-D19</f>
+        <v/>
+      </c>
+      <c r="G19" s="16" t="n"/>
+      <c r="H19" s="23" t="n"/>
+      <c r="I19" s="24" t="n"/>
+      <c r="J19" s="24" t="n"/>
+      <c r="K19" s="24" t="n"/>
+      <c r="L19" s="24" t="n"/>
+      <c r="M19" s="25" t="n"/>
+      <c r="O19" s="20" t="inlineStr">
+        <is>
+          <t>手当</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B20" s="11" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D20" s="91" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="93">
+        <f>E20-D20</f>
+        <v/>
+      </c>
+      <c r="G20" s="16" t="n"/>
+      <c r="H20" s="23" t="n"/>
+      <c r="I20" s="24" t="n"/>
+      <c r="J20" s="24" t="n"/>
+      <c r="K20" s="24" t="n"/>
+      <c r="L20" s="24" t="n"/>
+      <c r="M20" s="25" t="n"/>
+      <c r="O20" s="30" t="inlineStr">
+        <is>
+          <t>シフト手当</t>
+        </is>
+      </c>
+      <c r="P20" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B21" s="11" t="n">
+        <v>45096</v>
+      </c>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D21" s="91" t="n"/>
+      <c r="E21" s="92" t="n"/>
+      <c r="F21" s="93">
+        <f>E21-D21</f>
+        <v/>
+      </c>
+      <c r="G21" s="16" t="n"/>
+      <c r="H21" s="23" t="n"/>
+      <c r="I21" s="24" t="n"/>
+      <c r="J21" s="24" t="n"/>
+      <c r="K21" s="24" t="n"/>
+      <c r="L21" s="24" t="n"/>
+      <c r="M21" s="25" t="n"/>
+      <c r="O21" s="33" t="inlineStr">
+        <is>
+          <t>役職手当</t>
+        </is>
+      </c>
+      <c r="P21" s="84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B22" s="11" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D22" s="91" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="93">
+        <f>E22-D22</f>
+        <v/>
+      </c>
+      <c r="G22" s="16" t="n"/>
+      <c r="H22" s="23" t="n"/>
+      <c r="I22" s="24" t="n"/>
+      <c r="J22" s="24" t="n"/>
+      <c r="K22" s="24" t="n"/>
+      <c r="L22" s="24" t="n"/>
+      <c r="M22" s="25" t="n"/>
+    </row>
+    <row r="23" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B23" s="11" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C23" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D23" s="91" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="93">
+        <f>E23-D23</f>
+        <v/>
+      </c>
+      <c r="G23" s="16" t="n"/>
+      <c r="H23" s="23" t="n"/>
+      <c r="I23" s="24" t="n"/>
+      <c r="J23" s="24" t="n"/>
+      <c r="K23" s="24" t="n"/>
+      <c r="L23" s="24" t="n"/>
+      <c r="M23" s="25" t="n"/>
+      <c r="O23" s="20" t="inlineStr">
+        <is>
+          <t>控除</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B24" s="11" t="n">
+        <v>45099</v>
+      </c>
+      <c r="C24" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D24" s="91" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="93">
+        <f>E24-D24</f>
+        <v/>
+      </c>
+      <c r="G24" s="16" t="n"/>
+      <c r="H24" s="23" t="n"/>
+      <c r="I24" s="24" t="n"/>
+      <c r="J24" s="24" t="n"/>
+      <c r="K24" s="24" t="n"/>
+      <c r="L24" s="24" t="n"/>
+      <c r="M24" s="25" t="n"/>
+      <c r="O24" s="30" t="inlineStr">
+        <is>
+          <t>源泉徴収</t>
+        </is>
+      </c>
+      <c r="P24" s="86">
+        <f>P29*10.21%</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B25" s="11" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D25" s="91" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="93">
+        <f>E25-D25</f>
+        <v/>
+      </c>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="23" t="n"/>
+      <c r="I25" s="24" t="n"/>
+      <c r="J25" s="24" t="n"/>
+      <c r="K25" s="24" t="n"/>
+      <c r="L25" s="24" t="n"/>
+      <c r="M25" s="25" t="n"/>
+      <c r="O25" s="31" t="inlineStr">
+        <is>
+          <t>交通費</t>
+        </is>
+      </c>
+      <c r="P25" s="85">
+        <f>L34*500</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B26" s="11" t="n">
+        <v>45101</v>
+      </c>
+      <c r="C26" s="12" t="inlineStr">
+        <is>
+          <t>土</t>
+        </is>
+      </c>
+      <c r="D26" s="95" t="n"/>
+      <c r="E26" s="96" t="n"/>
+      <c r="F26" s="93">
+        <f>E26-D26</f>
+        <v/>
+      </c>
+      <c r="G26" s="16" t="n"/>
+      <c r="H26" s="23" t="n"/>
+      <c r="I26" s="24" t="n"/>
+      <c r="J26" s="24" t="n"/>
+      <c r="K26" s="24" t="n"/>
+      <c r="L26" s="24" t="n"/>
+      <c r="M26" s="25" t="n"/>
+      <c r="O26" s="33" t="inlineStr">
+        <is>
+          <t>前借</t>
+        </is>
+      </c>
+      <c r="P26" s="84">
+        <f>M34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B27" s="11" t="n">
+        <v>45102</v>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="D27" s="97" t="n"/>
+      <c r="E27" s="98" t="n"/>
+      <c r="F27" s="93">
+        <f>E27-D27</f>
+        <v/>
+      </c>
+      <c r="G27" s="16" t="n"/>
+      <c r="H27" s="23" t="n"/>
+      <c r="I27" s="24" t="n"/>
+      <c r="J27" s="24" t="n"/>
+      <c r="K27" s="24" t="n"/>
+      <c r="L27" s="24" t="n"/>
+      <c r="M27" s="25" t="n"/>
+    </row>
+    <row r="28" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B28" s="11" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C28" s="12" t="inlineStr">
+        <is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="D28" s="97" t="n"/>
+      <c r="E28" s="98" t="n"/>
+      <c r="F28" s="93">
+        <f>E28-D28</f>
+        <v/>
+      </c>
+      <c r="G28" s="16" t="n"/>
+      <c r="H28" s="23" t="n"/>
+      <c r="I28" s="24" t="n"/>
+      <c r="J28" s="24" t="n"/>
+      <c r="K28" s="24" t="n"/>
+      <c r="L28" s="24" t="n"/>
+      <c r="M28" s="25" t="n"/>
+      <c r="O28" s="20" t="inlineStr">
+        <is>
+          <t>支給額</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B29" s="11" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>火</t>
+        </is>
+      </c>
+      <c r="D29" s="97" t="n"/>
+      <c r="E29" s="98" t="n"/>
+      <c r="F29" s="93">
+        <f>E29-D29</f>
+        <v/>
+      </c>
+      <c r="G29" s="16" t="n"/>
+      <c r="H29" s="23" t="n"/>
+      <c r="I29" s="24" t="n"/>
+      <c r="J29" s="24" t="n"/>
+      <c r="K29" s="24" t="n"/>
+      <c r="L29" s="24" t="n"/>
+      <c r="M29" s="25" t="n"/>
+      <c r="O29" s="30" t="inlineStr">
+        <is>
+          <t>総支給額</t>
+        </is>
+      </c>
+      <c r="P29" s="83">
+        <f>P7+P8+P17+P20+P21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B30" s="11" t="n">
+        <v>45105</v>
+      </c>
+      <c r="C30" s="12" t="inlineStr">
+        <is>
+          <t>水</t>
+        </is>
+      </c>
+      <c r="D30" s="97" t="n"/>
+      <c r="E30" s="98" t="n"/>
+      <c r="F30" s="93">
+        <f>E30-D30</f>
+        <v/>
+      </c>
+      <c r="G30" s="16" t="n"/>
+      <c r="H30" s="23" t="n"/>
+      <c r="I30" s="24" t="n"/>
+      <c r="J30" s="24" t="n"/>
+      <c r="K30" s="24" t="n"/>
+      <c r="L30" s="24" t="n"/>
+      <c r="M30" s="25" t="n"/>
+      <c r="O30" s="33" t="inlineStr">
+        <is>
+          <t>差引支給額</t>
+        </is>
+      </c>
+      <c r="P30" s="87">
+        <f>P29-P24-P25-P26-P8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B31" s="11" t="n">
+        <v>45106</v>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>木</t>
+        </is>
+      </c>
+      <c r="D31" s="97" t="n"/>
+      <c r="E31" s="98" t="n"/>
+      <c r="F31" s="93">
+        <f>E31-D31</f>
+        <v/>
+      </c>
+      <c r="G31" s="16" t="n"/>
+      <c r="H31" s="23" t="n"/>
+      <c r="I31" s="24" t="n"/>
+      <c r="J31" s="24" t="n"/>
+      <c r="K31" s="24" t="n"/>
+      <c r="L31" s="24" t="n"/>
+      <c r="M31" s="25" t="n"/>
+    </row>
+    <row r="32" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B32" s="11" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C32" s="12" t="inlineStr">
+        <is>
+          <t>金</t>
+        </is>
+      </c>
+      <c r="D32" s="97" t="n"/>
+      <c r="E32" s="98" t="n"/>
+      <c r="F32" s="93">
+        <f>E32-D32</f>
+        <v/>
+      </c>
+      <c r="G32" s="16" t="n"/>
+      <c r="H32" s="23" t="n"/>
+      <c r="I32" s="24" t="n"/>
+      <c r="J32" s="24" t="n"/>
+      <c r="K32" s="24" t="n"/>
+      <c r="L32" s="24" t="n"/>
+      <c r="M32" s="25" t="n"/>
+      <c r="O32" s="20" t="inlineStr">
+        <is>
+          <t>参考値</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="B33" s="36" t="n"/>
+      <c r="C33" s="37" t="n"/>
+      <c r="D33" s="99" t="n"/>
+      <c r="E33" s="100" t="n"/>
+      <c r="F33" s="93">
+        <f>E33-D33</f>
+        <v/>
+      </c>
+      <c r="G33" s="16" t="n"/>
+      <c r="H33" s="40" t="n"/>
+      <c r="I33" s="41" t="n"/>
+      <c r="J33" s="41" t="n"/>
+      <c r="K33" s="41" t="n"/>
+      <c r="L33" s="41" t="n"/>
+      <c r="M33" s="29" t="n"/>
+      <c r="O33" s="30" t="inlineStr">
+        <is>
+          <t>月間売上</t>
+        </is>
+      </c>
+      <c r="P33" s="88">
+        <f>G34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="18.6" customHeight="1" s="89" thickBot="1">
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>当月勤務時間合計</t>
+        </is>
+      </c>
+      <c r="F34" s="101">
+        <f>SUM(F3:F33)</f>
+        <v/>
+      </c>
+      <c r="G34" s="81">
+        <f>SUM(G3:G33)</f>
+        <v/>
+      </c>
+      <c r="H34" s="82">
+        <f>SUM(H3:H33)</f>
+        <v/>
+      </c>
+      <c r="I34" s="82">
+        <f>SUM(I3:I33)</f>
+        <v/>
+      </c>
+      <c r="J34" s="82">
+        <f>SUM(J3:J33)</f>
+        <v/>
+      </c>
+      <c r="K34" s="82">
+        <f>SUM(K3:K33)</f>
+        <v/>
+      </c>
+      <c r="L34" s="82">
+        <f>SUM(L3:L33)</f>
+        <v/>
+      </c>
+      <c r="M34" s="81">
+        <f>SUM(M3:M33)</f>
+        <v/>
+      </c>
+      <c r="O34" s="33" t="inlineStr">
+        <is>
+          <t>給率</t>
+        </is>
+      </c>
+      <c r="P34" s="46">
+        <f>P29/P33</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7086614173228347" right="0.7086614173228347" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="52" horizontalDpi="360" verticalDpi="360"/>
+</worksheet>
 </file>